--- a/on_trucks/Processed_Stand_Alone/17_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/17_11R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>99</v>
       </c>
       <c r="E2">
-        <v>0.04442428601320838</v>
+        <v>0.04316724116202976</v>
       </c>
       <c r="F2">
         <v>0.5029012887788878</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>17</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>96</v>
       </c>
       <c r="E3">
-        <v>0.007944629831675761</v>
+        <v>0.007909671282679878</v>
       </c>
       <c r="F3">
         <v>0.5297196998119394</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>17</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>102</v>
       </c>
       <c r="E4">
-        <v>0.01137195160550335</v>
+        <v>0.01136965457601704</v>
       </c>
       <c r="F4">
         <v>0.533321673380595</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>17</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>101</v>
       </c>
       <c r="E5">
-        <v>0.02373558132506527</v>
+        <v>0.02256746400640139</v>
       </c>
       <c r="F5">
         <v>0.5370847606846432</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>17</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>102</v>
       </c>
       <c r="E6">
-        <v>0.01797644136179269</v>
+        <v>0.01717882544885584</v>
       </c>
       <c r="F6">
         <v>0.515653189504701</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>17</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>109</v>
       </c>
       <c r="E2">
-        <v>0.04442428601320838</v>
+        <v>0.04316724116202976</v>
       </c>
       <c r="F2">
         <v>0.7113772817589683</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>17</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>110</v>
       </c>
       <c r="E3">
-        <v>0.007944629831675761</v>
+        <v>0.007909671282679878</v>
       </c>
       <c r="F3">
         <v>0.7094293285850161</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>17</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>116</v>
       </c>
       <c r="E4">
-        <v>0.01137195160550335</v>
+        <v>0.01136965457601704</v>
       </c>
       <c r="F4">
         <v>0.725181443142523</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H4">
         <v>17</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>115</v>
       </c>
       <c r="E5">
-        <v>0.02373558132506527</v>
+        <v>0.02256746400640139</v>
       </c>
       <c r="F5">
         <v>0.7138682696022187</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H5">
         <v>17</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>115</v>
       </c>
       <c r="E6">
-        <v>0.01797644136179269</v>
+        <v>0.01717882544885584</v>
       </c>
       <c r="F6">
         <v>0.7103308041383667</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>17</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>130</v>
       </c>
       <c r="E2">
-        <v>0.04442428601320838</v>
+        <v>0.04316724116202976</v>
       </c>
       <c r="F2">
         <v>0.8036476652757439</v>
       </c>
       <c r="G2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>17</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>129</v>
       </c>
       <c r="E3">
-        <v>0.007944629831675761</v>
+        <v>0.007909671282679878</v>
       </c>
       <c r="F3">
         <v>0.8058797770354225</v>
       </c>
       <c r="G3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>17</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>134</v>
       </c>
       <c r="E4">
-        <v>0.01137195160550335</v>
+        <v>0.01136965457601704</v>
       </c>
       <c r="F4">
         <v>0.8082582802193089</v>
       </c>
       <c r="G4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H4">
         <v>17</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>138</v>
       </c>
       <c r="E5">
-        <v>0.02373558132506527</v>
+        <v>0.02256746400640139</v>
       </c>
       <c r="F5">
         <v>0.8002055438688203</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H5">
         <v>17</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>133</v>
       </c>
       <c r="E6">
-        <v>0.01797644136179269</v>
+        <v>0.01717882544885584</v>
       </c>
       <c r="F6">
         <v>0.8191851058465354</v>
       </c>
       <c r="G6">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>17</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>167</v>
       </c>
       <c r="E2">
-        <v>0.04442428601320838</v>
+        <v>0.04316724116202976</v>
       </c>
       <c r="F2">
         <v>0.9117573957004176</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H2">
         <v>17</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>152</v>
       </c>
       <c r="E3">
-        <v>0.007944629831675761</v>
+        <v>0.007909671282679878</v>
       </c>
       <c r="F3">
         <v>0.9000690280125173</v>
       </c>
       <c r="G3">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H3">
         <v>17</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>170</v>
       </c>
       <c r="E4">
-        <v>0.01137195160550335</v>
+        <v>0.01136965457601704</v>
       </c>
       <c r="F4">
         <v>0.9035422021222875</v>
       </c>
       <c r="G4">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H4">
         <v>17</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>168</v>
       </c>
       <c r="E5">
-        <v>0.02373558132506527</v>
+        <v>0.02256746400640139</v>
       </c>
       <c r="F5">
         <v>0.9129234978589293</v>
       </c>
       <c r="G5">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H5">
         <v>17</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>155</v>
       </c>
       <c r="E6">
-        <v>0.01797644136179269</v>
+        <v>0.01717882544885584</v>
       </c>
       <c r="F6">
         <v>0.9024513774542252</v>
       </c>
       <c r="G6">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H6">
         <v>17</v>

--- a/on_trucks/Processed_Stand_Alone/17_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/17_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0003889279613045278</v>
+        <v>0.000325169636542772</v>
       </c>
       <c r="C2">
-        <v>0.0005514703443874456</v>
+        <v>0.0004897432822241372</v>
       </c>
       <c r="D2">
-        <v>0.0008147939255821686</v>
+        <v>0.0007563575703201933</v>
       </c>
       <c r="E2">
-        <v>0.001150995492642787</v>
+        <v>0.001096760587216584</v>
       </c>
       <c r="F2">
-        <v>0.001061239685418408</v>
+        <v>0.001005883117993959</v>
       </c>
       <c r="G2">
-        <v>0.001280358203055098</v>
+        <v>0.001227739919892641</v>
       </c>
       <c r="H2">
-        <v>0.0009489639363814148</v>
+        <v>0.0008922042793417782</v>
       </c>
       <c r="I2">
-        <v>0.0008302768668283792</v>
+        <v>0.0007720339990671461</v>
       </c>
       <c r="J2">
-        <v>0.0005992103182300012</v>
+        <v>0.0005380798538369358</v>
       </c>
       <c r="K2">
-        <v>0.0005072306408266242</v>
+        <v>0.0004449507231341604</v>
       </c>
       <c r="L2">
-        <v>0.000561819145220413</v>
+        <v>0.0005002214101388915</v>
       </c>
       <c r="M2">
-        <v>0.0003525569883770548</v>
+        <v>0.0002883441421817167</v>
       </c>
       <c r="N2">
-        <v>6.777175545489914E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>6.14780179483208E-06</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>6.030376085380571E-07</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>6.918455556861441E-05</v>
+        <v>1.430455619778617E-06</v>
       </c>
       <c r="R2">
-        <v>0.0002027581163198528</v>
+        <v>0.000136673260865587</v>
       </c>
       <c r="S2">
-        <v>0.0003500653281765028</v>
+        <v>0.0002858213441568175</v>
       </c>
       <c r="T2">
-        <v>0.0006293640506570532</v>
+        <v>0.0005686104119738177</v>
       </c>
       <c r="U2">
-        <v>0.0008957450220978632</v>
+        <v>0.0008383202979657931</v>
       </c>
       <c r="V2">
-        <v>0.0008528480686451188</v>
+        <v>0.0007948872690877767</v>
       </c>
       <c r="W2">
-        <v>0.0008014232245059706</v>
+        <v>0.0007428197780244871</v>
       </c>
       <c r="X2">
-        <v>0.0009232182743091653</v>
+        <v>0.0008661368784131902</v>
       </c>
       <c r="Y2">
-        <v>0.001004916380884986</v>
+        <v>0.0009488559513677725</v>
       </c>
       <c r="Z2">
-        <v>0.0009293797348050968</v>
+        <v>0.0008723753375603031</v>
       </c>
       <c r="AA2">
-        <v>0.0007186653078448462</v>
+        <v>0.0006590276507307217</v>
       </c>
       <c r="AB2">
-        <v>0.0008090830051225007</v>
+        <v>0.0007505752815262337</v>
       </c>
       <c r="AC2">
-        <v>0.0005256789423115145</v>
+        <v>0.0004636295696873608</v>
       </c>
       <c r="AD2">
-        <v>0.0002488362000286441</v>
+        <v>0.0001833271740058814</v>
       </c>
       <c r="AE2">
-        <v>0.0001622523230595711</v>
+        <v>9.566127407405819E-05</v>
       </c>
       <c r="AF2">
-        <v>8.331154670568561E-05</v>
+        <v>1.573398919569602E-05</v>
       </c>
       <c r="AG2">
-        <v>8.819335709861895E-06</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>8.614124693344611E-06</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>2.805684225827476E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0001803249445142232</v>
+        <v>0.0001139597457920106</v>
       </c>
       <c r="AK2">
-        <v>0.0003338069068678743</v>
+        <v>0.0002693597443141499</v>
       </c>
       <c r="AL2">
-        <v>0.0005992103182300012</v>
+        <v>0.0005380798538369358</v>
       </c>
       <c r="AM2">
-        <v>0.0007077979569701412</v>
+        <v>0.0006480244925486712</v>
       </c>
       <c r="AN2">
-        <v>0.0009656673277258586</v>
+        <v>0.0009091164099298683</v>
       </c>
       <c r="AO2">
-        <v>0.0009888724795936244</v>
+        <v>0.0009326115523600109</v>
       </c>
       <c r="AP2">
-        <v>0.0008936658419305116</v>
+        <v>0.000836215134662048</v>
       </c>
       <c r="AQ2">
-        <v>0.0009856918793376202</v>
+        <v>0.0009293912047210897</v>
       </c>
       <c r="AR2">
-        <v>0.001066742785861349</v>
+        <v>0.00101145498968224</v>
       </c>
       <c r="AS2">
-        <v>0.0008071070249634555</v>
+        <v>0.000748574607902529</v>
       </c>
       <c r="AT2">
-        <v>0.00039628201189645</v>
+        <v>0.0003326155893673989</v>
       </c>
       <c r="AU2">
-        <v>0.0001639500931962234</v>
+        <v>9.738026093532061E-05</v>
       </c>
       <c r="AV2">
-        <v>4.066091327276725E-05</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>6.660011536059469E-06</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>5.660900155641722E-06</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>7.374782593590871E-05</v>
+        <v>6.050752346892926E-06</v>
       </c>
       <c r="AZ2">
-        <v>0.0001849119248834259</v>
+        <v>0.0001186040488206148</v>
       </c>
       <c r="BA2">
-        <v>0.0004497319861985994</v>
+        <v>0.0003867335182770093</v>
       </c>
       <c r="BB2">
-        <v>0.0004729209380650612</v>
+        <v>0.0004102122582573781</v>
       </c>
       <c r="BC2">
-        <v>0.0006785376546150008</v>
+        <v>0.000618398529516814</v>
       </c>
       <c r="BD2">
-        <v>0.0008196746959750182</v>
+        <v>0.000761299334812936</v>
       </c>
       <c r="BE2">
-        <v>0.001069014186044172</v>
+        <v>0.00101375477514003</v>
       </c>
       <c r="BF2">
-        <v>0.001140784591820919</v>
+        <v>0.001086422082624287</v>
       </c>
       <c r="BG2">
-        <v>0.0009794096788319705</v>
+        <v>0.0009230304966983172</v>
       </c>
       <c r="BH2">
-        <v>0.001074537286488722</v>
+        <v>0.001019346896766304</v>
       </c>
       <c r="BI2">
-        <v>0.0007313845588686096</v>
+        <v>0.0006719058519211726</v>
       </c>
       <c r="BJ2">
-        <v>0.000504999000647001</v>
+        <v>0.0004426911945530995</v>
       </c>
       <c r="BK2">
-        <v>0.0004194896937644194</v>
+        <v>0.0003561132934146975</v>
       </c>
       <c r="BL2">
-        <v>0.0002037201663972876</v>
+        <v>0.0001376473335078633</v>
       </c>
       <c r="BM2">
-        <v>0.0001176860494724642</v>
+        <v>5.053806387157339E-05</v>
       </c>
       <c r="BN2">
-        <v>2.410671194033166E-05</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>1.381310811180699E-07</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>2.895757233077387E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0001269919802214918</v>
+        <v>5.996028914462427E-05</v>
       </c>
       <c r="BR2">
-        <v>0.0002493367600689339</v>
+        <v>0.0001838339894539536</v>
       </c>
       <c r="BS2">
-        <v>0.0003679259996140952</v>
+        <v>0.0003039052171568961</v>
       </c>
       <c r="BT2">
-        <v>0.0005194620918111247</v>
+        <v>0.0004573350283369781</v>
       </c>
       <c r="BU2">
-        <v>0.0006811240548231782</v>
+        <v>0.0006210172514979828</v>
       </c>
       <c r="BV2">
-        <v>0.0005642210454137402</v>
+        <v>0.0005026533264420811</v>
       </c>
       <c r="BW2">
-        <v>0.0006532365525785336</v>
+        <v>0.0005927812442099197</v>
       </c>
       <c r="BX2">
-        <v>0.0007918427037348415</v>
+        <v>0.0007331195312277705</v>
       </c>
       <c r="BY2">
-        <v>0.0006935081558199655</v>
+        <v>0.0006335561143525271</v>
       </c>
       <c r="BZ2">
-        <v>0.0007095944571147402</v>
+        <v>0.0006498434432288328</v>
       </c>
       <c r="CA2">
-        <v>0.0006234020501771761</v>
+        <v>0.0005625739054583024</v>
       </c>
       <c r="CB2">
-        <v>0.0003538252284791345</v>
+        <v>0.0002896282312496867</v>
       </c>
       <c r="CC2">
-        <v>0.0001446788216450928</v>
+        <v>7.786815980864251E-05</v>
       </c>
       <c r="CD2">
-        <v>2.426268995288621E-05</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>6.565799528476413E-07</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>3.081296248011287E-05</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.000128540450346127</v>
+        <v>6.152811021877388E-05</v>
       </c>
       <c r="CH2">
-        <v>0.0002159378173806774</v>
+        <v>0.0001500176662534664</v>
       </c>
       <c r="CI2">
-        <v>0.0002840661828642798</v>
+        <v>0.000218997419529443</v>
       </c>
       <c r="CJ2">
-        <v>0.0005133740413211021</v>
+        <v>0.0004511708965872662</v>
       </c>
       <c r="CK2">
-        <v>0.0006251388003169658</v>
+        <v>0.0005643323594487118</v>
       </c>
       <c r="CL2">
-        <v>0.000631906050861657</v>
+        <v>0.0005711841790926437</v>
       </c>
       <c r="CM2">
-        <v>1.093013287975842E-06</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1326681206783602</v>
+        <v>0.1342574313662628</v>
       </c>
       <c r="CO2">
-        <v>0.08236138662920792</v>
+        <v>0.08332202321140376</v>
       </c>
       <c r="CP2">
-        <v>0.1934396455698159</v>
+        <v>0.1957884069512626</v>
       </c>
       <c r="CQ2">
-        <v>0.002408567793863864</v>
+        <v>0.002370048540760851</v>
       </c>
       <c r="CR2">
-        <v>0.02953605637733563</v>
+        <v>0.02983654441515751</v>
       </c>
       <c r="CS2">
-        <v>0.007693200619220105</v>
+        <v>0.007720722461375291</v>
       </c>
       <c r="CT2">
-        <v>0.001075577186572423</v>
+        <v>0.001020399792292215</v>
       </c>
       <c r="CU2">
-        <v>0.0001592321628164806</v>
+        <v>9.260337143771154E-05</v>
       </c>
       <c r="CV2">
-        <v>0.009134122735198874</v>
+        <v>0.009179651518964917</v>
       </c>
       <c r="CW2">
-        <v>0.001251546200736041</v>
+        <v>0.001198567859220882</v>
       </c>
       <c r="CX2">
-        <v>0.06397905014962706</v>
+        <v>0.06470996601618653</v>
       </c>
       <c r="CY2">
-        <v>0.02094264268565803</v>
+        <v>0.02113574039553089</v>
       </c>
       <c r="CZ2">
-        <v>0.001918058154383101</v>
+        <v>0.001873409091528579</v>
       </c>
       <c r="DA2">
-        <v>0.0175208744102424</v>
+        <v>0.01767121090432294</v>
       </c>
       <c r="DB2">
-        <v>0.006587608830231828</v>
+        <v>0.006601314292883234</v>
       </c>
       <c r="DC2">
-        <v>0.04360793350997075</v>
+        <v>0.04408427523694945</v>
       </c>
       <c r="DD2">
-        <v>0.03785727104710412</v>
+        <v>0.03826174779120534</v>
       </c>
       <c r="DE2">
-        <v>0.002091759968364234</v>
+        <v>0.002049281625486435</v>
       </c>
       <c r="DF2">
-        <v>0.01271924802376299</v>
+        <v>0.01280957946620356</v>
       </c>
       <c r="DG2">
-        <v>0.0004440258357393156</v>
+        <v>0.000380956059093261</v>
       </c>
       <c r="DH2">
-        <v>0.005042274405848988</v>
+        <v>0.005036668105261751</v>
       </c>
       <c r="DI2">
-        <v>0.0001839954148096567</v>
+        <v>0.000117676085287147</v>
       </c>
       <c r="DJ2">
-        <v>0.005450184438681369</v>
+        <v>0.005449675715584436</v>
       </c>
       <c r="DK2">
-        <v>0.00286365423049344</v>
+        <v>0.002830822109818618</v>
       </c>
       <c r="DL2">
-        <v>0.0230183698527318</v>
+        <v>0.02323740754748175</v>
       </c>
       <c r="DM2">
-        <v>0.01910986553813913</v>
+        <v>0.01928005936534193</v>
       </c>
       <c r="DN2">
-        <v>0.0001803521745164149</v>
+        <v>0.0001139873160825872</v>
       </c>
       <c r="DO2">
-        <v>0.0003956509318456548</v>
+        <v>0.0003319766228239887</v>
       </c>
       <c r="DP2">
-        <v>0.0002547254205026633</v>
+        <v>0.0001892899909970427</v>
       </c>
       <c r="DQ2">
-        <v>0.004362338151121415</v>
+        <v>0.004348234810824528</v>
       </c>
       <c r="DR2">
-        <v>0.008967015721748553</v>
+        <v>0.009010456199560654</v>
       </c>
       <c r="DS2">
-        <v>0.0006601538031352979</v>
+        <v>0.0005997849383887938</v>
       </c>
       <c r="DT2">
-        <v>0.002930961135910923</v>
+        <v>0.002898970137391435</v>
       </c>
       <c r="DU2">
-        <v>0.0001378854510982994</v>
+        <v>7.098989374569282E-05</v>
       </c>
       <c r="DV2">
-        <v>0.002163348674126356</v>
+        <v>0.002121764962284031</v>
       </c>
       <c r="DW2">
-        <v>0.004415986955439568</v>
+        <v>0.004402554054492689</v>
       </c>
       <c r="DX2">
-        <v>4.831924388918068E-05</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.002815218226594861</v>
+        <v>0.002781780809988778</v>
       </c>
       <c r="DZ2">
-        <v>0.001639359031950812</v>
+        <v>0.001591227116852589</v>
       </c>
       <c r="EA2">
-        <v>0.007186698878452149</v>
+        <v>0.007207891060474657</v>
       </c>
       <c r="EB2">
-        <v>0.0009262964145569226</v>
+        <v>0.0008692534856197767</v>
       </c>
       <c r="EC2">
-        <v>0.002892725632833376</v>
+        <v>0.002860256812186137</v>
       </c>
       <c r="ED2">
-        <v>0.01158894793278596</v>
+        <v>0.01166515422056671</v>
       </c>
       <c r="EE2">
-        <v>0.006920503557026282</v>
+        <v>0.006938369144532095</v>
       </c>
       <c r="EF2">
-        <v>0.001973123458815267</v>
+        <v>0.001929162537055047</v>
       </c>
       <c r="EG2">
-        <v>0.006571187228910065</v>
+        <v>0.006584687473796487</v>
       </c>
       <c r="EH2">
-        <v>0.000281762002678818</v>
+        <v>0.000216664444423284</v>
       </c>
       <c r="EI2">
-        <v>0.004864180391514331</v>
+        <v>0.004856348482421397</v>
       </c>
       <c r="EJ2">
-        <v>0.0002978785439760267</v>
+        <v>0.000232982391205834</v>
       </c>
       <c r="EK2">
-        <v>0.0003525569883770548</v>
+        <v>0.0002883441421817167</v>
       </c>
       <c r="EL2">
-        <v>0.0002149176072985614</v>
+        <v>0.0001489847067915084</v>
       </c>
       <c r="EM2">
-        <v>2.37765219137549E-05</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.0001277535902827933</v>
+        <v>6.073141690834143E-05</v>
       </c>
       <c r="EO2">
-        <v>0.004315664347364675</v>
+        <v>0.004300977733031194</v>
       </c>
       <c r="EP2">
-        <v>0.00790158063599246</v>
+        <v>0.007931706565317439</v>
       </c>
       <c r="EQ2">
-        <v>0.002042669764412999</v>
+        <v>0.001999577950184866</v>
       </c>
       <c r="ER2">
-        <v>0.0006645478534889718</v>
+        <v>0.0006042339003905549</v>
       </c>
       <c r="ES2">
-        <v>0.002212367878071876</v>
+        <v>0.002171396750305726</v>
       </c>
       <c r="ET2">
-        <v>0.00177321784272501</v>
+        <v>0.001726758736839013</v>
       </c>
       <c r="EU2">
-        <v>0.0003764270502983386</v>
+        <v>0.0003125125039253835</v>
       </c>
       <c r="EV2">
-        <v>0.0003350780469701876</v>
+        <v>0.0002706467696231288</v>
       </c>
       <c r="EW2">
-        <v>1.968225458421031E-05</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.002079432767372027</v>
+        <v>0.002036800373705479</v>
       </c>
       <c r="EY2">
-        <v>0.005920752876557079</v>
+        <v>0.005926124761642069</v>
       </c>
       <c r="EZ2">
-        <v>0.0001277765102846381</v>
+        <v>6.075462333728063E-05</v>
       </c>
       <c r="FA2">
-        <v>0.006637158834220072</v>
+        <v>0.006651483514259246</v>
       </c>
       <c r="FB2">
-        <v>0.004043166825431548</v>
+        <v>0.004025074859127867</v>
       </c>
       <c r="FC2">
-        <v>0.001830506447336128</v>
+        <v>0.001784763266722399</v>
       </c>
       <c r="FD2">
-        <v>0.007033236566100079</v>
+        <v>0.007052510957516595</v>
       </c>
       <c r="FE2">
-        <v>0.004604188670587787</v>
+        <v>0.004593107692245299</v>
       </c>
       <c r="FF2">
-        <v>0.0009150347736504814</v>
+        <v>0.0008578511100351763</v>
       </c>
       <c r="FG2">
-        <v>0.001099007988458351</v>
+        <v>0.001044123404647756</v>
       </c>
       <c r="FH2">
-        <v>0.0005739281061950545</v>
+        <v>0.0005124816945964753</v>
       </c>
       <c r="FI2">
-        <v>2.37765219137549E-05</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.002179165275399423</v>
+        <v>0.00213777922074651</v>
       </c>
       <c r="FK2">
-        <v>0.0001674245734758817</v>
+        <v>0.0001008981611631011</v>
       </c>
       <c r="FL2">
-        <v>0.01419832814281307</v>
+        <v>0.01430714338048877</v>
       </c>
       <c r="FM2">
-        <v>0.01332759407272832</v>
+        <v>0.01342552790509784</v>
       </c>
       <c r="FN2">
-        <v>0.00391956031548255</v>
+        <v>0.003899923661105384</v>
       </c>
       <c r="FO2">
-        <v>0.008466189681437431</v>
+        <v>0.008503371427313175</v>
       </c>
       <c r="FP2">
-        <v>0.008684905699041722</v>
+        <v>0.008724820699209759</v>
       </c>
       <c r="FQ2">
-        <v>0.0005404331434990694</v>
+        <v>0.0004785681514436869</v>
       </c>
       <c r="FR2">
-        <v>0.0001158411693239712</v>
+        <v>4.867012859140838E-05</v>
       </c>
       <c r="FS2">
-        <v>0.0007168031576949632</v>
+        <v>0.0006571422296291003</v>
       </c>
       <c r="FT2">
-        <v>0.00046556801747323</v>
+        <v>0.0004027674495542478</v>
       </c>
       <c r="FU2">
-        <v>0.0008196166059703426</v>
+        <v>0.0007612405188680372</v>
       </c>
       <c r="FV2">
-        <v>0.0004312780847132584</v>
+        <v>0.0003680490017411711</v>
       </c>
       <c r="FW2">
-        <v>0.000276721392273103</v>
+        <v>0.0002115608424261066</v>
       </c>
       <c r="FX2">
-        <v>0.004744905881914013</v>
+        <v>0.004735583420968055</v>
       </c>
       <c r="FY2">
-        <v>0.00569209085815224</v>
+        <v>0.005694605195581895</v>
       </c>
       <c r="FZ2">
-        <v>0.003494604981278205</v>
+        <v>0.003469657737379661</v>
       </c>
       <c r="GA2">
-        <v>0.003760784502702801</v>
+        <v>0.00373916365587121</v>
       </c>
       <c r="GB2">
-        <v>0.005598292250602458</v>
+        <v>0.005599634403893499</v>
       </c>
       <c r="GC2">
-        <v>0.004506266362706092</v>
+        <v>0.004493961667091953</v>
       </c>
       <c r="GD2">
-        <v>0.002220310178711146</v>
+        <v>0.002179438304431553</v>
       </c>
       <c r="GE2">
-        <v>0.001298605304523794</v>
+        <v>0.001246215052069639</v>
       </c>
       <c r="GF2">
-        <v>0.001371334510377714</v>
+        <v>0.001319853141581248</v>
       </c>
       <c r="GG2">
-        <v>2.426268995288621E-05</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.001850685348960313</v>
+        <v>0.001805194340410077</v>
       </c>
       <c r="GI2">
-        <v>1.879434951274348E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>1.954179557290487E-05</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>4.285416744930068E-05</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>1.138813791662291E-05</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.006733552541978731</v>
+        <v>0.006749081836651838</v>
       </c>
       <c r="GN2">
-        <v>0.005991059482216007</v>
+        <v>0.005997309976164667</v>
       </c>
       <c r="GO2">
-        <v>3.487168880679679E-05</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0001491775920071955</v>
+        <v>8.242315048573155E-05</v>
       </c>
       <c r="GQ2">
-        <v>0.001251546200736041</v>
+        <v>0.001198567859220882</v>
       </c>
       <c r="GR2">
-        <v>0.001392582412087942</v>
+        <v>0.001341366574454615</v>
       </c>
       <c r="GS2">
-        <v>0.0002705817217789254</v>
+        <v>0.0002053444455864364</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>8.817830857709165E-05</v>
+        <v>6.903300932155487E-05</v>
       </c>
       <c r="C3">
-        <v>0.0001838794270327898</v>
+        <v>0.0001650617134544663</v>
       </c>
       <c r="D3">
-        <v>8.015495870656217E-05</v>
+        <v>6.098219546164606E-05</v>
       </c>
       <c r="E3">
-        <v>2.322684262519503E-07</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>7.276276882584784E-05</v>
+        <v>5.356470205713558E-05</v>
       </c>
       <c r="G3">
-        <v>4.898891620947975E-05</v>
+        <v>2.970947135726154E-05</v>
       </c>
       <c r="H3">
-        <v>1.836741470361024E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3.332618446222481E-05</v>
+        <v>1.399312595669482E-05</v>
       </c>
       <c r="J3">
-        <v>1.119159481940441E-07</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.938079368725763E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>5.44154821219128E-05</v>
+        <v>3.515461244726881E-05</v>
       </c>
       <c r="M3">
-        <v>1.880527169654466E-06</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>8.49839686286378E-06</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0001642249973499478</v>
+        <v>0.000145340006505049</v>
       </c>
       <c r="P3">
-        <v>4.222942931855567E-06</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.430945776909234E-07</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>4.002996935404773E-05</v>
+        <v>2.071985795665103E-05</v>
       </c>
       <c r="S3">
-        <v>6.593871393596566E-05</v>
+        <v>4.671728837397579E-05</v>
       </c>
       <c r="T3">
-        <v>0.00011110314820716</v>
+        <v>9.20363208570346E-05</v>
       </c>
       <c r="U3">
-        <v>0.0003515285443274836</v>
+        <v>0.0003332846949893006</v>
       </c>
       <c r="V3">
-        <v>6.665098892447189E-05</v>
+        <v>4.743200148534032E-05</v>
       </c>
       <c r="W3">
-        <v>3.993057335565166E-06</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>8.185955867905552E-07</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>3.838674938056391E-05</v>
+        <v>1.907101322834187E-05</v>
       </c>
       <c r="Z3">
-        <v>2.301663162858714E-06</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0002058517666782284</v>
+        <v>0.0001871092645904168</v>
       </c>
       <c r="AB3">
-        <v>5.573770110057653E-05</v>
+        <v>3.648135739184118E-05</v>
       </c>
       <c r="AC3">
-        <v>9.558245845761296E-07</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>4.960311919956854E-05</v>
+        <v>3.032577676899075E-05</v>
       </c>
       <c r="AE3">
-        <v>9.038248854152341E-05</v>
+        <v>7.124473421124978E-05</v>
       </c>
       <c r="AF3">
-        <v>0.0001546927375037672</v>
+        <v>0.0001357751176588371</v>
       </c>
       <c r="AG3">
-        <v>0.0001536066075212937</v>
+        <v>0.0001346852698449361</v>
       </c>
       <c r="AH3">
-        <v>0.0002960195352232167</v>
+        <v>0.0002775856781125825</v>
       </c>
       <c r="AI3">
-        <v>0.0002671589256889322</v>
+        <v>0.0002486262784860646</v>
       </c>
       <c r="AJ3">
-        <v>7.730893275248767E-05</v>
+        <v>5.812642753846425E-05</v>
       </c>
       <c r="AK3">
-        <v>8.573112261658119E-05</v>
+        <v>6.657744662435547E-05</v>
       </c>
       <c r="AL3">
-        <v>0.0002138776165487176</v>
+        <v>0.0001951625870078046</v>
       </c>
       <c r="AM3">
-        <v>2.740550355776516E-05</v>
+        <v>8.052178515177418E-06</v>
       </c>
       <c r="AN3">
-        <v>3.058300450649073E-06</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>1.427449476965653E-06</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.203563580578436E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>9.683951843732815E-05</v>
+        <v>7.77238665709059E-05</v>
       </c>
       <c r="AR3">
-        <v>0.0002728559755970005</v>
+        <v>0.0002543428294405404</v>
       </c>
       <c r="AS3">
-        <v>0.0001503318575741375</v>
+        <v>0.0001313993104030899</v>
       </c>
       <c r="AT3">
-        <v>0.000107747878261303</v>
+        <v>8.866956579590226E-05</v>
       </c>
       <c r="AU3">
-        <v>0.0002285742363115624</v>
+        <v>0.00020990951341508</v>
       </c>
       <c r="AV3">
-        <v>0.000227253546332874</v>
+        <v>0.0002085843027042619</v>
       </c>
       <c r="AW3">
-        <v>0.0001029593283385745</v>
+        <v>8.386462462932393E-05</v>
       </c>
       <c r="AX3">
-        <v>0.0001000217483859774</v>
+        <v>8.091698931756626E-05</v>
       </c>
       <c r="AY3">
-        <v>8.196380867737326E-05</v>
+        <v>6.279723714005918E-05</v>
       </c>
       <c r="AZ3">
-        <v>6.266536298878681E-05</v>
+        <v>4.343273272089495E-05</v>
       </c>
       <c r="BA3">
-        <v>7.448667879802959E-05</v>
+        <v>5.52945129866395E-05</v>
       </c>
       <c r="BB3">
-        <v>4.590135925930278E-06</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>1.318579678722454E-05</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>2.343882762177429E-05</v>
+        <v>4.071924616423457E-06</v>
       </c>
       <c r="BE3">
-        <v>4.421302928654689E-05</v>
+        <v>2.491723653602624E-05</v>
       </c>
       <c r="BF3">
-        <v>6.292184898464797E-05</v>
+        <v>4.369009667032661E-05</v>
       </c>
       <c r="BG3">
-        <v>5.336870413880436E-05</v>
+        <v>3.410425133493449E-05</v>
       </c>
       <c r="BH3">
-        <v>8.338490865444138E-06</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>2.017308467447266E-05</v>
+        <v>7.950030054629333E-07</v>
       </c>
       <c r="BJ3">
-        <v>0.0002058517666782284</v>
+        <v>0.0001871092645904168</v>
       </c>
       <c r="BK3">
-        <v>0.0002361796161888365</v>
+        <v>0.0002175409265671765</v>
       </c>
       <c r="BL3">
-        <v>0.0001807296970836161</v>
+        <v>0.0001619012019550339</v>
       </c>
       <c r="BM3">
-        <v>0.0003434350344580862</v>
+        <v>0.0003251634809722989</v>
       </c>
       <c r="BN3">
-        <v>0.0002581798958338243</v>
+        <v>0.0002396165133415132</v>
       </c>
       <c r="BO3">
-        <v>0.0001394905677490803</v>
+        <v>0.0001205209107581423</v>
       </c>
       <c r="BP3">
-        <v>4.676956924529272E-05</v>
+        <v>2.748252755105253E-05</v>
       </c>
       <c r="BQ3">
-        <v>6.667717292404936E-05</v>
+        <v>4.74582751129532E-05</v>
       </c>
       <c r="BR3">
-        <v>3.089230550149962E-08</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>6.440043696078841E-06</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>6.108499901428869E-05</v>
+        <v>4.184695914814779E-05</v>
       </c>
       <c r="BU3">
-        <v>1.034022483314272E-07</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>8.705649859519397E-05</v>
+        <v>6.79073593753124E-05</v>
       </c>
       <c r="BW3">
-        <v>4.590135925930278E-06</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>6.33597729775813E-05</v>
+        <v>4.412951968051396E-05</v>
       </c>
       <c r="BY3">
-        <v>0.0001237377680032787</v>
+        <v>0.0001047141890555653</v>
       </c>
       <c r="BZ3">
-        <v>3.802626438638096E-05</v>
+        <v>1.870929429120349E-05</v>
       </c>
       <c r="CA3">
-        <v>3.417318644855698E-05</v>
+        <v>1.484302723745291E-05</v>
       </c>
       <c r="CB3">
-        <v>0.0001101829782220085</v>
+        <v>9.111300112282479E-05</v>
       </c>
       <c r="CC3">
-        <v>0.0001283206179293266</v>
+        <v>0.000109312726112765</v>
       </c>
       <c r="CD3">
-        <v>0.0001838359170334919</v>
+        <v>0.0001650180545201004</v>
       </c>
       <c r="CE3">
-        <v>0.0001289820979186525</v>
+        <v>0.0001099764703532695</v>
       </c>
       <c r="CF3">
-        <v>0.0001446657776655694</v>
+        <v>0.000125713835458665</v>
       </c>
       <c r="CG3">
-        <v>0.0002020580067394473</v>
+        <v>0.0001833025185816838</v>
       </c>
       <c r="CH3">
-        <v>0.00011110314820716</v>
+        <v>9.20363208570346E-05</v>
       </c>
       <c r="CI3">
-        <v>3.24898134757211E-05</v>
+        <v>1.315389206576076E-05</v>
       </c>
       <c r="CJ3">
-        <v>2.456592760358659E-05</v>
+        <v>5.202882670291629E-06</v>
       </c>
       <c r="CK3">
-        <v>5.724776107620912E-05</v>
+        <v>3.799658631458467E-05</v>
       </c>
       <c r="CL3">
-        <v>5.958895503842994E-07</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>3.436265944549951E-05</v>
+        <v>1.503314880194636E-05</v>
       </c>
       <c r="CN3">
-        <v>0.001428128876954689</v>
+        <v>0.001413570238978116</v>
       </c>
       <c r="CO3">
-        <v>0.1574109974599034</v>
+        <v>0.1579303694014535</v>
       </c>
       <c r="CP3">
-        <v>0.08393782264551916</v>
+        <v>0.08420569533484566</v>
       </c>
       <c r="CQ3">
-        <v>0.2288806963066171</v>
+        <v>0.2296447095864789</v>
       </c>
       <c r="CR3">
-        <v>0.001513231475581413</v>
+        <v>0.001498964144465758</v>
       </c>
       <c r="CS3">
-        <v>0.04860419321568792</v>
+        <v>0.04875111861503546</v>
       </c>
       <c r="CT3">
-        <v>0.004675970324545193</v>
+        <v>0.004672529073253944</v>
       </c>
       <c r="CU3">
-        <v>0.001246020379893322</v>
+        <v>0.001230838383106541</v>
       </c>
       <c r="CV3">
-        <v>2.342330262202481E-05</v>
+        <v>4.056346474478375E-06</v>
       </c>
       <c r="CW3">
-        <v>0.00413619343325542</v>
+        <v>0.00413090452144222</v>
       </c>
       <c r="CX3">
-        <v>0.0001601401674158635</v>
+        <v>0.0001412411941661418</v>
       </c>
       <c r="CY3">
-        <v>0.03669753240782232</v>
+        <v>0.03680370121407008</v>
       </c>
       <c r="CZ3">
-        <v>0.01500279475790415</v>
+        <v>0.01503470230744254</v>
       </c>
       <c r="DA3">
-        <v>0.0009169926852027491</v>
+        <v>0.0009006844240428188</v>
       </c>
       <c r="DB3">
-        <v>0.008898504856407349</v>
+        <v>0.00890951737385462</v>
       </c>
       <c r="DC3">
-        <v>0.001177900180992559</v>
+        <v>0.001162485008231986</v>
       </c>
       <c r="DD3">
-        <v>0.05177948916444906</v>
+        <v>0.05193728362667185</v>
       </c>
       <c r="DE3">
-        <v>0.03906451936962693</v>
+        <v>0.03917879039076359</v>
       </c>
       <c r="DF3">
-        <v>0.00305016395078037</v>
+        <v>0.00304115755155186</v>
       </c>
       <c r="DG3">
-        <v>0.01287998379215935</v>
+        <v>0.01290462494315371</v>
       </c>
       <c r="DH3">
-        <v>0.001249110279843462</v>
+        <v>0.001233938859808384</v>
       </c>
       <c r="DI3">
-        <v>0.006244867899228337</v>
+        <v>0.006246796996609854</v>
       </c>
       <c r="DJ3">
-        <v>0.0004130542433346608</v>
+        <v>0.0003950209969455397</v>
       </c>
       <c r="DK3">
-        <v>0.01032997183330817</v>
+        <v>0.01034588427341678</v>
       </c>
       <c r="DL3">
-        <v>0.002487757459855763</v>
+        <v>0.002476825938808704</v>
       </c>
       <c r="DM3">
-        <v>0.02169378264993358</v>
+        <v>0.02174859350337485</v>
       </c>
       <c r="DN3">
-        <v>0.007166022284363931</v>
+        <v>0.007171104500412627</v>
       </c>
       <c r="DO3">
-        <v>0.00208385146637348</v>
+        <v>0.002071537371950681</v>
       </c>
       <c r="DP3">
-        <v>0.0001942592368652938</v>
+        <v>0.0001754770534572357</v>
       </c>
       <c r="DQ3">
-        <v>2.523076759285826E-06</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.006521836894758968</v>
+        <v>0.006524714059179117</v>
       </c>
       <c r="DS3">
-        <v>0.01661173573194113</v>
+        <v>0.01664915069902156</v>
       </c>
       <c r="DT3">
-        <v>0.003019641951272894</v>
+        <v>0.003010531075001275</v>
       </c>
       <c r="DU3">
-        <v>0.002932327752681859</v>
+        <v>0.00292291799922534</v>
       </c>
       <c r="DV3">
-        <v>0.0003041012650928041</v>
+        <v>0.0002856950718067428</v>
       </c>
       <c r="DW3">
-        <v>0.002178072164853067</v>
+        <v>0.002166080588618321</v>
       </c>
       <c r="DX3">
-        <v>0.006809892490110696</v>
+        <v>0.006813755671087401</v>
       </c>
       <c r="DY3">
-        <v>0.0001412178677212073</v>
+        <v>0.0001222541232915878</v>
       </c>
       <c r="DZ3">
-        <v>0.00606642190210787</v>
+        <v>0.006067740177445132</v>
       </c>
       <c r="EA3">
-        <v>0.0008776870858370123</v>
+        <v>0.0008612442813029369</v>
       </c>
       <c r="EB3">
-        <v>0.006129929901083059</v>
+        <v>0.006131465564797682</v>
       </c>
       <c r="EC3">
-        <v>0.002125468265701921</v>
+        <v>0.002113296625908822</v>
       </c>
       <c r="ED3">
-        <v>0.01058075582926134</v>
+        <v>0.01059752670495017</v>
       </c>
       <c r="EE3">
-        <v>0.02156512565200968</v>
+        <v>0.02161949611154048</v>
       </c>
       <c r="EF3">
-        <v>0.009746048842730774</v>
+        <v>0.009759962509874183</v>
       </c>
       <c r="EG3">
-        <v>0.0003132663949449091</v>
+        <v>0.000294891573970037</v>
       </c>
       <c r="EH3">
-        <v>0.001410551777238326</v>
+        <v>0.001395932972711905</v>
       </c>
       <c r="EI3">
-        <v>0.0008058835869956851</v>
+        <v>0.0007891949985233048</v>
       </c>
       <c r="EJ3">
-        <v>0.009463136847296045</v>
+        <v>0.009476082104465653</v>
       </c>
       <c r="EK3">
-        <v>0.00132547657861116</v>
+        <v>0.001310566561014233</v>
       </c>
       <c r="EL3">
-        <v>4.002996935404773E-05</v>
+        <v>2.071985795665103E-05</v>
       </c>
       <c r="EM3">
-        <v>0.0002643068657349551</v>
+        <v>0.0002457644559085513</v>
       </c>
       <c r="EN3">
-        <v>0.000969022734363155</v>
+        <v>0.0009528925724685696</v>
       </c>
       <c r="EO3">
-        <v>0.0003284124747005011</v>
+        <v>0.0003100894988751311</v>
       </c>
       <c r="EP3">
-        <v>0.009369446848807892</v>
+        <v>0.009382071404379671</v>
       </c>
       <c r="EQ3">
-        <v>0.01190630480787134</v>
+        <v>0.01192761304808467</v>
       </c>
       <c r="ER3">
-        <v>0.004515635227132475</v>
+        <v>0.004511645147548365</v>
       </c>
       <c r="ES3">
-        <v>0.0009580615245400329</v>
+        <v>0.0009418938423384655</v>
       </c>
       <c r="ET3">
-        <v>0.0001521248275452048</v>
+        <v>0.0001331984177243959</v>
       </c>
       <c r="EU3">
-        <v>5.902641604750747E-05</v>
+        <v>3.978132963576548E-05</v>
       </c>
       <c r="EV3">
-        <v>0.0005963715303765217</v>
+        <v>0.0005789657804951691</v>
       </c>
       <c r="EW3">
-        <v>0.0006871769889112198</v>
+        <v>0.0006700820668248685</v>
       </c>
       <c r="EX3">
-        <v>0.001872524869783597</v>
+        <v>0.00185948740276731</v>
       </c>
       <c r="EY3">
-        <v>0.005112190217506036</v>
+        <v>0.005110242150321257</v>
       </c>
       <c r="EZ3">
-        <v>0.007457465279660997</v>
+        <v>0.007463545107362766</v>
       </c>
       <c r="FA3">
-        <v>1.533880275248209E-06</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.004186983632435832</v>
+        <v>0.004181868575871796</v>
       </c>
       <c r="FC3">
-        <v>0.002230244664011174</v>
+        <v>0.00221843167464923</v>
       </c>
       <c r="FD3">
-        <v>0.001836247670368992</v>
+        <v>0.001823086026215285</v>
       </c>
       <c r="FE3">
-        <v>0.007480424279290515</v>
+        <v>0.007486582695827641</v>
       </c>
       <c r="FF3">
-        <v>0.004612379925571333</v>
+        <v>0.004608721003846883</v>
       </c>
       <c r="FG3">
-        <v>0.001894176769434207</v>
+        <v>0.001881213417039822</v>
       </c>
       <c r="FH3">
-        <v>0.004308612930473135</v>
+        <v>0.004303914211947874</v>
       </c>
       <c r="FI3">
-        <v>0.002819738554498678</v>
+        <v>0.002809943407335911</v>
       </c>
       <c r="FJ3">
-        <v>0.001408482677271714</v>
+        <v>0.001393856790199919</v>
       </c>
       <c r="FK3">
-        <v>0.007065173085991305</v>
+        <v>0.007069910094444956</v>
       </c>
       <c r="FL3">
-        <v>0.0008925304855974886</v>
+        <v>0.000876138490136924</v>
       </c>
       <c r="FM3">
-        <v>0.007037967286430318</v>
+        <v>0.00704261116921922</v>
       </c>
       <c r="FN3">
-        <v>0.005930667604298499</v>
+        <v>0.005931521191612254</v>
       </c>
       <c r="FO3">
-        <v>0.0007227893883365526</v>
+        <v>0.0007058163677720559</v>
       </c>
       <c r="FP3">
-        <v>0.002764101955396471</v>
+        <v>0.002754116363719692</v>
       </c>
       <c r="FQ3">
-        <v>0.003785553538913596</v>
+        <v>0.003779064383998753</v>
       </c>
       <c r="FR3">
-        <v>1.33445737846624E-07</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>1.493440075900781E-05</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.0003369219745631856</v>
+        <v>0.0003186281268224217</v>
       </c>
       <c r="FU3">
-        <v>0.0003548165542744259</v>
+        <v>0.0003365839598200158</v>
       </c>
       <c r="FV3">
-        <v>0.001396350577467487</v>
+        <v>0.001381683162123144</v>
       </c>
       <c r="FW3">
-        <v>0.001605210374097175</v>
+        <v>0.001591257887470758</v>
       </c>
       <c r="FX3">
-        <v>0.0001826517370526007</v>
+        <v>0.0001638298210818699</v>
       </c>
       <c r="FY3">
-        <v>0.001399741277412772</v>
+        <v>0.00138508546846087</v>
       </c>
       <c r="FZ3">
-        <v>0.001408482677271714</v>
+        <v>0.001393856790199919</v>
       </c>
       <c r="GA3">
-        <v>0.0006675291892282708</v>
+        <v>0.0006503670125698858</v>
       </c>
       <c r="GB3">
-        <v>0.0006926227888233425</v>
+        <v>0.0006755465077526968</v>
       </c>
       <c r="GC3">
-        <v>0.001356442678111469</v>
+        <v>0.001341638657715402</v>
       </c>
       <c r="GD3">
-        <v>0.0005648334508854429</v>
+        <v>0.0005473197459112469</v>
       </c>
       <c r="GE3">
-        <v>2.449443960474017E-07</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>3.468648644027401E-05</v>
+        <v>1.535808425905751E-05</v>
       </c>
       <c r="GG3">
-        <v>5.882719305072227E-05</v>
+        <v>3.958142469710362E-05</v>
       </c>
       <c r="GH3">
-        <v>0.0009293966850025892</v>
+        <v>0.0009131308828310193</v>
       </c>
       <c r="GI3">
-        <v>0.004525437926974291</v>
+        <v>0.004521481402108433</v>
       </c>
       <c r="GJ3">
-        <v>0.0004255934531323191</v>
+        <v>0.0004076031285564387</v>
       </c>
       <c r="GK3">
-        <v>5.958895503842994E-07</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.0002456842260354633</v>
+        <v>0.0002270780707676697</v>
       </c>
       <c r="GM3">
-        <v>6.859565389309138E-05</v>
+        <v>4.938332305736193E-05</v>
       </c>
       <c r="GN3">
-        <v>0.005246496715338771</v>
+        <v>0.005245008380346851</v>
       </c>
       <c r="GO3">
-        <v>0.002990868151737209</v>
+        <v>0.00298165878252466</v>
       </c>
       <c r="GP3">
-        <v>0.001618216173887305</v>
+        <v>0.001604308206215322</v>
       </c>
       <c r="GQ3">
-        <v>0.0003851602937847775</v>
+        <v>0.0003670315661881125</v>
       </c>
       <c r="GR3">
-        <v>5.30273431443128E-07</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>1.780995971260573E-07</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0003637794325823104</v>
+        <v>0.0003523152419502666</v>
       </c>
       <c r="C4">
-        <v>0.0002623670418624283</v>
+        <v>0.0002506736683540774</v>
       </c>
       <c r="D4">
-        <v>0.0007332352752049149</v>
+        <v>0.0007226060215276129</v>
       </c>
       <c r="E4">
-        <v>0.000276776531964715</v>
+        <v>0.0002651157226071972</v>
       </c>
       <c r="F4">
-        <v>1.225859608701839E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1.4240211101085E-05</v>
+        <v>1.986093285660778E-06</v>
       </c>
       <c r="H4">
-        <v>7.063216050138666E-05</v>
+        <v>5.850548341655155E-05</v>
       </c>
       <c r="I4">
-        <v>3.050887021656906E-11</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>3.388150024050988E-06</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0001185960008418609</v>
+        <v>0.0001065777177196366</v>
       </c>
       <c r="L4">
-        <v>0.0002845187320196734</v>
+        <v>0.0002728754193375121</v>
       </c>
       <c r="M4">
-        <v>0.0004128206329304323</v>
+        <v>0.0004014672709976585</v>
       </c>
       <c r="N4">
-        <v>0.0003553260825223037</v>
+        <v>0.0003438427880798929</v>
       </c>
       <c r="O4">
-        <v>0.0004227183230006916</v>
+        <v>0.0004113873289567231</v>
       </c>
       <c r="P4">
-        <v>0.0004706766633411268</v>
+        <v>0.000459454050830264</v>
       </c>
       <c r="Q4">
-        <v>0.0004128206329304323</v>
+        <v>0.0004014672709976585</v>
       </c>
       <c r="R4">
-        <v>0.0003138257022277108</v>
+        <v>0.0003022486206607066</v>
       </c>
       <c r="S4">
-        <v>0.0004511841732027582</v>
+        <v>0.0004399175094184307</v>
       </c>
       <c r="T4">
-        <v>0.0003850179527330732</v>
+        <v>0.0003736017592451862</v>
       </c>
       <c r="U4">
-        <v>0.0002139786815189406</v>
+        <v>0.0002021759546709772</v>
       </c>
       <c r="V4">
-        <v>0.0001381272609805047</v>
+        <v>0.0001261531167484565</v>
       </c>
       <c r="W4">
-        <v>6.693508547514275E-05</v>
+        <v>5.480005333347066E-05</v>
       </c>
       <c r="X4">
-        <v>2.083574114790377E-05</v>
+        <v>8.596528636813371E-06</v>
       </c>
       <c r="Y4">
-        <v>3.730654526482277E-06</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>2.183014215496258E-06</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>6.082404043176313E-05</v>
+        <v>4.867519787826324E-05</v>
       </c>
       <c r="AB4">
-        <v>8.870249062965999E-05</v>
+        <v>7.661665086465552E-05</v>
       </c>
       <c r="AC4">
-        <v>9.478952067286915E-05</v>
+        <v>8.271743704795336E-05</v>
       </c>
       <c r="AD4">
-        <v>0.0001687288911977322</v>
+        <v>0.0001568239038959476</v>
       </c>
       <c r="AE4">
-        <v>0.0001848209013119624</v>
+        <v>0.0001729522805048177</v>
       </c>
       <c r="AF4">
-        <v>0.0002278000016170521</v>
+        <v>0.0002160285097086455</v>
       </c>
       <c r="AG4">
-        <v>0.0002356318316726468</v>
+        <v>0.0002238780389953317</v>
       </c>
       <c r="AH4">
-        <v>0.0001738784212342865</v>
+        <v>0.0001619850714069468</v>
       </c>
       <c r="AI4">
-        <v>0.0003321709823579358</v>
+        <v>0.0003206353594730223</v>
       </c>
       <c r="AJ4">
-        <v>0.0001644320611672309</v>
+        <v>0.0001525173634162753</v>
       </c>
       <c r="AK4">
-        <v>1.749087512416003E-05</v>
+        <v>5.244103516880875E-06</v>
       </c>
       <c r="AL4">
-        <v>0.0003019989021437575</v>
+        <v>0.0002903950930729295</v>
       </c>
       <c r="AM4">
-        <v>0.0001807292112829172</v>
+        <v>0.0001688513436245431</v>
       </c>
       <c r="AN4">
-        <v>2.428329617237645E-05</v>
+        <v>1.205187482537485E-05</v>
       </c>
       <c r="AO4">
-        <v>0.0002371535116834486</v>
+        <v>0.0002254031578660125</v>
       </c>
       <c r="AP4">
-        <v>6.351334045085329E-05</v>
+        <v>5.137057547337002E-05</v>
       </c>
       <c r="AQ4">
-        <v>6.041990442889435E-07</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>5.072405036006774E-05</v>
+        <v>3.855238273796554E-05</v>
       </c>
       <c r="AS4">
-        <v>0.0001680494611929093</v>
+        <v>0.0001561429384404598</v>
       </c>
       <c r="AT4">
-        <v>0.0001409875810008089</v>
+        <v>0.0001290199008345889</v>
       </c>
       <c r="AU4">
-        <v>0.0002979469021149941</v>
+        <v>0.0002863339358887652</v>
       </c>
       <c r="AV4">
-        <v>0.0003165122222467812</v>
+        <v>0.0003049412119732437</v>
       </c>
       <c r="AW4">
-        <v>4.346012830850435E-05</v>
+        <v>3.127204487629027E-05</v>
       </c>
       <c r="AX4">
-        <v>8.151977057867303E-05</v>
+        <v>6.941769851277013E-05</v>
       </c>
       <c r="AY4">
-        <v>9.605193068183045E-05</v>
+        <v>8.398269998992293E-05</v>
       </c>
       <c r="AZ4">
-        <v>8.679448061611587E-05</v>
+        <v>7.470432892019426E-05</v>
       </c>
       <c r="BA4">
-        <v>9.605193068183045E-05</v>
+        <v>8.398269998992293E-05</v>
       </c>
       <c r="BB4">
-        <v>0.000117937714837188</v>
+        <v>0.0001059179440478364</v>
       </c>
       <c r="BC4">
-        <v>5.137278036467279E-05</v>
+        <v>3.920257881399782E-05</v>
       </c>
       <c r="BD4">
-        <v>3.208426322775208E-06</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>1.891094313424047E-05</v>
+        <v>6.667380752863512E-06</v>
       </c>
       <c r="BF4">
-        <v>1.516856110767495E-05</v>
+        <v>2.91654127971774E-06</v>
       </c>
       <c r="BG4">
-        <v>1.13234370803801E-05</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>9.986505070889811E-05</v>
+        <v>8.780443732508583E-05</v>
       </c>
       <c r="BI4">
-        <v>7.686877554565765E-05</v>
+        <v>6.475619264955156E-05</v>
       </c>
       <c r="BJ4">
-        <v>2.038643014471431E-05</v>
+        <v>8.146202231192939E-06</v>
       </c>
       <c r="BK4">
-        <v>1.13234370803801E-05</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>1.851815413145224E-05</v>
+        <v>6.273704082278454E-06</v>
       </c>
       <c r="BM4">
-        <v>3.832472027205035E-06</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>3.418543024266734E-05</v>
+        <v>2.197638682751115E-05</v>
       </c>
       <c r="BO4">
-        <v>2.261061116050279E-06</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>4.70696983341271E-05</v>
+        <v>3.488977220532371E-05</v>
       </c>
       <c r="BQ4">
-        <v>4.281012730389028E-05</v>
+        <v>3.062057492790333E-05</v>
       </c>
       <c r="BR4">
-        <v>3.047850021635348E-06</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>7.472214353041965E-06</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>3.615968725668173E-05</v>
+        <v>2.395510548470177E-05</v>
       </c>
       <c r="BU4">
-        <v>3.507595024898875E-05</v>
+        <v>2.286891932890351E-05</v>
       </c>
       <c r="BV4">
-        <v>6.825008848447738E-06</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>6.112419043389377E-05</v>
+        <v>4.897602619238636E-05</v>
       </c>
       <c r="BX4">
-        <v>2.195561315585325E-05</v>
+        <v>9.718931454716699E-06</v>
       </c>
       <c r="BY4">
-        <v>2.195561315585325E-05</v>
+        <v>9.718931454716699E-06</v>
       </c>
       <c r="BZ4">
-        <v>3.731258326486563E-07</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>9.994674570947802E-05</v>
+        <v>8.788631694901482E-05</v>
       </c>
       <c r="CB4">
-        <v>0.0003079556021860415</v>
+        <v>0.0002963652547212292</v>
       </c>
       <c r="CC4">
-        <v>0.0001680494611929093</v>
+        <v>0.0001561429384404598</v>
       </c>
       <c r="CD4">
-        <v>1.640383911644364E-06</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>2.473279017556721E-05</v>
+        <v>1.250238464456011E-05</v>
       </c>
       <c r="CF4">
-        <v>6.159836043725969E-05</v>
+        <v>4.945126777728643E-05</v>
       </c>
       <c r="CG4">
-        <v>0.0001417072310059174</v>
+        <v>0.0001297411771839432</v>
       </c>
       <c r="CH4">
-        <v>3.731258326486563E-07</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>4.769470033856372E-05</v>
+        <v>3.551618665804261E-05</v>
       </c>
       <c r="CJ4">
-        <v>1.300723009233261E-06</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>1.406338009982975E-06</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>8.906914763226273E-07</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>7.588219053865433E-05</v>
+        <v>6.37673780492212E-05</v>
       </c>
       <c r="CN4">
-        <v>0.07315738051931209</v>
+        <v>0.07331042331599578</v>
       </c>
       <c r="CO4">
-        <v>0.02119035815042104</v>
+        <v>0.02122596015338043</v>
       </c>
       <c r="CP4">
-        <v>0.185861201319347</v>
+        <v>0.1862689446081343</v>
       </c>
       <c r="CQ4">
-        <v>0.116631955827919</v>
+        <v>0.1168832472522579</v>
       </c>
       <c r="CR4">
-        <v>0.024704305175365</v>
+        <v>0.02474784838235923</v>
       </c>
       <c r="CS4">
-        <v>0.02787293719785773</v>
+        <v>0.02792364122805827</v>
       </c>
       <c r="CT4">
-        <v>0.01099044907801637</v>
+        <v>0.01100300020442417</v>
       </c>
       <c r="CU4">
-        <v>0.0002055323314589837</v>
+        <v>0.0001937105166200234</v>
       </c>
       <c r="CV4">
-        <v>0.0004930849535001934</v>
+        <v>0.0004819129817084313</v>
       </c>
       <c r="CW4">
-        <v>0.003235234622965509</v>
+        <v>0.003230259662643959</v>
       </c>
       <c r="CX4">
-        <v>0.01123525807975416</v>
+        <v>0.01124836245247403</v>
       </c>
       <c r="CY4">
-        <v>0.04629614232863596</v>
+        <v>0.04638848114441543</v>
       </c>
       <c r="CZ4">
-        <v>0.007585623053847004</v>
+        <v>0.00759047957986125</v>
       </c>
       <c r="DA4">
-        <v>0.002593641018411118</v>
+        <v>0.002587216114284198</v>
       </c>
       <c r="DB4">
-        <v>0.005336614337882279</v>
+        <v>0.005336388306600461</v>
       </c>
       <c r="DC4">
-        <v>0.00674383064787149</v>
+        <v>0.006746784798806266</v>
       </c>
       <c r="DD4">
-        <v>0.0711596105051308</v>
+        <v>0.07130813852137395</v>
       </c>
       <c r="DE4">
-        <v>0.01061299507533699</v>
+        <v>0.01062469318966812</v>
       </c>
       <c r="DF4">
-        <v>0.01478252510493465</v>
+        <v>0.01480364598189123</v>
       </c>
       <c r="DG4">
-        <v>0.001059921507523917</v>
+        <v>0.001050030535331169</v>
       </c>
       <c r="DH4">
-        <v>0.01176186008349228</v>
+        <v>0.01177615452934847</v>
       </c>
       <c r="DI4">
-        <v>0.00228333331620838</v>
+        <v>0.002276207144600965</v>
       </c>
       <c r="DJ4">
-        <v>0.003716234426379915</v>
+        <v>0.003712346482325975</v>
       </c>
       <c r="DK4">
-        <v>0.007741945354956667</v>
+        <v>0.007747155155303023</v>
       </c>
       <c r="DL4">
-        <v>0.01206245508562607</v>
+        <v>0.01207742884913471</v>
       </c>
       <c r="DM4">
-        <v>0.03441918024432664</v>
+        <v>0.03448467819467584</v>
       </c>
       <c r="DN4">
-        <v>3.530397025060737E-05</v>
+        <v>2.309745463520487E-05</v>
       </c>
       <c r="DO4">
-        <v>0.001663721511810028</v>
+        <v>0.00165519507328732</v>
       </c>
       <c r="DP4">
-        <v>0.0005527687639238626</v>
+        <v>0.0005417316721723478</v>
       </c>
       <c r="DQ4">
-        <v>7.476059053069258E-05</v>
+        <v>6.264324332618109E-05</v>
       </c>
       <c r="DR4">
-        <v>0.008374866059449494</v>
+        <v>0.00838150620362761</v>
       </c>
       <c r="DS4">
-        <v>0.01464668510397038</v>
+        <v>0.01466749899474985</v>
       </c>
       <c r="DT4">
-        <v>1.664938011818663E-05</v>
+        <v>4.400706807925241E-06</v>
       </c>
       <c r="DU4">
-        <v>0.001528649110851208</v>
+        <v>0.001519817420858323</v>
       </c>
       <c r="DV4">
-        <v>9.273370665827582E-07</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.00550372573906853</v>
+        <v>0.005503877364514019</v>
       </c>
       <c r="DX4">
-        <v>0.008269946058704713</v>
+        <v>0.008276349093123537</v>
       </c>
       <c r="DY4">
-        <v>0.0009724059569026825</v>
+        <v>0.0009623172074415886</v>
       </c>
       <c r="DZ4">
-        <v>0.001725101612245738</v>
+        <v>0.001716713887226045</v>
       </c>
       <c r="EA4">
-        <v>0.008480448060198974</v>
+        <v>0.008487326810196814</v>
       </c>
       <c r="EB4">
-        <v>0.004854953034463178</v>
+        <v>0.004853638491983272</v>
       </c>
       <c r="EC4">
-        <v>0.0005881861041752747</v>
+        <v>0.0005772290524253056</v>
       </c>
       <c r="ED4">
-        <v>0.01045457407421243</v>
+        <v>0.01046591417133829</v>
       </c>
       <c r="EE4">
-        <v>0.0153331646088434</v>
+        <v>0.0153555298815234</v>
       </c>
       <c r="EF4">
-        <v>0.0004396865331211415</v>
+        <v>0.0004283938857049724</v>
       </c>
       <c r="EG4">
-        <v>0.00348739582475549</v>
+        <v>0.003482990726056462</v>
       </c>
       <c r="EH4">
-        <v>0.0009968414070761391</v>
+        <v>0.0009868078795333421</v>
       </c>
       <c r="EI4">
-        <v>0.005012839035583941</v>
+        <v>0.005011881301257443</v>
       </c>
       <c r="EJ4">
-        <v>0.002717264219288665</v>
+        <v>0.002711118692470122</v>
       </c>
       <c r="EK4">
-        <v>4.212977029906072E-06</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>3.494522024806076E-05</v>
+        <v>2.273789388993861E-05</v>
       </c>
       <c r="EM4">
-        <v>0.002034525214442201</v>
+        <v>0.002026836758916554</v>
       </c>
       <c r="EN4">
-        <v>0.002169100615397492</v>
+        <v>0.002161716288166743</v>
       </c>
       <c r="EO4">
-        <v>0.003001581921306911</v>
+        <v>0.002996078926907445</v>
       </c>
       <c r="EP4">
-        <v>0.009685494068753065</v>
+        <v>0.009695096114280795</v>
       </c>
       <c r="EQ4">
-        <v>0.003946638728015454</v>
+        <v>0.003943271476947722</v>
       </c>
       <c r="ER4">
-        <v>8.784939662360426E-05</v>
+        <v>7.576162894292123E-05</v>
       </c>
       <c r="ES4">
-        <v>6.619430046988425E-05</v>
+        <v>5.405759422076804E-05</v>
       </c>
       <c r="ET4">
-        <v>0.0004396865331211415</v>
+        <v>0.0004283938857049724</v>
       </c>
       <c r="EU4">
-        <v>0.0006732693347792431</v>
+        <v>0.0006625045634732798</v>
       </c>
       <c r="EV4">
-        <v>0.0004479755031799812</v>
+        <v>0.0004367015880901701</v>
       </c>
       <c r="EW4">
-        <v>2.459565617459375E-06</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.0007908743656140695</v>
+        <v>0.0007803753710937987</v>
       </c>
       <c r="EY4">
-        <v>0.005994715342553849</v>
+        <v>0.005995976560316064</v>
       </c>
       <c r="EZ4">
-        <v>0.0007530363053454737</v>
+        <v>0.0007424518002142738</v>
       </c>
       <c r="FA4">
-        <v>0.003120922522154057</v>
+        <v>0.003115689226772318</v>
       </c>
       <c r="FB4">
-        <v>0.00559677983972908</v>
+        <v>0.005597141759067554</v>
       </c>
       <c r="FC4">
-        <v>0.001918815013620824</v>
+        <v>0.001910865063454789</v>
       </c>
       <c r="FD4">
-        <v>0.004611906632737898</v>
+        <v>0.004610042827263321</v>
       </c>
       <c r="FE4">
-        <v>0.003211178622794746</v>
+        <v>0.003206149298077757</v>
       </c>
       <c r="FF4">
-        <v>0.0001545978010974218</v>
+        <v>0.0001426608788037535</v>
       </c>
       <c r="FG4">
-        <v>3.214120822815631E-05</v>
+        <v>1.992754505521933E-05</v>
       </c>
       <c r="FH4">
-        <v>0.001506248410692195</v>
+        <v>0.001497366097132927</v>
       </c>
       <c r="FI4">
-        <v>0.0005918619042013676</v>
+        <v>0.0005809131594286497</v>
       </c>
       <c r="FJ4">
-        <v>0.0001987637114109362</v>
+        <v>0.0001869266000998167</v>
       </c>
       <c r="FK4">
-        <v>0.001146631808139435</v>
+        <v>0.001136936793422489</v>
       </c>
       <c r="FL4">
-        <v>0.005372048438133811</v>
+        <v>0.00537190248472963</v>
       </c>
       <c r="FM4">
-        <v>0.01627950711556107</v>
+        <v>0.01630401103713912</v>
       </c>
       <c r="FN4">
-        <v>0.005010119035564633</v>
+        <v>0.005009155154282881</v>
       </c>
       <c r="FO4">
-        <v>0.003745813426589883</v>
+        <v>0.003741992328414424</v>
       </c>
       <c r="FP4">
-        <v>0.01226517108706506</v>
+        <v>0.0122806029704933</v>
       </c>
       <c r="FQ4">
-        <v>0.004521364032095176</v>
+        <v>0.004519295608491628</v>
       </c>
       <c r="FR4">
-        <v>5.941603042176828E-05</v>
+        <v>4.72640058923612E-05</v>
       </c>
       <c r="FS4">
-        <v>2.335716316580224E-05</v>
+        <v>1.112364884155414E-05</v>
       </c>
       <c r="FT4">
-        <v>0.0002848915020223196</v>
+        <v>0.0002732490317668164</v>
       </c>
       <c r="FU4">
-        <v>0.0003765900026732469</v>
+        <v>0.0003651547627767073</v>
       </c>
       <c r="FV4">
-        <v>0.0003938153427955221</v>
+        <v>0.0003824190306174453</v>
       </c>
       <c r="FW4">
-        <v>0.0001841097713069143</v>
+        <v>0.0001722395434099572</v>
       </c>
       <c r="FX4">
-        <v>0.002872454020390289</v>
+        <v>0.002866659208555759</v>
       </c>
       <c r="FY4">
-        <v>0.008511887060422144</v>
+        <v>0.008518836859731102</v>
       </c>
       <c r="FZ4">
-        <v>0.004114314029205707</v>
+        <v>0.004111325709228542</v>
       </c>
       <c r="GA4">
-        <v>0.005179197536764847</v>
+        <v>0.005178615757679401</v>
       </c>
       <c r="GB4">
-        <v>0.00783615505562542</v>
+        <v>0.007841577761416783</v>
       </c>
       <c r="GC4">
-        <v>0.007155044050790513</v>
+        <v>0.007158927507008283</v>
       </c>
       <c r="GD4">
-        <v>0.004694488033324107</v>
+        <v>0.004692810854382851</v>
       </c>
       <c r="GE4">
-        <v>0.001169289608300273</v>
+        <v>0.001159645798172577</v>
       </c>
       <c r="GF4">
-        <v>0.0006361016045154058</v>
+        <v>0.0006252528374839971</v>
       </c>
       <c r="GG4">
-        <v>0.0008386170459529739</v>
+        <v>0.000828225945593614</v>
       </c>
       <c r="GH4">
-        <v>0.0005953497642261263</v>
+        <v>0.0005844089017031706</v>
       </c>
       <c r="GI4">
-        <v>0.001376136309768587</v>
+        <v>0.001366959954570812</v>
       </c>
       <c r="GJ4">
-        <v>0.0001827693312973992</v>
+        <v>0.0001708960741266549</v>
       </c>
       <c r="GK4">
-        <v>0.00037307423264829</v>
+        <v>0.0003616310474278996</v>
       </c>
       <c r="GL4">
-        <v>3.418543024266734E-05</v>
+        <v>2.197638682751115E-05</v>
       </c>
       <c r="GM4">
-        <v>0.003108642322066886</v>
+        <v>0.003103381274538119</v>
       </c>
       <c r="GN4">
-        <v>0.0172791221226569</v>
+        <v>0.01730588508418953</v>
       </c>
       <c r="GO4">
-        <v>0.004664944033114387</v>
+        <v>0.004663200087391501</v>
       </c>
       <c r="GP4">
-        <v>0.0003250387423073072</v>
+        <v>0.000313487001201753</v>
       </c>
       <c r="GQ4">
-        <v>0.003335379823676396</v>
+        <v>0.003330631182495775</v>
       </c>
       <c r="GR4">
-        <v>0.003205572722754952</v>
+        <v>0.003200530729208383</v>
       </c>
       <c r="GS4">
-        <v>0.0008613200661141327</v>
+        <v>0.0008509802725371537</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0004075953890657769</v>
+        <v>0.0003313010863574261</v>
       </c>
       <c r="C5">
-        <v>0.0001287406565463813</v>
+        <v>4.848458386674082E-05</v>
       </c>
       <c r="D5">
-        <v>8.093525782881704E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0001297682565188147</v>
+        <v>4.952678324968633E-05</v>
       </c>
       <c r="F5">
-        <v>5.953600540287701E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0001019307972655871</v>
+        <v>2.129382914811949E-05</v>
       </c>
       <c r="H5">
-        <v>7.172667807584796E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.971553447110773E-06</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2.297794638358971E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>6.77022181838088E-05</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>4.278417885226436E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>8.385865775039341E-07</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0001447934161157472</v>
+        <v>6.476540964191815E-05</v>
       </c>
       <c r="O5">
-        <v>0.0001615668556657801</v>
+        <v>8.177715430703435E-05</v>
       </c>
       <c r="P5">
-        <v>2.379087636178191E-05</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>8.382829775120786E-05</v>
+        <v>2.934142178704411E-06</v>
       </c>
       <c r="R5">
-        <v>0.0003126542916126829</v>
+        <v>0.000235011133227641</v>
       </c>
       <c r="S5">
-        <v>0.0002519948932399422</v>
+        <v>0.0001734899292087189</v>
       </c>
       <c r="T5">
-        <v>0.0003493655906278594</v>
+        <v>0.0002722440003034752</v>
       </c>
       <c r="U5">
-        <v>0.0002850572223530066</v>
+        <v>0.0002070219844099067</v>
       </c>
       <c r="V5">
-        <v>0.0004510165179009543</v>
+        <v>0.0003753391117494039</v>
       </c>
       <c r="W5">
-        <v>0.0006251581232294021</v>
+        <v>0.0005519547973149314</v>
       </c>
       <c r="X5">
-        <v>0.0005634822848839286</v>
+        <v>0.0004894027124661135</v>
       </c>
       <c r="Y5">
-        <v>0.0002169575441798601</v>
+        <v>0.0001379547943799475</v>
       </c>
       <c r="Z5">
-        <v>0.0001143255469330835</v>
+        <v>3.386467461499741E-05</v>
       </c>
       <c r="AA5">
-        <v>0.0001178965368372875</v>
+        <v>3.748639860731402E-05</v>
       </c>
       <c r="AB5">
-        <v>0.0002543918931756399</v>
+        <v>0.0001759209840169326</v>
       </c>
       <c r="AC5">
-        <v>8.163605281001739E-05</v>
+        <v>7.107513785240269E-07</v>
       </c>
       <c r="AD5">
-        <v>3.148476215538443E-06</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>4.317921884166695E-05</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.000355826160454547</v>
+        <v>0.000278796357317368</v>
       </c>
       <c r="AG5">
-        <v>0.0002986547419882372</v>
+        <v>0.0002208126879459023</v>
       </c>
       <c r="AH5">
-        <v>0.0002279297738855172</v>
+        <v>0.0001490829097317732</v>
       </c>
       <c r="AI5">
-        <v>0.0003997263892768721</v>
+        <v>0.0003233202894088098</v>
       </c>
       <c r="AJ5">
-        <v>0.0007877839788667734</v>
+        <v>0.0007168911255973191</v>
       </c>
       <c r="AK5">
-        <v>0.0004687313874257322</v>
+        <v>0.0003933056615576559</v>
       </c>
       <c r="AL5">
-        <v>0.0003144788415637372</v>
+        <v>0.0002368616050884363</v>
       </c>
       <c r="AM5">
-        <v>0.0006660467821325159</v>
+        <v>0.0005934243732408445</v>
       </c>
       <c r="AN5">
-        <v>0.0005738422446060105</v>
+        <v>0.0004999098591373279</v>
       </c>
       <c r="AO5">
-        <v>0.0003524244405458021</v>
+        <v>0.0002753463081883748</v>
       </c>
       <c r="AP5">
-        <v>0.0003707558100540417</v>
+        <v>0.0002939381167739584</v>
       </c>
       <c r="AQ5">
-        <v>0.0001154299369034569</v>
+        <v>3.498475497363031E-05</v>
       </c>
       <c r="AR5">
-        <v>6.919777814368865E-05</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0001084185570915454</v>
+        <v>2.787376245747966E-05</v>
       </c>
       <c r="AT5">
-        <v>5.746217845850984E-05</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>1.627317756345298E-05</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>6.465126526565418E-06</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>4.211286687027309E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>8.163605281001739E-05</v>
+        <v>7.107513785240269E-07</v>
       </c>
       <c r="AY5">
-        <v>1.89255234923007E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.0001306552064950213</v>
+        <v>5.042633438116113E-05</v>
       </c>
       <c r="BA5">
-        <v>0.0005394286855291945</v>
+        <v>0.0004650073766568316</v>
       </c>
       <c r="BB5">
-        <v>0.0003804365897943435</v>
+        <v>0.0003037564341566278</v>
       </c>
       <c r="BC5">
-        <v>0.000258250693072123</v>
+        <v>0.0001798346070014695</v>
       </c>
       <c r="BD5">
-        <v>0.0003185417314547454</v>
+        <v>0.0002409822176331769</v>
       </c>
       <c r="BE5">
-        <v>0.0007236763305865359</v>
+        <v>0.0006518726813854796</v>
       </c>
       <c r="BF5">
-        <v>0.001140442669406291</v>
+        <v>0.0010745601403213</v>
       </c>
       <c r="BG5">
-        <v>0.0003994734892836564</v>
+        <v>0.0003230637963921234</v>
       </c>
       <c r="BH5">
-        <v>0.0002568002331110334</v>
+        <v>0.0001783635399355031</v>
       </c>
       <c r="BI5">
-        <v>0.0004061247891052275</v>
+        <v>0.0003298095931571929</v>
       </c>
       <c r="BJ5">
-        <v>0.0003115897616412402</v>
+        <v>0.0002339314791704914</v>
       </c>
       <c r="BK5">
-        <v>6.393357828490698E-05</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>3.960952593742814E-05</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>6.909254814651159E-05</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>7.253874805406324E-06</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>2.751477926188386E-05</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>9.355971149015129E-07</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>1.560206258145642E-05</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>7.824750790091907E-05</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.0003649773302090562</v>
+        <v>0.0002880775403917446</v>
       </c>
       <c r="BT5">
-        <v>0.0002797008724966969</v>
+        <v>0.0002015895353394122</v>
       </c>
       <c r="BU5">
-        <v>0.0003913378895019034</v>
+        <v>0.0003148126117873244</v>
       </c>
       <c r="BV5">
-        <v>0.0009819692736575255</v>
+        <v>0.0009138352671281549</v>
       </c>
       <c r="BW5">
-        <v>0.001234294666888602</v>
+        <v>0.001169745520321496</v>
       </c>
       <c r="BX5">
-        <v>0.0005134527362260298</v>
+        <v>0.0004386623795164821</v>
       </c>
       <c r="BY5">
-        <v>0.0006045546837821135</v>
+        <v>0.0005310586388344384</v>
       </c>
       <c r="BZ5">
-        <v>0.0007386823201839827</v>
+        <v>0.0006670918654244893</v>
       </c>
       <c r="CA5">
-        <v>0.0003230853913328564</v>
+        <v>0.0002455904306035099</v>
       </c>
       <c r="CB5">
-        <v>0.0001304555565003771</v>
+        <v>5.022384790120291E-05</v>
       </c>
       <c r="CC5">
-        <v>7.121727808951322E-05</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>1.898060949082295E-05</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>2.183710941419399E-05</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>4.552455477875056E-07</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>7.111051809237717E-05</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.0002439300134562921</v>
+        <v>0.000165310469341524</v>
       </c>
       <c r="CI5">
-        <v>0.0004012820292351402</v>
+        <v>0.000324898030794646</v>
       </c>
       <c r="CJ5">
-        <v>0.00047565791723992</v>
+        <v>0.0004003305985875834</v>
       </c>
       <c r="CK5">
-        <v>0.0005887913842049824</v>
+        <v>0.0005150713854934644</v>
       </c>
       <c r="CL5">
-        <v>0.0005793259344589041</v>
+        <v>0.0005054714573606291</v>
       </c>
       <c r="CM5">
-        <v>1.222457667206143E-07</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1348280763830791</v>
+        <v>0.1366615327965124</v>
       </c>
       <c r="CO5">
-        <v>0.07742023292311169</v>
+        <v>0.07843807947301008</v>
       </c>
       <c r="CP5">
-        <v>0.2024775945683017</v>
+        <v>0.2052721672851844</v>
       </c>
       <c r="CQ5">
-        <v>0.003449397807465869</v>
+        <v>0.003416319272949566</v>
       </c>
       <c r="CR5">
-        <v>0.0373144549989961</v>
+        <v>0.03776250714297054</v>
       </c>
       <c r="CS5">
-        <v>0.006039197837991454</v>
+        <v>0.006042913342794055</v>
       </c>
       <c r="CT5">
-        <v>2.704271427454756E-05</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.000342317260816939</v>
+        <v>0.0002650955328289751</v>
       </c>
       <c r="CV5">
-        <v>0.004129357489225155</v>
+        <v>0.004105939338897219</v>
       </c>
       <c r="CW5">
-        <v>0.0004931763867699665</v>
+        <v>0.0004180979580894803</v>
       </c>
       <c r="CX5">
-        <v>0.04682820874377853</v>
+        <v>0.04741142554341361</v>
       </c>
       <c r="CY5">
-        <v>0.02189283341269914</v>
+        <v>0.02212178611103324</v>
       </c>
       <c r="CZ5">
-        <v>0.002837655523876571</v>
+        <v>0.002795885789510814</v>
       </c>
       <c r="DA5">
-        <v>0.01618085956592951</v>
+        <v>0.01632866059701928</v>
       </c>
       <c r="DB5">
-        <v>0.007066179310441475</v>
+        <v>0.0070844854385477</v>
       </c>
       <c r="DC5">
-        <v>0.03797252398134263</v>
+        <v>0.03842992550199697</v>
       </c>
       <c r="DD5">
-        <v>0.03687681201073639</v>
+        <v>0.03731864643398804</v>
       </c>
       <c r="DE5">
-        <v>0.002134865742729729</v>
+        <v>0.002083111270339549</v>
       </c>
       <c r="DF5">
-        <v>0.01535991258795238</v>
+        <v>0.01549605018749129</v>
       </c>
       <c r="DG5">
-        <v>0.00017524827529876</v>
+        <v>9.565294983235376E-05</v>
       </c>
       <c r="DH5">
-        <v>0.004770044872037966</v>
+        <v>0.004755729152969773</v>
       </c>
       <c r="DI5">
-        <v>2.751477926188386E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.007803736790655632</v>
+        <v>0.007832521611559404</v>
       </c>
       <c r="DK5">
-        <v>0.002924982621533919</v>
+        <v>0.00288445356854392</v>
       </c>
       <c r="DL5">
-        <v>0.02076033944307961</v>
+        <v>0.02097320247149501</v>
       </c>
       <c r="DM5">
-        <v>0.01455880860944293</v>
+        <v>0.0146835646926731</v>
       </c>
       <c r="DN5">
-        <v>6.42077052775532E-06</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>2.262978139292964E-05</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.0003964683493642728</v>
+        <v>0.0003200159615792927</v>
       </c>
       <c r="DQ5">
-        <v>0.003198310914201569</v>
+        <v>0.003161665115450833</v>
       </c>
       <c r="DR5">
-        <v>0.007897166788149263</v>
+        <v>0.007927278996094826</v>
       </c>
       <c r="DS5">
-        <v>0.000444272408081873</v>
+        <v>0.0003684991864083018</v>
       </c>
       <c r="DT5">
-        <v>0.00515194386179308</v>
+        <v>0.005143053892311448</v>
       </c>
       <c r="DU5">
-        <v>0.001416912761989658</v>
+        <v>0.001354958123605536</v>
       </c>
       <c r="DV5">
-        <v>0.0003615320203014807</v>
+        <v>0.000284583281968179</v>
       </c>
       <c r="DW5">
-        <v>0.003313487911111811</v>
+        <v>0.003278478465323851</v>
       </c>
       <c r="DX5">
-        <v>8.858326762365023E-05</v>
+        <v>7.756667285676354E-06</v>
       </c>
       <c r="DY5">
-        <v>0.00512818386243047</v>
+        <v>0.005118956327754436</v>
       </c>
       <c r="DZ5">
-        <v>0.0003028345418761092</v>
+        <v>0.0002250518714617019</v>
       </c>
       <c r="EA5">
-        <v>0.005741902445966751</v>
+        <v>0.005741394189006068</v>
       </c>
       <c r="EB5">
-        <v>0.0007874289788762965</v>
+        <v>0.0007165310820191312</v>
       </c>
       <c r="EC5">
-        <v>0.005065806564103813</v>
+        <v>0.005055692817079264</v>
       </c>
       <c r="ED5">
-        <v>0.01327952664376116</v>
+        <v>0.01338610759748695</v>
       </c>
       <c r="EE5">
-        <v>0.006883959815329725</v>
+        <v>0.006899677098278492</v>
       </c>
       <c r="EF5">
-        <v>0.001641092155975783</v>
+        <v>0.001582322499188538</v>
       </c>
       <c r="EG5">
-        <v>0.007147454508261172</v>
+        <v>0.007166915336648879</v>
       </c>
       <c r="EH5">
-        <v>0.0007877839788667734</v>
+        <v>0.0007168911255973191</v>
       </c>
       <c r="EI5">
-        <v>0.002714763327173298</v>
+        <v>0.002671247627766151</v>
       </c>
       <c r="EJ5">
-        <v>1.183254768257807E-06</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.001707661054189995</v>
+        <v>0.001649837161025206</v>
       </c>
       <c r="EL5">
-        <v>0.0007321461303593236</v>
+        <v>0.0006604628140574062</v>
       </c>
       <c r="EM5">
-        <v>2.626501629541022E-05</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.0008808634363698079</v>
+        <v>0.0008112929899189425</v>
       </c>
       <c r="EO5">
-        <v>0.008850700762569599</v>
+        <v>0.008894360103935964</v>
       </c>
       <c r="EP5">
-        <v>0.01229317267022126</v>
+        <v>0.01238574020729054</v>
       </c>
       <c r="EQ5">
-        <v>0.004355837483149564</v>
+        <v>0.004335636999708329</v>
       </c>
       <c r="ER5">
-        <v>1.858887650133164E-05</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.0007367021802371023</v>
+        <v>0.0006650835930557215</v>
       </c>
       <c r="ET5">
-        <v>0.0009497421345220563</v>
+        <v>0.000881150267690535</v>
       </c>
       <c r="EU5">
-        <v>0.0001188799768109056</v>
+        <v>3.84838105975475E-05</v>
       </c>
       <c r="EV5">
-        <v>0.0002724822726903443</v>
+        <v>0.0001942683787943262</v>
       </c>
       <c r="EW5">
-        <v>1.748935053082771E-06</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.0009697343039857429</v>
+        <v>0.0009014264716976793</v>
       </c>
       <c r="EY5">
-        <v>0.003206835913972875</v>
+        <v>0.003170311232363649</v>
       </c>
       <c r="EZ5">
-        <v>0.0005077206863797987</v>
+        <v>0.0004328488927774662</v>
       </c>
       <c r="FA5">
-        <v>0.008393564774832806</v>
+        <v>0.008430729452785541</v>
       </c>
       <c r="FB5">
-        <v>0.005663591848067524</v>
+        <v>0.005661971009755297</v>
       </c>
       <c r="FC5">
-        <v>0.003092840917030925</v>
+        <v>0.003054696675474906</v>
       </c>
       <c r="FD5">
-        <v>0.01184169368233271</v>
+        <v>0.01192784692662409</v>
       </c>
       <c r="FE5">
-        <v>0.008607447769095146</v>
+        <v>0.008647651144710935</v>
       </c>
       <c r="FF5">
-        <v>0.001618687756576807</v>
+        <v>0.001559599793996572</v>
       </c>
       <c r="FG5">
-        <v>0.00240840643539168</v>
+        <v>0.002360538234869015</v>
       </c>
       <c r="FH5">
-        <v>0.0027022195275098</v>
+        <v>0.002658525614706798</v>
       </c>
       <c r="FI5">
-        <v>0.001007224072980036</v>
+        <v>0.0009394488687011522</v>
       </c>
       <c r="FJ5">
-        <v>0.002841797923765447</v>
+        <v>0.002800087041674996</v>
       </c>
       <c r="FK5">
-        <v>0.0002270209639098971</v>
+        <v>0.0001481611880295401</v>
       </c>
       <c r="FL5">
-        <v>0.01469515660578524</v>
+        <v>0.01482184982450052</v>
       </c>
       <c r="FM5">
-        <v>0.01398803662475456</v>
+        <v>0.01410468358504117</v>
       </c>
       <c r="FN5">
-        <v>0.004083832190446424</v>
+        <v>0.004059767249009705</v>
       </c>
       <c r="FO5">
-        <v>0.00903303275767833</v>
+        <v>0.009079282542522204</v>
       </c>
       <c r="FP5">
-        <v>0.01151100269120389</v>
+        <v>0.01159245771278054</v>
       </c>
       <c r="FQ5">
-        <v>0.001992546246547616</v>
+        <v>0.00193876979984411</v>
       </c>
       <c r="FR5">
-        <v>0.0006030740838218323</v>
+        <v>0.0005295570035615801</v>
       </c>
       <c r="FS5">
-        <v>0.001984485346763859</v>
+        <v>0.00193059437652182</v>
       </c>
       <c r="FT5">
-        <v>0.001654545255614888</v>
+        <v>0.001595966730911683</v>
       </c>
       <c r="FU5">
-        <v>0.002188091841301877</v>
+        <v>0.002137093567514126</v>
       </c>
       <c r="FV5">
-        <v>0.001151068769121234</v>
+        <v>0.001085337208113356</v>
       </c>
       <c r="FW5">
-        <v>5.82455534374949E-06</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.002639936929180604</v>
+        <v>0.002595358149459385</v>
       </c>
       <c r="FY5">
-        <v>0.004073403890726176</v>
+        <v>0.004049190791414171</v>
       </c>
       <c r="FZ5">
-        <v>0.00318908291444912</v>
+        <v>0.003152306010832477</v>
       </c>
       <c r="GA5">
-        <v>0.00400638149252413</v>
+        <v>0.003981216186583958</v>
       </c>
       <c r="GB5">
-        <v>0.005456916353611835</v>
+        <v>0.005452359216674377</v>
       </c>
       <c r="GC5">
-        <v>0.005816522343964984</v>
+        <v>0.005817074233513128</v>
       </c>
       <c r="GD5">
-        <v>0.003641329102317088</v>
+        <v>0.003610977391310726</v>
       </c>
       <c r="GE5">
-        <v>0.002013554245984052</v>
+        <v>0.001960076266014721</v>
       </c>
       <c r="GF5">
-        <v>0.001927960448280206</v>
+        <v>0.001873266412429706</v>
       </c>
       <c r="GG5">
-        <v>8.163605281001739E-05</v>
+        <v>7.107513785240269E-07</v>
       </c>
       <c r="GH5">
-        <v>0.000820245277995961</v>
+        <v>0.0007498136118075262</v>
       </c>
       <c r="GI5">
-        <v>1.11626557005487E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.000213421894274708</v>
+        <v>0.0001343689124722876</v>
       </c>
       <c r="GK5">
-        <v>0.0005464487853408721</v>
+        <v>0.0004721272130603113</v>
       </c>
       <c r="GL5">
-        <v>0.0002481832933421928</v>
+        <v>0.0001696241768069721</v>
       </c>
       <c r="GM5">
-        <v>0.005393494255313208</v>
+        <v>0.005388036062251345</v>
       </c>
       <c r="GN5">
-        <v>0.007257399805311761</v>
+        <v>0.007278422658386675</v>
       </c>
       <c r="GO5">
-        <v>3.228865413381909E-05</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.000390146789533856</v>
+        <v>0.0003136045895169601</v>
       </c>
       <c r="GQ5">
-        <v>0.002329836737499404</v>
+        <v>0.002280852274516531</v>
       </c>
       <c r="GR5">
-        <v>0.002773821925588982</v>
+        <v>0.002731145288799263</v>
       </c>
       <c r="GS5">
-        <v>5.82455534374949E-06</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>6.303150244183527E-06</v>
+        <v>3.864381172421122E-06</v>
       </c>
       <c r="C6">
-        <v>0.000275246897562598</v>
+        <v>0.0002729349570345933</v>
       </c>
       <c r="D6">
-        <v>0.0005109579654752988</v>
+        <v>0.0005087571816177466</v>
       </c>
       <c r="E6">
-        <v>0.0001574909086053661</v>
+        <v>0.0001551234366855848</v>
       </c>
       <c r="F6">
-        <v>1.557380186208885E-07</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1.371831387851981E-05</v>
+        <v>1.128304165104118E-05</v>
       </c>
       <c r="H6">
-        <v>2.440590578387766E-06</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.73551868463141E-06</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>6.792967539846034E-07</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>7.592536932765583E-06</v>
+        <v>5.154375910224192E-06</v>
       </c>
       <c r="L6">
-        <v>0.0001592487785897996</v>
+        <v>0.0001568821356466815</v>
       </c>
       <c r="M6">
-        <v>0.0001580464386004467</v>
+        <v>0.0001556792286576067</v>
       </c>
       <c r="N6">
-        <v>0.0002527066677621992</v>
+        <v>0.0002503840977083175</v>
       </c>
       <c r="O6">
-        <v>0.0003313723370655888</v>
+        <v>0.0003290868641830709</v>
       </c>
       <c r="P6">
-        <v>0.0001612627985719648</v>
+        <v>0.0001588971054007748</v>
       </c>
       <c r="Q6">
-        <v>4.994172155774959E-05</v>
+        <v>4.752353157178692E-05</v>
       </c>
       <c r="R6">
-        <v>0.0001226811989136175</v>
+        <v>0.0001202973114242874</v>
       </c>
       <c r="S6">
-        <v>0.0001244496788979571</v>
+        <v>0.0001220666253887559</v>
       </c>
       <c r="T6">
-        <v>6.744406940276054E-05</v>
+        <v>6.503413317733945E-05</v>
       </c>
       <c r="U6">
-        <v>3.506366168949971E-05</v>
+        <v>3.263845550522105E-05</v>
       </c>
       <c r="V6">
-        <v>0.0001106560890201039</v>
+        <v>0.0001082665307271521</v>
       </c>
       <c r="W6">
-        <v>0.0001053654330669544</v>
+        <v>0.0001029733798054571</v>
       </c>
       <c r="X6">
-        <v>9.643919914599911E-06</v>
+        <v>7.206726283637129E-06</v>
       </c>
       <c r="Y6">
-        <v>4.045876264172432E-05</v>
+        <v>3.803610068018375E-05</v>
       </c>
       <c r="Z6">
-        <v>7.13158653684745E-05</v>
+        <v>6.890775500533485E-05</v>
       </c>
       <c r="AA6">
-        <v>0.0002004037482253587</v>
+        <v>0.0001980565131506864</v>
       </c>
       <c r="AB6">
-        <v>0.0001875537383391498</v>
+        <v>0.0001852004434543597</v>
       </c>
       <c r="AC6">
-        <v>0.0001081963590418856</v>
+        <v>0.0001058056407890006</v>
       </c>
       <c r="AD6">
-        <v>0.0002913115974203398</v>
+        <v>0.0002890072326865641</v>
       </c>
       <c r="AE6">
-        <v>0.0002346350179222296</v>
+        <v>0.0002323039256362628</v>
       </c>
       <c r="AF6">
-        <v>0.0002053892681812103</v>
+        <v>0.0002030443841789916</v>
       </c>
       <c r="AG6">
-        <v>0.0002923987974107123</v>
+        <v>0.0002900949453789157</v>
       </c>
       <c r="AH6">
-        <v>0.0003305677370727138</v>
+        <v>0.0003282818847567775</v>
       </c>
       <c r="AI6">
-        <v>9.228042418282643E-05</v>
+        <v>8.988220029033894E-05</v>
       </c>
       <c r="AJ6">
-        <v>1.89757478319635E-05</v>
+        <v>1.654295490619338E-05</v>
       </c>
       <c r="AK6">
-        <v>0.000158290548598285</v>
+        <v>0.0001559234537728844</v>
       </c>
       <c r="AL6">
-        <v>0.0002278610579822152</v>
+        <v>0.0002255267712309254</v>
       </c>
       <c r="AM6">
-        <v>5.515528951158174E-05</v>
+        <v>5.273955814099108E-05</v>
       </c>
       <c r="AN6">
-        <v>4.418383960873754E-05</v>
+        <v>4.176293431970497E-05</v>
       </c>
       <c r="AO6">
-        <v>2.623338776769471E-06</v>
+        <v>1.82834378812022E-07</v>
       </c>
       <c r="AP6">
-        <v>1.082525690413878E-05</v>
+        <v>8.388620368299291E-06</v>
       </c>
       <c r="AQ6">
-        <v>6.997865338031596E-05</v>
+        <v>6.756991241449138E-05</v>
       </c>
       <c r="AR6">
-        <v>1.604888485788183E-05</v>
+        <v>1.361471168151105E-05</v>
       </c>
       <c r="AS6">
-        <v>8.127706928026476E-06</v>
+        <v>5.689798281053726E-06</v>
       </c>
       <c r="AT6">
-        <v>1.128972790002574E-05</v>
+        <v>8.853310399507248E-06</v>
       </c>
       <c r="AU6">
-        <v>1.924417582958648E-06</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>2.959656973791262E-07</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0001846844083645587</v>
+        <v>0.0001823297603605908</v>
       </c>
       <c r="AX6">
-        <v>0.0003793301266409067</v>
+        <v>0.0003770672697019619</v>
       </c>
       <c r="AY6">
-        <v>0.0002304572979592247</v>
+        <v>0.0002281242355432793</v>
       </c>
       <c r="AZ6">
-        <v>0.0002937005773991846</v>
+        <v>0.0002913973392610438</v>
       </c>
       <c r="BA6">
-        <v>0.000403245066429132</v>
+        <v>0.0004009934873020628</v>
       </c>
       <c r="BB6">
-        <v>0.0002028390182037936</v>
+        <v>0.0002004929315542032</v>
       </c>
       <c r="BC6">
-        <v>0.0002343378079248615</v>
+        <v>0.0002320065754805474</v>
       </c>
       <c r="BD6">
-        <v>0.0004689826958470037</v>
+        <v>0.0004667621172837784</v>
       </c>
       <c r="BE6">
-        <v>0.0004331727361641126</v>
+        <v>0.0004309352703332565</v>
       </c>
       <c r="BF6">
-        <v>8.549877924288013E-05</v>
+        <v>8.309735726097583E-05</v>
       </c>
       <c r="BG6">
-        <v>4.833935657193907E-06</v>
+        <v>2.394473732935791E-06</v>
       </c>
       <c r="BH6">
-        <v>6.614383941427451E-05</v>
+        <v>6.373329002614696E-05</v>
       </c>
       <c r="BI6">
-        <v>4.576068359477406E-05</v>
+        <v>4.334052191412977E-05</v>
       </c>
       <c r="BJ6">
-        <v>1.000393191141189E-05</v>
+        <v>7.566908054975361E-06</v>
       </c>
       <c r="BK6">
-        <v>7.734995931504061E-05</v>
+        <v>7.494469451107744E-05</v>
       </c>
       <c r="BL6">
-        <v>0.0001407883487532728</v>
+        <v>0.0001384130002371245</v>
       </c>
       <c r="BM6">
-        <v>0.0001726120784714632</v>
+        <v>0.0001702517373958571</v>
       </c>
       <c r="BN6">
-        <v>0.0002230832480245243</v>
+        <v>0.0002207467081527015</v>
       </c>
       <c r="BO6">
-        <v>0.0005210770953856907</v>
+        <v>0.0005188810835093555</v>
       </c>
       <c r="BP6">
-        <v>0.0007503849933550936</v>
+        <v>0.0007482971185411053</v>
       </c>
       <c r="BQ6">
-        <v>0.0008272168226747224</v>
+        <v>0.0008251651802294878</v>
       </c>
       <c r="BR6">
-        <v>0.0005052201355261092</v>
+        <v>0.000503016645821613</v>
       </c>
       <c r="BS6">
-        <v>0.0004178213663000541</v>
+        <v>0.0004155766610672637</v>
       </c>
       <c r="BT6">
-        <v>0.0007688007931920156</v>
+        <v>0.0007667216029044338</v>
       </c>
       <c r="BU6">
-        <v>0.0007313316935238168</v>
+        <v>0.0007292348335510529</v>
       </c>
       <c r="BV6">
-        <v>0.0001888633083275532</v>
+        <v>0.0001865106310100284</v>
       </c>
       <c r="BW6">
-        <v>0.0001228962589117131</v>
+        <v>0.000120512472840418</v>
       </c>
       <c r="BX6">
-        <v>0.0001039364640796084</v>
+        <v>0.000101543736944643</v>
       </c>
       <c r="BY6">
-        <v>4.199345262813414E-06</v>
+        <v>1.759584078295841E-06</v>
       </c>
       <c r="BZ6">
-        <v>2.198372980532683E-06</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>1.062999890586786E-06</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>8.572105924091178E-07</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>2.963899673753691E-05</v>
+        <v>2.721123238872351E-05</v>
       </c>
       <c r="CD6">
-        <v>0.0001769828984327581</v>
+        <v>0.0001746246185492647</v>
       </c>
       <c r="CE6">
-        <v>0.0002251744680060059</v>
+        <v>0.0002228389143121016</v>
       </c>
       <c r="CF6">
-        <v>0.0001803855384026266</v>
+        <v>0.0001780288631367405</v>
       </c>
       <c r="CG6">
-        <v>0.0001838205783722082</v>
+        <v>0.0001814655230031274</v>
       </c>
       <c r="CH6">
-        <v>0.0005478436351486641</v>
+        <v>0.0005456602458422656</v>
       </c>
       <c r="CI6">
-        <v>0.0009479067416059734</v>
+        <v>0.0009459120141357733</v>
       </c>
       <c r="CJ6">
-        <v>0.000940085731675231</v>
+        <v>0.0009380873159716731</v>
       </c>
       <c r="CK6">
-        <v>0.0004311882961816855</v>
+        <v>0.0004289498945282432</v>
       </c>
       <c r="CL6">
-        <v>0.0003664276167551627</v>
+        <v>0.0003641586752481402</v>
       </c>
       <c r="CM6">
-        <v>0.002059086681766109</v>
+        <v>0.002057615964744445</v>
       </c>
       <c r="CN6">
-        <v>0.1697677484966506</v>
+        <v>0.1698453658624181</v>
       </c>
       <c r="CO6">
-        <v>0.04610819359169675</v>
+        <v>0.04612749556092979</v>
       </c>
       <c r="CP6">
-        <v>0.1502718586692932</v>
+        <v>0.15034028215961</v>
       </c>
       <c r="CQ6">
-        <v>0.004653570158791103</v>
+        <v>0.004653322948783361</v>
       </c>
       <c r="CR6">
-        <v>0.02746741675676697</v>
+        <v>0.02747792810489781</v>
       </c>
       <c r="CS6">
-        <v>0.01066054790559734</v>
+        <v>0.01066313346730341</v>
       </c>
       <c r="CT6">
-        <v>0.0007308068435284646</v>
+        <v>0.0007287097360468396</v>
       </c>
       <c r="CU6">
-        <v>0.00116045598972378</v>
+        <v>0.001158561496268627</v>
       </c>
       <c r="CV6">
-        <v>0.008777494922272389</v>
+        <v>0.008779192473492724</v>
       </c>
       <c r="CW6">
-        <v>0.001484548786853831</v>
+        <v>0.001482807129141886</v>
       </c>
       <c r="CX6">
-        <v>0.04896887956636443</v>
+        <v>0.04898953057843611</v>
       </c>
       <c r="CY6">
-        <v>0.02556613977360341</v>
+        <v>0.02557575451717118</v>
       </c>
       <c r="CZ6">
-        <v>0.0002331750979351577</v>
+        <v>0.0002308433171798444</v>
       </c>
       <c r="DA6">
-        <v>0.005771628548890327</v>
+        <v>0.005771908593071857</v>
       </c>
       <c r="DB6">
-        <v>0.005764378648954528</v>
+        <v>0.005764655274226861</v>
       </c>
       <c r="DC6">
-        <v>0.06248392444668426</v>
+        <v>0.06251094888620343</v>
       </c>
       <c r="DD6">
-        <v>0.07448824434038204</v>
+        <v>0.0745209297793708</v>
       </c>
       <c r="DE6">
-        <v>3.885582565591886E-05</v>
+        <v>3.643240778104819E-05</v>
       </c>
       <c r="DF6">
-        <v>0.006491379242516697</v>
+        <v>0.006491998706867878</v>
       </c>
       <c r="DG6">
-        <v>0.002830075574938748</v>
+        <v>0.002828968441006668</v>
       </c>
       <c r="DH6">
-        <v>0.01144998089860665</v>
+        <v>0.01145293874127443</v>
       </c>
       <c r="DI6">
-        <v>6.958431538380795E-06</v>
+        <v>4.519971484296337E-06</v>
       </c>
       <c r="DJ6">
-        <v>0.006280340944385511</v>
+        <v>0.006280860887255728</v>
       </c>
       <c r="DK6">
-        <v>0.002359528779105595</v>
+        <v>0.002358199744625611</v>
       </c>
       <c r="DL6">
-        <v>0.01647914385407175</v>
+        <v>0.01648447335036719</v>
       </c>
       <c r="DM6">
-        <v>0.01039609690793914</v>
+        <v>0.0103985577597932</v>
       </c>
       <c r="DN6">
-        <v>0.001711307384845809</v>
+        <v>0.00170967266199684</v>
       </c>
       <c r="DO6">
-        <v>0.001675952085158892</v>
+        <v>0.00167430068945094</v>
       </c>
       <c r="DP6">
-        <v>0.0007585917932824197</v>
+        <v>0.0007565077886327095</v>
       </c>
       <c r="DQ6">
-        <v>0.01043633190758284</v>
+        <v>0.01043881173346572</v>
       </c>
       <c r="DR6">
-        <v>0.02476359678071019</v>
+        <v>0.02477283306089999</v>
       </c>
       <c r="DS6">
-        <v>0.006939812938545669</v>
+        <v>0.006940643875344922</v>
       </c>
       <c r="DT6">
-        <v>0.0004158724563173124</v>
+        <v>0.0004136268320171798</v>
       </c>
       <c r="DU6">
-        <v>1.219509289200843E-09</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.004929721356345692</v>
+        <v>0.004929604373772468</v>
       </c>
       <c r="DW6">
-        <v>0.007491091233663918</v>
+        <v>0.007492182142386937</v>
       </c>
       <c r="DX6">
-        <v>1.58749258594223E-06</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.003137618272215356</v>
+        <v>0.003136656169327232</v>
       </c>
       <c r="DZ6">
-        <v>0.0005826381948405467</v>
+        <v>0.0005804712139592573</v>
       </c>
       <c r="EA6">
-        <v>0.004021918364384588</v>
+        <v>0.004021373279902925</v>
       </c>
       <c r="EB6">
-        <v>0.002830075574938748</v>
+        <v>0.002828968441006668</v>
       </c>
       <c r="EC6">
-        <v>0.009166265918829693</v>
+        <v>0.009168146806750882</v>
       </c>
       <c r="ED6">
-        <v>0.01959582182647254</v>
+        <v>0.01960262108636182</v>
       </c>
       <c r="EE6">
-        <v>0.01411947087496743</v>
+        <v>0.01412368759622843</v>
       </c>
       <c r="EF6">
-        <v>0.0003589198668216463</v>
+        <v>0.0003566473848084753</v>
       </c>
       <c r="EG6">
-        <v>0.001047372790725169</v>
+        <v>0.001045424969473421</v>
       </c>
       <c r="EH6">
-        <v>0.0001468939286992058</v>
+        <v>0.0001445214594536152</v>
       </c>
       <c r="EI6">
-        <v>0.01080228390434222</v>
+        <v>0.01080493630593767</v>
       </c>
       <c r="EJ6">
-        <v>0.002789595975297208</v>
+        <v>0.002788469751987794</v>
       </c>
       <c r="EK6">
-        <v>4.250799962357765E-05</v>
+        <v>4.008630404160461E-05</v>
       </c>
       <c r="EL6">
-        <v>0.0004335768461605341</v>
+        <v>0.0004313395708999473</v>
       </c>
       <c r="EM6">
-        <v>0.0008272168226747224</v>
+        <v>0.0008251651802294878</v>
       </c>
       <c r="EN6">
-        <v>1.211896689268255E-06</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.004387020561151487</v>
+        <v>0.004386647651633551</v>
       </c>
       <c r="EP6">
-        <v>0.0102293309094159</v>
+        <v>0.01023171311772851</v>
       </c>
       <c r="EQ6">
-        <v>0.005189988254040943</v>
+        <v>0.005189994008181073</v>
       </c>
       <c r="ER6">
-        <v>0.0005988788246967307</v>
+        <v>0.0005967195025747725</v>
       </c>
       <c r="ES6">
-        <v>1.89757478319635E-05</v>
+        <v>1.654295490619338E-05</v>
       </c>
       <c r="ET6">
-        <v>8.167503327674067E-07</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.0008580561924016296</v>
+        <v>0.0008560190931922645</v>
       </c>
       <c r="EV6">
-        <v>0.0002382507378902112</v>
+        <v>0.0002359213507061579</v>
       </c>
       <c r="EW6">
-        <v>0.001859162183536506</v>
+        <v>0.00185759718608176</v>
       </c>
       <c r="EX6">
-        <v>0.009533578915577016</v>
+        <v>0.009535633021031407</v>
       </c>
       <c r="EY6">
-        <v>0.0172200368475109</v>
+        <v>0.01722571573426578</v>
       </c>
       <c r="EZ6">
-        <v>0.002563124777302685</v>
+        <v>0.00256189175466244</v>
       </c>
       <c r="FA6">
-        <v>0.001409510687518318</v>
+        <v>0.001407733643325148</v>
       </c>
       <c r="FB6">
-        <v>0.001045942090737838</v>
+        <v>0.001043993594796317</v>
       </c>
       <c r="FC6">
-        <v>0.0004735486258065709</v>
+        <v>0.0004713302004454684</v>
       </c>
       <c r="FD6">
-        <v>0.006806887639722766</v>
+        <v>0.006807655891584197</v>
       </c>
       <c r="FE6">
-        <v>0.00811096642817472</v>
+        <v>0.008112349657760429</v>
       </c>
       <c r="FF6">
-        <v>0.002365111379056159</v>
+        <v>0.002363784977219727</v>
       </c>
       <c r="FG6">
-        <v>0.001645621985427475</v>
+        <v>0.001643956286645295</v>
       </c>
       <c r="FH6">
-        <v>0.003038601473092182</v>
+        <v>0.003037592675843005</v>
       </c>
       <c r="FI6">
-        <v>0.003578053268315159</v>
+        <v>0.003577298865846666</v>
       </c>
       <c r="FJ6">
-        <v>0.01116912590109371</v>
+        <v>0.01117195129810809</v>
       </c>
       <c r="FK6">
-        <v>0.001390461887687002</v>
+        <v>0.001388675860457166</v>
       </c>
       <c r="FL6">
-        <v>0.004750421257933454</v>
+        <v>0.004750219720985554</v>
       </c>
       <c r="FM6">
-        <v>0.005258985253429953</v>
+        <v>0.00525902354518824</v>
       </c>
       <c r="FN6">
-        <v>0.0003296368970809566</v>
+        <v>0.0003273506057993191</v>
       </c>
       <c r="FO6">
-        <v>0.002213482680398881</v>
+        <v>0.002212084773471759</v>
       </c>
       <c r="FP6">
-        <v>0.003444922169494079</v>
+        <v>0.003444104985036562</v>
       </c>
       <c r="FQ6">
-        <v>1.189747389464395E-05</v>
+        <v>9.461342995097746E-06</v>
       </c>
       <c r="FR6">
-        <v>0.0001615093785697812</v>
+        <v>0.0001591438016808337</v>
       </c>
       <c r="FS6">
-        <v>0.0002237443380186701</v>
+        <v>0.0002214081099037931</v>
       </c>
       <c r="FT6">
-        <v>0.0003567469468408882</v>
+        <v>0.0003544734401216974</v>
       </c>
       <c r="FU6">
-        <v>0.0004115942963551968</v>
+        <v>0.0004093466545595718</v>
       </c>
       <c r="FV6">
-        <v>0.0007472415933829294</v>
+        <v>0.0007451522362037816</v>
       </c>
       <c r="FW6">
-        <v>5.430550951910681E-05</v>
+        <v>5.188937740910491E-05</v>
       </c>
       <c r="FX6">
-        <v>0.001823131783855567</v>
+        <v>0.001821549795178054</v>
       </c>
       <c r="FY6">
-        <v>0.002903330974290047</v>
+        <v>0.002902258386153193</v>
       </c>
       <c r="FZ6">
-        <v>0.001516595586570046</v>
+        <v>0.001514869041494035</v>
       </c>
       <c r="GA6">
-        <v>0.001259619488845654</v>
+        <v>0.001257771758932368</v>
       </c>
       <c r="GB6">
-        <v>0.002335801679315706</v>
+        <v>0.002334461455605469</v>
       </c>
       <c r="GC6">
-        <v>0.002323515179424507</v>
+        <v>0.002322169161644303</v>
       </c>
       <c r="GD6">
-        <v>0.000591589394761281</v>
+        <v>0.0005894266350885607</v>
       </c>
       <c r="GE6">
-        <v>1.371831387851981E-05</v>
+        <v>1.128304165104118E-05</v>
       </c>
       <c r="GF6">
-        <v>2.803469575174353E-05</v>
+        <v>2.560617484636465E-05</v>
       </c>
       <c r="GG6">
-        <v>0.001193201789433805</v>
+        <v>0.001191322738249137</v>
       </c>
       <c r="GH6">
-        <v>0.004947609956187283</v>
+        <v>0.00494750140952339</v>
       </c>
       <c r="GI6">
-        <v>0.001193201789433805</v>
+        <v>0.001191322738249137</v>
       </c>
       <c r="GJ6">
-        <v>0.0001536768686391407</v>
+        <v>0.0001513075980936632</v>
       </c>
       <c r="GK6">
-        <v>3.779401566532154E-06</v>
+        <v>1.339442344886034E-06</v>
       </c>
       <c r="GL6">
-        <v>0.0001153917189781683</v>
+        <v>0.0001130043939144971</v>
       </c>
       <c r="GM6">
-        <v>0.006998250938028181</v>
+        <v>0.006999109433030399</v>
       </c>
       <c r="GN6">
-        <v>0.008530014924463907</v>
+        <v>0.00853159576901958</v>
       </c>
       <c r="GO6">
-        <v>0.0001744521884551684</v>
+        <v>0.0001720927151389801</v>
       </c>
       <c r="GP6">
-        <v>2.482823378013781E-05</v>
+        <v>2.239820077080958E-05</v>
       </c>
       <c r="GQ6">
-        <v>0.0003646025967713238</v>
+        <v>0.0003623327946210285</v>
       </c>
       <c r="GR6">
-        <v>0.000911045591932391</v>
+        <v>0.0009090334814741833</v>
       </c>
       <c r="GS6">
-        <v>0.001144910289861442</v>
+        <v>0.001143008465362177</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0003889279613045278</v>
+        <v>0.000325169636542772</v>
       </c>
       <c r="C2">
-        <v>0.0009403983056919734</v>
+        <v>0.0008149129187669092</v>
       </c>
       <c r="D2">
-        <v>0.001755192231274142</v>
+        <v>0.001571270489087102</v>
       </c>
       <c r="E2">
-        <v>0.002906187723916929</v>
+        <v>0.002668031076303686</v>
       </c>
       <c r="F2">
-        <v>0.003967427409335337</v>
+        <v>0.003673914194297646</v>
       </c>
       <c r="G2">
-        <v>0.005247785612390435</v>
+        <v>0.004901654114190288</v>
       </c>
       <c r="H2">
-        <v>0.00619674954877185</v>
+        <v>0.005793858393532065</v>
       </c>
       <c r="I2">
-        <v>0.007027026415600229</v>
+        <v>0.006565892392599211</v>
       </c>
       <c r="J2">
-        <v>0.007626236733830231</v>
+        <v>0.007103972246436147</v>
       </c>
       <c r="K2">
-        <v>0.008133467374656854</v>
+        <v>0.007548922969570307</v>
       </c>
       <c r="L2">
-        <v>0.008695286519877268</v>
+        <v>0.008049144379709199</v>
       </c>
       <c r="M2">
-        <v>0.009047843508254322</v>
+        <v>0.008337488521890916</v>
       </c>
       <c r="N2">
-        <v>0.009115615263709222</v>
+        <v>0.008337488521890916</v>
       </c>
       <c r="O2">
-        <v>0.009121763065504053</v>
+        <v>0.008337488521890916</v>
       </c>
       <c r="P2">
-        <v>0.009122366103112591</v>
+        <v>0.008337488521890916</v>
       </c>
       <c r="Q2">
-        <v>0.009191550658681205</v>
+        <v>0.008338918977510695</v>
       </c>
       <c r="R2">
-        <v>0.009394308775001057</v>
+        <v>0.008475592238376281</v>
       </c>
       <c r="S2">
-        <v>0.00974437410317756</v>
+        <v>0.008761413582533099</v>
       </c>
       <c r="T2">
-        <v>0.01037373815383461</v>
+        <v>0.009330023994506918</v>
       </c>
       <c r="U2">
-        <v>0.01126948317593248</v>
+        <v>0.01016834429247271</v>
       </c>
       <c r="V2">
-        <v>0.0121223312445776</v>
+        <v>0.01096323156156049</v>
       </c>
       <c r="W2">
-        <v>0.01292375446908357</v>
+        <v>0.01170605133958498</v>
       </c>
       <c r="X2">
-        <v>0.01384697274339273</v>
+        <v>0.01257218821799816</v>
       </c>
       <c r="Y2">
-        <v>0.01485188912427772</v>
+        <v>0.01352104416936594</v>
       </c>
       <c r="Z2">
-        <v>0.01578126885908282</v>
+        <v>0.01439341950692624</v>
       </c>
       <c r="AA2">
-        <v>0.01649993416692766</v>
+        <v>0.01505244715765696</v>
       </c>
       <c r="AB2">
-        <v>0.01730901717205017</v>
+        <v>0.0158030224391832</v>
       </c>
       <c r="AC2">
-        <v>0.01783469611436168</v>
+        <v>0.01626665200887056</v>
       </c>
       <c r="AD2">
-        <v>0.01808353231439033</v>
+        <v>0.01644997918287644</v>
       </c>
       <c r="AE2">
-        <v>0.0182457846374499</v>
+        <v>0.0165456404569505</v>
       </c>
       <c r="AF2">
-        <v>0.01832909618415558</v>
+        <v>0.01656137444614619</v>
       </c>
       <c r="AG2">
-        <v>0.01833791551986545</v>
+        <v>0.01656137444614619</v>
       </c>
       <c r="AH2">
-        <v>0.01834652964455879</v>
+        <v>0.01656137444614619</v>
       </c>
       <c r="AI2">
-        <v>0.01837458648681706</v>
+        <v>0.01656137444614619</v>
       </c>
       <c r="AJ2">
-        <v>0.01855491143133129</v>
+        <v>0.0166753341919382</v>
       </c>
       <c r="AK2">
-        <v>0.01888871833819916</v>
+        <v>0.01694469393625235</v>
       </c>
       <c r="AL2">
-        <v>0.01948792865642916</v>
+        <v>0.01748277379008929</v>
       </c>
       <c r="AM2">
-        <v>0.0201957266133993</v>
+        <v>0.01813079828263796</v>
       </c>
       <c r="AN2">
-        <v>0.02116139394112516</v>
+        <v>0.01903991469256783</v>
       </c>
       <c r="AO2">
-        <v>0.02215026642071879</v>
+        <v>0.01997252624492784</v>
       </c>
       <c r="AP2">
-        <v>0.0230439322626493</v>
+        <v>0.02080874137958989</v>
       </c>
       <c r="AQ2">
-        <v>0.02402962414198692</v>
+        <v>0.02173813258431098</v>
       </c>
       <c r="AR2">
-        <v>0.02509636692784827</v>
+        <v>0.02274958757399322</v>
       </c>
       <c r="AS2">
-        <v>0.02590347395281173</v>
+        <v>0.02349816218189575</v>
       </c>
       <c r="AT2">
-        <v>0.02629975596470818</v>
+        <v>0.02383077777126315</v>
       </c>
       <c r="AU2">
-        <v>0.0264637060579044</v>
+        <v>0.02392815803219847</v>
       </c>
       <c r="AV2">
-        <v>0.02650436697117717</v>
+        <v>0.02392815803219847</v>
       </c>
       <c r="AW2">
-        <v>0.02651102698271323</v>
+        <v>0.02392815803219847</v>
       </c>
       <c r="AX2">
-        <v>0.02651668788286887</v>
+        <v>0.02392815803219847</v>
       </c>
       <c r="AY2">
-        <v>0.02659043570880478</v>
+        <v>0.02393420878454536</v>
       </c>
       <c r="AZ2">
-        <v>0.0267753476336882</v>
+        <v>0.02405281283336598</v>
       </c>
       <c r="BA2">
-        <v>0.0272250796198868</v>
+        <v>0.02443954635164299</v>
       </c>
       <c r="BB2">
-        <v>0.02769800055795187</v>
+        <v>0.02484975860990036</v>
       </c>
       <c r="BC2">
-        <v>0.02837653821256687</v>
+        <v>0.02546815713941718</v>
       </c>
       <c r="BD2">
-        <v>0.02919621290854188</v>
+        <v>0.02622945647423011</v>
       </c>
       <c r="BE2">
-        <v>0.03026522709458606</v>
+        <v>0.02724321124937014</v>
       </c>
       <c r="BF2">
-        <v>0.03140601168640698</v>
+        <v>0.02832963333199443</v>
       </c>
       <c r="BG2">
-        <v>0.03238542136523895</v>
+        <v>0.02925266382869274</v>
       </c>
       <c r="BH2">
-        <v>0.03345995865172767</v>
+        <v>0.03027201072545905</v>
       </c>
       <c r="BI2">
-        <v>0.03419134321059628</v>
+        <v>0.03094391657738022</v>
       </c>
       <c r="BJ2">
-        <v>0.03469634221124328</v>
+        <v>0.03138660777193332</v>
       </c>
       <c r="BK2">
-        <v>0.0351158319050077</v>
+        <v>0.03174272106534802</v>
       </c>
       <c r="BL2">
-        <v>0.03531955207140499</v>
+        <v>0.03188036839885589</v>
       </c>
       <c r="BM2">
-        <v>0.03543723812087746</v>
+        <v>0.03193090646272746</v>
       </c>
       <c r="BN2">
-        <v>0.03546134483281779</v>
+        <v>0.03193090646272746</v>
       </c>
       <c r="BO2">
-        <v>0.0354614829638989</v>
+        <v>0.03193090646272746</v>
       </c>
       <c r="BP2">
-        <v>0.03549044053622968</v>
+        <v>0.03193090646272746</v>
       </c>
       <c r="BQ2">
-        <v>0.03561743251645117</v>
+        <v>0.03199086675187208</v>
       </c>
       <c r="BR2">
-        <v>0.03586676927652011</v>
+        <v>0.03217470074132603</v>
       </c>
       <c r="BS2">
-        <v>0.0362346952761342</v>
+        <v>0.03247860595848293</v>
       </c>
       <c r="BT2">
-        <v>0.03675415736794533</v>
+        <v>0.0329359409868199</v>
       </c>
       <c r="BU2">
-        <v>0.03743528142276851</v>
+        <v>0.03355695823831788</v>
       </c>
       <c r="BV2">
-        <v>0.03799950246818225</v>
+        <v>0.03405961156475996</v>
       </c>
       <c r="BW2">
-        <v>0.03865273902076078</v>
+        <v>0.03465239280896988</v>
       </c>
       <c r="BX2">
-        <v>0.03944458172449562</v>
+        <v>0.03538551234019765</v>
       </c>
       <c r="BY2">
-        <v>0.04013808988031559</v>
+        <v>0.03601906845455018</v>
       </c>
       <c r="BZ2">
-        <v>0.04084768433743033</v>
+        <v>0.03666891189777901</v>
       </c>
       <c r="CA2">
-        <v>0.04147108638760751</v>
+        <v>0.03723148580323731</v>
       </c>
       <c r="CB2">
-        <v>0.04182491161608664</v>
+        <v>0.037521114034487</v>
       </c>
       <c r="CC2">
-        <v>0.04196959043773173</v>
+        <v>0.03759898219429564</v>
       </c>
       <c r="CD2">
-        <v>0.04199385312768462</v>
+        <v>0.03759898219429564</v>
       </c>
       <c r="CE2">
-        <v>0.04199450970763746</v>
+        <v>0.03759898219429564</v>
       </c>
       <c r="CF2">
-        <v>0.04202532267011758</v>
+        <v>0.03759898219429564</v>
       </c>
       <c r="CG2">
-        <v>0.0421538631204637</v>
+        <v>0.03766051030451441</v>
       </c>
       <c r="CH2">
-        <v>0.04236980093784438</v>
+        <v>0.03781052797076788</v>
       </c>
       <c r="CI2">
-        <v>0.04265386712070866</v>
+        <v>0.03802952539029732</v>
       </c>
       <c r="CJ2">
-        <v>0.04316724116202976</v>
+        <v>0.03848069628688459</v>
       </c>
       <c r="CK2">
-        <v>0.04379237996234672</v>
+        <v>0.0390450286463333</v>
       </c>
       <c r="CL2">
-        <v>0.04442428601320838</v>
+        <v>0.03961621282542595</v>
       </c>
       <c r="CM2">
-        <v>0.04442537902649635</v>
+        <v>0.03961621282542595</v>
       </c>
       <c r="CN2">
-        <v>0.1770934997048566</v>
+        <v>0.1738736441916887</v>
       </c>
       <c r="CO2">
-        <v>0.2594548863340645</v>
+        <v>0.2571956674030925</v>
       </c>
       <c r="CP2">
-        <v>0.4528945319038804</v>
+        <v>0.4529840743543551</v>
       </c>
       <c r="CQ2">
-        <v>0.4553030996977443</v>
+        <v>0.4553541228951159</v>
       </c>
       <c r="CR2">
-        <v>0.4848391560750799</v>
+        <v>0.4851906673102734</v>
       </c>
       <c r="CS2">
-        <v>0.4925323566943001</v>
+        <v>0.4929113897716487</v>
       </c>
       <c r="CT2">
-        <v>0.4936079338808725</v>
+        <v>0.4939317895639409</v>
       </c>
       <c r="CU2">
-        <v>0.493767166043689</v>
+        <v>0.4940243929353786</v>
       </c>
       <c r="CV2">
-        <v>0.5029012887788878</v>
+        <v>0.5032040444543435</v>
       </c>
       <c r="CW2">
-        <v>0.5041528349796239</v>
+        <v>0.5044026123135644</v>
       </c>
       <c r="CX2">
-        <v>0.5681318851292509</v>
+        <v>0.5691125783297509</v>
       </c>
       <c r="CY2">
-        <v>0.589074527814909</v>
+        <v>0.5902483187252818</v>
       </c>
       <c r="CZ2">
-        <v>0.5909925859692921</v>
+        <v>0.5921217278168104</v>
       </c>
       <c r="DA2">
-        <v>0.6085134603795345</v>
+        <v>0.6097929387211333</v>
       </c>
       <c r="DB2">
-        <v>0.6151010692097663</v>
+        <v>0.6163942530140165</v>
       </c>
       <c r="DC2">
-        <v>0.658709002719737</v>
+        <v>0.660478528250966</v>
       </c>
       <c r="DD2">
-        <v>0.6965662737668411</v>
+        <v>0.6987402760421714</v>
       </c>
       <c r="DE2">
-        <v>0.6986580337352053</v>
+        <v>0.7007895576676578</v>
       </c>
       <c r="DF2">
-        <v>0.7113772817589683</v>
+        <v>0.7135991371338614</v>
       </c>
       <c r="DG2">
-        <v>0.7118213075947076</v>
+        <v>0.7139800931929546</v>
       </c>
       <c r="DH2">
-        <v>0.7168635820005567</v>
+        <v>0.7190167612982163</v>
       </c>
       <c r="DI2">
-        <v>0.7170475774153663</v>
+        <v>0.7191344373835035</v>
       </c>
       <c r="DJ2">
-        <v>0.7224977618540477</v>
+        <v>0.7245841130990879</v>
       </c>
       <c r="DK2">
-        <v>0.7253614160845411</v>
+        <v>0.7274149352089065</v>
       </c>
       <c r="DL2">
-        <v>0.7483797859372728</v>
+        <v>0.7506523427563883</v>
       </c>
       <c r="DM2">
-        <v>0.7674896514754119</v>
+        <v>0.7699324021217302</v>
       </c>
       <c r="DN2">
-        <v>0.7676700036499283</v>
+        <v>0.7700463894378128</v>
       </c>
       <c r="DO2">
-        <v>0.768065654581774</v>
+        <v>0.7703783660606368</v>
       </c>
       <c r="DP2">
-        <v>0.7683203800022766</v>
+        <v>0.7705676560516338</v>
       </c>
       <c r="DQ2">
-        <v>0.7726827181533981</v>
+        <v>0.7749158908624584</v>
       </c>
       <c r="DR2">
-        <v>0.7816497338751466</v>
+        <v>0.783926347062019</v>
       </c>
       <c r="DS2">
-        <v>0.7823098876782819</v>
+        <v>0.7845261320004078</v>
       </c>
       <c r="DT2">
-        <v>0.7852408488141929</v>
+        <v>0.7874251021377993</v>
       </c>
       <c r="DU2">
-        <v>0.7853787342652911</v>
+        <v>0.7874960920315449</v>
       </c>
       <c r="DV2">
-        <v>0.7875420829394175</v>
+        <v>0.7896178569938289</v>
       </c>
       <c r="DW2">
-        <v>0.7919580698948571</v>
+        <v>0.7940204110483216</v>
       </c>
       <c r="DX2">
-        <v>0.7920063891387462</v>
+        <v>0.7940204110483216</v>
       </c>
       <c r="DY2">
-        <v>0.794821607365341</v>
+        <v>0.7968021918583104</v>
       </c>
       <c r="DZ2">
-        <v>0.7964609663972918</v>
+        <v>0.7983934189751629</v>
       </c>
       <c r="EA2">
-        <v>0.8036476652757439</v>
+        <v>0.8056013100356376</v>
       </c>
       <c r="EB2">
-        <v>0.8045739616903008</v>
+        <v>0.8064705635212573</v>
       </c>
       <c r="EC2">
-        <v>0.8074666873231342</v>
+        <v>0.8093308203334435</v>
       </c>
       <c r="ED2">
-        <v>0.8190556352559202</v>
+        <v>0.8209959745540102</v>
       </c>
       <c r="EE2">
-        <v>0.8259761388129465</v>
+        <v>0.8279343436985422</v>
       </c>
       <c r="EF2">
-        <v>0.8279492622717618</v>
+        <v>0.8298635062355972</v>
       </c>
       <c r="EG2">
-        <v>0.8345204495006718</v>
+        <v>0.8364481937093937</v>
       </c>
       <c r="EH2">
-        <v>0.8348022115033507</v>
+        <v>0.836664858153817</v>
       </c>
       <c r="EI2">
-        <v>0.839666391894865</v>
+        <v>0.8415212066362384</v>
       </c>
       <c r="EJ2">
-        <v>0.839964270438841</v>
+        <v>0.8417541890274443</v>
       </c>
       <c r="EK2">
-        <v>0.8403168274272181</v>
+        <v>0.842042533169626</v>
       </c>
       <c r="EL2">
-        <v>0.8405317450345167</v>
+        <v>0.8421915178764174</v>
       </c>
       <c r="EM2">
-        <v>0.8405555215564304</v>
+        <v>0.8421915178764174</v>
       </c>
       <c r="EN2">
-        <v>0.8406832751467133</v>
+        <v>0.8422522492933258</v>
       </c>
       <c r="EO2">
-        <v>0.8449989394940779</v>
+        <v>0.8465532270263569</v>
       </c>
       <c r="EP2">
-        <v>0.8529005201300703</v>
+        <v>0.8544849335916743</v>
       </c>
       <c r="EQ2">
-        <v>0.8549431898944834</v>
+        <v>0.8564845115418592</v>
       </c>
       <c r="ER2">
-        <v>0.8556077377479724</v>
+        <v>0.8570887454422498</v>
       </c>
       <c r="ES2">
-        <v>0.8578201056260443</v>
+        <v>0.8592601421925555</v>
       </c>
       <c r="ET2">
-        <v>0.8595933234687693</v>
+        <v>0.8609869009293946</v>
       </c>
       <c r="EU2">
-        <v>0.8599697505190677</v>
+        <v>0.8612994134333199</v>
       </c>
       <c r="EV2">
-        <v>0.8603048285660378</v>
+        <v>0.8615700602029431</v>
       </c>
       <c r="EW2">
-        <v>0.8603245108206221</v>
+        <v>0.8615700602029431</v>
       </c>
       <c r="EX2">
-        <v>0.8624039435879941</v>
+        <v>0.8636068605766486</v>
       </c>
       <c r="EY2">
-        <v>0.8683246964645512</v>
+        <v>0.8695329853382907</v>
       </c>
       <c r="EZ2">
-        <v>0.8684524729748359</v>
+        <v>0.869593739961628</v>
       </c>
       <c r="FA2">
-        <v>0.875089631809056</v>
+        <v>0.8762452234758873</v>
       </c>
       <c r="FB2">
-        <v>0.8791327986344876</v>
+        <v>0.8802702983350151</v>
       </c>
       <c r="FC2">
-        <v>0.8809633050818237</v>
+        <v>0.8820550616017375</v>
       </c>
       <c r="FD2">
-        <v>0.8879965416479239</v>
+        <v>0.8891075725592541</v>
       </c>
       <c r="FE2">
-        <v>0.8926007303185116</v>
+        <v>0.8937006802514994</v>
       </c>
       <c r="FF2">
-        <v>0.8935157650921621</v>
+        <v>0.8945585313615346</v>
       </c>
       <c r="FG2">
-        <v>0.8946147730806204</v>
+        <v>0.8956026547661824</v>
       </c>
       <c r="FH2">
-        <v>0.8951887011868155</v>
+        <v>0.8961151364607789</v>
       </c>
       <c r="FI2">
-        <v>0.8952124777087292</v>
+        <v>0.8961151364607789</v>
       </c>
       <c r="FJ2">
-        <v>0.8973916429841287</v>
+        <v>0.8982529156815254</v>
       </c>
       <c r="FK2">
-        <v>0.8975590675576045</v>
+        <v>0.8983538138426885</v>
       </c>
       <c r="FL2">
-        <v>0.9117573957004176</v>
+        <v>0.9126609572231773</v>
       </c>
       <c r="FM2">
-        <v>0.9250849897731459</v>
+        <v>0.9260864851282752</v>
       </c>
       <c r="FN2">
-        <v>0.9290045500886285</v>
+        <v>0.9299864087893805</v>
       </c>
       <c r="FO2">
-        <v>0.9374707397700659</v>
+        <v>0.9384897802166937</v>
       </c>
       <c r="FP2">
-        <v>0.9461556454691076</v>
+        <v>0.9472146009159035</v>
       </c>
       <c r="FQ2">
-        <v>0.9466960786126066</v>
+        <v>0.9476931690673471</v>
       </c>
       <c r="FR2">
-        <v>0.9468119197819306</v>
+        <v>0.9477418391959386</v>
       </c>
       <c r="FS2">
-        <v>0.9475287229396255</v>
+        <v>0.9483989814255677</v>
       </c>
       <c r="FT2">
-        <v>0.9479942909570988</v>
+        <v>0.9488017488751219</v>
       </c>
       <c r="FU2">
-        <v>0.948813907563069</v>
+        <v>0.94956298939399</v>
       </c>
       <c r="FV2">
-        <v>0.9492451856477823</v>
+        <v>0.9499310383957311</v>
       </c>
       <c r="FW2">
-        <v>0.9495219070400553</v>
+        <v>0.9501425992381572</v>
       </c>
       <c r="FX2">
-        <v>0.9542668129219694</v>
+        <v>0.9548781826591253</v>
       </c>
       <c r="FY2">
-        <v>0.9599589037801216</v>
+        <v>0.9605727878547071</v>
       </c>
       <c r="FZ2">
-        <v>0.9634535087613998</v>
+        <v>0.9640424455920867</v>
       </c>
       <c r="GA2">
-        <v>0.9672142932641026</v>
+        <v>0.967781609247958</v>
       </c>
       <c r="GB2">
-        <v>0.9728125855147051</v>
+        <v>0.9733812436518515</v>
       </c>
       <c r="GC2">
-        <v>0.9773188518774112</v>
+        <v>0.9778752053189435</v>
       </c>
       <c r="GD2">
-        <v>0.9795391620561223</v>
+        <v>0.980054643623375</v>
       </c>
       <c r="GE2">
-        <v>0.9808377673606461</v>
+        <v>0.9813008586754447</v>
       </c>
       <c r="GF2">
-        <v>0.9822091018710238</v>
+        <v>0.9826207118170259</v>
       </c>
       <c r="GG2">
-        <v>0.9822333645609768</v>
+        <v>0.9826207118170259</v>
       </c>
       <c r="GH2">
-        <v>0.984084049909937</v>
+        <v>0.984425906157436</v>
       </c>
       <c r="GI2">
-        <v>0.9841028442594498</v>
+        <v>0.984425906157436</v>
       </c>
       <c r="GJ2">
-        <v>0.9841223860550228</v>
+        <v>0.984425906157436</v>
       </c>
       <c r="GK2">
-        <v>0.9841652402224721</v>
+        <v>0.984425906157436</v>
       </c>
       <c r="GL2">
-        <v>0.9841766283603887</v>
+        <v>0.984425906157436</v>
       </c>
       <c r="GM2">
-        <v>0.9909101809023674</v>
+        <v>0.9911749879940878</v>
       </c>
       <c r="GN2">
-        <v>0.9969012403845834</v>
+        <v>0.9971722979702524</v>
       </c>
       <c r="GO2">
-        <v>0.9969361120733902</v>
+        <v>0.9971722979702524</v>
       </c>
       <c r="GP2">
-        <v>0.9970852896653973</v>
+        <v>0.9972547211207381</v>
       </c>
       <c r="GQ2">
-        <v>0.9983368358661334</v>
+        <v>0.998453288979959</v>
       </c>
       <c r="GR2">
-        <v>0.9997294182782214</v>
+        <v>0.9997946555544136</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>8.817830857709165E-05</v>
+        <v>6.903300932155487E-05</v>
       </c>
       <c r="C3">
-        <v>0.0002720577356098815</v>
+        <v>0.0002340947227760211</v>
       </c>
       <c r="D3">
-        <v>0.0003522126943164437</v>
+        <v>0.0002950769182376672</v>
       </c>
       <c r="E3">
-        <v>0.0003524449627426957</v>
+        <v>0.0002950769182376672</v>
       </c>
       <c r="F3">
-        <v>0.0004252077315685435</v>
+        <v>0.0003486416202948028</v>
       </c>
       <c r="G3">
-        <v>0.0004741966477780232</v>
+        <v>0.0003783510916520644</v>
       </c>
       <c r="H3">
-        <v>0.0004925640624816335</v>
+        <v>0.0003783510916520644</v>
       </c>
       <c r="I3">
-        <v>0.0005258902469438583</v>
+        <v>0.0003923442176087592</v>
       </c>
       <c r="J3">
-        <v>0.0005260021628920523</v>
+        <v>0.0003923442176087592</v>
       </c>
       <c r="K3">
-        <v>0.00054538295657931</v>
+        <v>0.0003923442176087592</v>
       </c>
       <c r="L3">
-        <v>0.0005997984387012228</v>
+        <v>0.000427498830056028</v>
       </c>
       <c r="M3">
-        <v>0.0006016789658708773</v>
+        <v>0.000427498830056028</v>
       </c>
       <c r="N3">
-        <v>0.0006101773627337411</v>
+        <v>0.000427498830056028</v>
       </c>
       <c r="O3">
-        <v>0.0007744023600836889</v>
+        <v>0.0005728388365610769</v>
       </c>
       <c r="P3">
-        <v>0.0007786253030155444</v>
+        <v>0.0005728388365610769</v>
       </c>
       <c r="Q3">
-        <v>0.0007787683975932353</v>
+        <v>0.0005728388365610769</v>
       </c>
       <c r="R3">
-        <v>0.000818798366947283</v>
+        <v>0.0005935586945177279</v>
       </c>
       <c r="S3">
-        <v>0.0008847370808832487</v>
+        <v>0.0006402759828917037</v>
       </c>
       <c r="T3">
-        <v>0.0009958402290904088</v>
+        <v>0.0007323123037487383</v>
       </c>
       <c r="U3">
-        <v>0.001347368773417892</v>
+        <v>0.001065596998738039</v>
       </c>
       <c r="V3">
-        <v>0.001414019762342364</v>
+        <v>0.001113029000223379</v>
       </c>
       <c r="W3">
-        <v>0.001418012819677929</v>
+        <v>0.001113029000223379</v>
       </c>
       <c r="X3">
-        <v>0.00141883141526472</v>
+        <v>0.001113029000223379</v>
       </c>
       <c r="Y3">
-        <v>0.001457218164645284</v>
+        <v>0.001132100013451721</v>
       </c>
       <c r="Z3">
-        <v>0.001459519827808143</v>
+        <v>0.001132100013451721</v>
       </c>
       <c r="AA3">
-        <v>0.001665371594486371</v>
+        <v>0.001319209278042138</v>
       </c>
       <c r="AB3">
-        <v>0.001721109295586948</v>
+        <v>0.001355690635433979</v>
       </c>
       <c r="AC3">
-        <v>0.001722065120171524</v>
+        <v>0.001355690635433979</v>
       </c>
       <c r="AD3">
-        <v>0.001771668239371092</v>
+        <v>0.00138601641220297</v>
       </c>
       <c r="AE3">
-        <v>0.001862050727912616</v>
+        <v>0.00145726114641422</v>
       </c>
       <c r="AF3">
-        <v>0.002016743465416383</v>
+        <v>0.001593036264073057</v>
       </c>
       <c r="AG3">
-        <v>0.002170350072937677</v>
+        <v>0.001727721533917993</v>
       </c>
       <c r="AH3">
-        <v>0.002466369608160894</v>
+        <v>0.002005307212030575</v>
       </c>
       <c r="AI3">
-        <v>0.002733528533849826</v>
+        <v>0.00225393349051664</v>
       </c>
       <c r="AJ3">
-        <v>0.002810837466602313</v>
+        <v>0.002312059918055104</v>
       </c>
       <c r="AK3">
-        <v>0.002896568589218895</v>
+        <v>0.00237863736467946</v>
       </c>
       <c r="AL3">
-        <v>0.003110446205767612</v>
+        <v>0.002573799951687264</v>
       </c>
       <c r="AM3">
-        <v>0.003137851709325377</v>
+        <v>0.002581852130202442</v>
       </c>
       <c r="AN3">
-        <v>0.003140910009776026</v>
+        <v>0.002581852130202442</v>
       </c>
       <c r="AO3">
-        <v>0.003142337459252992</v>
+        <v>0.002581852130202442</v>
       </c>
       <c r="AP3">
-        <v>0.003154373095058776</v>
+        <v>0.002581852130202442</v>
       </c>
       <c r="AQ3">
-        <v>0.003251212613496104</v>
+        <v>0.002659575996773348</v>
       </c>
       <c r="AR3">
-        <v>0.003524068589093105</v>
+        <v>0.002913918826213888</v>
       </c>
       <c r="AS3">
-        <v>0.003674400446667243</v>
+        <v>0.003045318136616978</v>
       </c>
       <c r="AT3">
-        <v>0.003782148324928546</v>
+        <v>0.00313398770241288</v>
       </c>
       <c r="AU3">
-        <v>0.004010722561240108</v>
+        <v>0.00334389721582796</v>
       </c>
       <c r="AV3">
-        <v>0.004237976107572982</v>
+        <v>0.003552481518532222</v>
       </c>
       <c r="AW3">
-        <v>0.004340935435911557</v>
+        <v>0.003636346143161546</v>
       </c>
       <c r="AX3">
-        <v>0.004440957184297534</v>
+        <v>0.003717263132479112</v>
       </c>
       <c r="AY3">
-        <v>0.004522920992974908</v>
+        <v>0.003780060369619171</v>
       </c>
       <c r="AZ3">
-        <v>0.004585586355963694</v>
+        <v>0.003823493102340066</v>
       </c>
       <c r="BA3">
-        <v>0.004660073034761724</v>
+        <v>0.003878787615326706</v>
       </c>
       <c r="BB3">
-        <v>0.004664663170687654</v>
+        <v>0.003878787615326706</v>
       </c>
       <c r="BC3">
-        <v>0.004677848967474878</v>
+        <v>0.003878787615326706</v>
       </c>
       <c r="BD3">
-        <v>0.004701287795096653</v>
+        <v>0.003882859539943129</v>
       </c>
       <c r="BE3">
-        <v>0.004745500824383199</v>
+        <v>0.003907776776479155</v>
       </c>
       <c r="BF3">
-        <v>0.004808422673367847</v>
+        <v>0.003951466873149482</v>
       </c>
       <c r="BG3">
-        <v>0.004861791377506652</v>
+        <v>0.003985571124484417</v>
       </c>
       <c r="BH3">
-        <v>0.004870129868372096</v>
+        <v>0.003985571124484417</v>
       </c>
       <c r="BI3">
-        <v>0.004890302953046568</v>
+        <v>0.00398636612748988</v>
       </c>
       <c r="BJ3">
-        <v>0.005096154719724797</v>
+        <v>0.004173475392080296</v>
       </c>
       <c r="BK3">
-        <v>0.005332334335913633</v>
+        <v>0.004391016318647473</v>
       </c>
       <c r="BL3">
-        <v>0.005513064032997249</v>
+        <v>0.004552917520602507</v>
       </c>
       <c r="BM3">
-        <v>0.005856499067455335</v>
+        <v>0.004878081001574807</v>
       </c>
       <c r="BN3">
-        <v>0.00611467896328916</v>
+        <v>0.00511769751491632</v>
       </c>
       <c r="BO3">
-        <v>0.00625416953103824</v>
+        <v>0.005238218425674462</v>
       </c>
       <c r="BP3">
-        <v>0.006300939100283533</v>
+        <v>0.005265700953225515</v>
       </c>
       <c r="BQ3">
-        <v>0.006367616273207582</v>
+        <v>0.005313159228338468</v>
       </c>
       <c r="BR3">
-        <v>0.006367647165513084</v>
+        <v>0.005313159228338468</v>
       </c>
       <c r="BS3">
-        <v>0.006374087209209163</v>
+        <v>0.005313159228338468</v>
       </c>
       <c r="BT3">
-        <v>0.006435172208223451</v>
+        <v>0.005355006187486616</v>
       </c>
       <c r="BU3">
-        <v>0.006435275610471782</v>
+        <v>0.005355006187486616</v>
       </c>
       <c r="BV3">
-        <v>0.006522332109066976</v>
+        <v>0.005422913546861929</v>
       </c>
       <c r="BW3">
-        <v>0.006526922244992906</v>
+        <v>0.005422913546861929</v>
       </c>
       <c r="BX3">
-        <v>0.006590282017970487</v>
+        <v>0.005467043066542443</v>
       </c>
       <c r="BY3">
-        <v>0.006714019785973766</v>
+        <v>0.005571757255598008</v>
       </c>
       <c r="BZ3">
-        <v>0.006752046050360147</v>
+        <v>0.005590466549889212</v>
       </c>
       <c r="CA3">
-        <v>0.006786219236808704</v>
+        <v>0.005605309577126665</v>
       </c>
       <c r="CB3">
-        <v>0.006896402215030713</v>
+        <v>0.00569642257824949</v>
       </c>
       <c r="CC3">
-        <v>0.00702472283296004</v>
+        <v>0.005805735304362254</v>
       </c>
       <c r="CD3">
-        <v>0.007208558749993532</v>
+        <v>0.005970753358882355</v>
       </c>
       <c r="CE3">
-        <v>0.007337540847912184</v>
+        <v>0.006080729829235625</v>
       </c>
       <c r="CF3">
-        <v>0.007482206625577754</v>
+        <v>0.00620644366469429</v>
       </c>
       <c r="CG3">
-        <v>0.007684264632317201</v>
+        <v>0.006389746183275973</v>
       </c>
       <c r="CH3">
-        <v>0.007795367780524361</v>
+        <v>0.006481782504133008</v>
       </c>
       <c r="CI3">
-        <v>0.007827857594000082</v>
+        <v>0.006494936396198769</v>
       </c>
       <c r="CJ3">
-        <v>0.007852423521603669</v>
+        <v>0.006500139278869061</v>
       </c>
       <c r="CK3">
-        <v>0.007909671282679878</v>
+        <v>0.006538135865183646</v>
       </c>
       <c r="CL3">
-        <v>0.007910267172230262</v>
+        <v>0.006538135865183646</v>
       </c>
       <c r="CM3">
-        <v>0.007944629831675761</v>
+        <v>0.006553169013985592</v>
       </c>
       <c r="CN3">
-        <v>0.009372758708630451</v>
+        <v>0.007966739252963708</v>
       </c>
       <c r="CO3">
-        <v>0.1667837561685338</v>
+        <v>0.1658971086544172</v>
       </c>
       <c r="CP3">
-        <v>0.250721578814053</v>
+        <v>0.2501028039892629</v>
       </c>
       <c r="CQ3">
-        <v>0.4796022751206701</v>
+        <v>0.4797475135757418</v>
       </c>
       <c r="CR3">
-        <v>0.4811155065962515</v>
+        <v>0.4812464777202076</v>
       </c>
       <c r="CS3">
-        <v>0.5297196998119394</v>
+        <v>0.529997596335243</v>
       </c>
       <c r="CT3">
-        <v>0.5343956701364846</v>
+        <v>0.534670125408497</v>
       </c>
       <c r="CU3">
-        <v>0.5356416905163779</v>
+        <v>0.5359009637916036</v>
       </c>
       <c r="CV3">
-        <v>0.5356651138189999</v>
+        <v>0.5359050201380781</v>
       </c>
       <c r="CW3">
-        <v>0.5398013072522554</v>
+        <v>0.5400359246595203</v>
       </c>
       <c r="CX3">
-        <v>0.5399614474196712</v>
+        <v>0.5401771658536865</v>
       </c>
       <c r="CY3">
-        <v>0.5766589798274936</v>
+        <v>0.5769808670677565</v>
       </c>
       <c r="CZ3">
-        <v>0.5916617745853977</v>
+        <v>0.5920155693751991</v>
       </c>
       <c r="DA3">
-        <v>0.5925787672706004</v>
+        <v>0.5929162537992418</v>
       </c>
       <c r="DB3">
-        <v>0.6014772721270077</v>
+        <v>0.6018257711730964</v>
       </c>
       <c r="DC3">
-        <v>0.6026551723080003</v>
+        <v>0.6029882561813285</v>
       </c>
       <c r="DD3">
-        <v>0.6544346614724493</v>
+        <v>0.6549255398080003</v>
       </c>
       <c r="DE3">
-        <v>0.6934991808420763</v>
+        <v>0.6941043301987638</v>
       </c>
       <c r="DF3">
-        <v>0.6965493447928567</v>
+        <v>0.6971454877503157</v>
       </c>
       <c r="DG3">
-        <v>0.7094293285850161</v>
+        <v>0.7100501126934694</v>
       </c>
       <c r="DH3">
-        <v>0.7106784388648595</v>
+        <v>0.7112840515532778</v>
       </c>
       <c r="DI3">
-        <v>0.7169233067640878</v>
+        <v>0.7175308485498877</v>
       </c>
       <c r="DJ3">
-        <v>0.7173363610074225</v>
+        <v>0.7179258695468332</v>
       </c>
       <c r="DK3">
-        <v>0.7276663328407307</v>
+        <v>0.72827175382025</v>
       </c>
       <c r="DL3">
-        <v>0.7301540903005864</v>
+        <v>0.7307485797590587</v>
       </c>
       <c r="DM3">
-        <v>0.75184787295052</v>
+        <v>0.7524971732624336</v>
       </c>
       <c r="DN3">
-        <v>0.7590138952348839</v>
+        <v>0.7596682777628462</v>
       </c>
       <c r="DO3">
-        <v>0.7610977467012574</v>
+        <v>0.7617398151347968</v>
       </c>
       <c r="DP3">
-        <v>0.7612920059381227</v>
+        <v>0.761915292188254</v>
       </c>
       <c r="DQ3">
-        <v>0.761294529014882</v>
+        <v>0.761915292188254</v>
       </c>
       <c r="DR3">
-        <v>0.767816365909641</v>
+        <v>0.7684400062474331</v>
       </c>
       <c r="DS3">
-        <v>0.7844281016415821</v>
+        <v>0.7850891569464546</v>
       </c>
       <c r="DT3">
-        <v>0.787447743592855</v>
+        <v>0.7880996880214559</v>
       </c>
       <c r="DU3">
-        <v>0.7903800713455368</v>
+        <v>0.7910226060206813</v>
       </c>
       <c r="DV3">
-        <v>0.7906841726106296</v>
+        <v>0.7913083010924881</v>
       </c>
       <c r="DW3">
-        <v>0.7928622447754827</v>
+        <v>0.7934743816811064</v>
       </c>
       <c r="DX3">
-        <v>0.7996721372655934</v>
+        <v>0.8002881373521938</v>
       </c>
       <c r="DY3">
-        <v>0.7998133551333146</v>
+        <v>0.8004103914754854</v>
       </c>
       <c r="DZ3">
-        <v>0.8058797770354225</v>
+        <v>0.8064781316529306</v>
       </c>
       <c r="EA3">
-        <v>0.8067574641212595</v>
+        <v>0.8073393759342335</v>
       </c>
       <c r="EB3">
-        <v>0.8128873940223426</v>
+        <v>0.8134708414990313</v>
       </c>
       <c r="EC3">
-        <v>0.8150128622880445</v>
+        <v>0.8155841381249401</v>
       </c>
       <c r="ED3">
-        <v>0.8255936181173058</v>
+        <v>0.8261816648298903</v>
       </c>
       <c r="EE3">
-        <v>0.8471587437693154</v>
+        <v>0.8478011609414308</v>
       </c>
       <c r="EF3">
-        <v>0.8569047926120462</v>
+        <v>0.857561123451305</v>
       </c>
       <c r="EG3">
-        <v>0.8572180590069911</v>
+        <v>0.857856015025275</v>
       </c>
       <c r="EH3">
-        <v>0.8586286107842295</v>
+        <v>0.8592519479979869</v>
       </c>
       <c r="EI3">
-        <v>0.8594344943712252</v>
+        <v>0.8600411429965101</v>
       </c>
       <c r="EJ3">
-        <v>0.8688976312185213</v>
+        <v>0.8695172251009757</v>
       </c>
       <c r="EK3">
-        <v>0.8702231077971324</v>
+        <v>0.87082779166199</v>
       </c>
       <c r="EL3">
-        <v>0.8702631377664864</v>
+        <v>0.8708485115199466</v>
       </c>
       <c r="EM3">
-        <v>0.8705274446322214</v>
+        <v>0.8710942759758551</v>
       </c>
       <c r="EN3">
-        <v>0.8714964673665846</v>
+        <v>0.8720471685483236</v>
       </c>
       <c r="EO3">
-        <v>0.8718248798412851</v>
+        <v>0.8723572580471988</v>
       </c>
       <c r="EP3">
-        <v>0.881194326690093</v>
+        <v>0.8817393294515784</v>
       </c>
       <c r="EQ3">
-        <v>0.8931006314979644</v>
+        <v>0.8936669424996631</v>
       </c>
       <c r="ER3">
-        <v>0.8976162667250969</v>
+        <v>0.8981785876472114</v>
       </c>
       <c r="ES3">
-        <v>0.8985743282496369</v>
+        <v>0.8991204814895498</v>
       </c>
       <c r="ET3">
-        <v>0.8987264530771821</v>
+        <v>0.8992536799072742</v>
       </c>
       <c r="EU3">
-        <v>0.8987854794932296</v>
+        <v>0.89929346123691</v>
       </c>
       <c r="EV3">
-        <v>0.8993818510236061</v>
+        <v>0.8998724270174052</v>
       </c>
       <c r="EW3">
-        <v>0.9000690280125173</v>
+        <v>0.9005425090842301</v>
       </c>
       <c r="EX3">
-        <v>0.9019415528823009</v>
+        <v>0.9024019964869974</v>
       </c>
       <c r="EY3">
-        <v>0.907053743099807</v>
+        <v>0.9075122386373187</v>
       </c>
       <c r="EZ3">
-        <v>0.914511208379468</v>
+        <v>0.9149757837446815</v>
       </c>
       <c r="FA3">
-        <v>0.9145127422597432</v>
+        <v>0.9149757837446815</v>
       </c>
       <c r="FB3">
-        <v>0.9186997258921791</v>
+        <v>0.9191576523205532</v>
       </c>
       <c r="FC3">
-        <v>0.9209299705561903</v>
+        <v>0.9213760839952024</v>
       </c>
       <c r="FD3">
-        <v>0.9227662182265592</v>
+        <v>0.9231991700214177</v>
       </c>
       <c r="FE3">
-        <v>0.9302466425058498</v>
+        <v>0.9306857527172454</v>
       </c>
       <c r="FF3">
-        <v>0.934859022431421</v>
+        <v>0.9352944737210923</v>
       </c>
       <c r="FG3">
-        <v>0.9367531992008552</v>
+        <v>0.9371756871381322</v>
       </c>
       <c r="FH3">
-        <v>0.9410618121313283</v>
+        <v>0.94147960135008</v>
       </c>
       <c r="FI3">
-        <v>0.943881550685827</v>
+        <v>0.9442895447574159</v>
       </c>
       <c r="FJ3">
-        <v>0.9452900333630987</v>
+        <v>0.9456834015476158</v>
       </c>
       <c r="FK3">
-        <v>0.95235520644909</v>
+        <v>0.9527533116420607</v>
       </c>
       <c r="FL3">
-        <v>0.9532477369346875</v>
+        <v>0.9536294501321976</v>
       </c>
       <c r="FM3">
-        <v>0.9602857042211178</v>
+        <v>0.9606720613014168</v>
       </c>
       <c r="FN3">
-        <v>0.9662163718254163</v>
+        <v>0.966603582493029</v>
       </c>
       <c r="FO3">
-        <v>0.9669391612137529</v>
+        <v>0.967309398860801</v>
       </c>
       <c r="FP3">
-        <v>0.9697032631691493</v>
+        <v>0.9700635152245207</v>
       </c>
       <c r="FQ3">
-        <v>0.973488816708063</v>
+        <v>0.9738425796085195</v>
       </c>
       <c r="FR3">
-        <v>0.9734889501538008</v>
+        <v>0.9738425796085195</v>
       </c>
       <c r="FS3">
-        <v>0.9735038845545598</v>
+        <v>0.9738425796085195</v>
       </c>
       <c r="FT3">
-        <v>0.973840806529123</v>
+        <v>0.9741612077353419</v>
       </c>
       <c r="FU3">
-        <v>0.9741956230833974</v>
+        <v>0.9744977916951619</v>
       </c>
       <c r="FV3">
-        <v>0.9755919736608648</v>
+        <v>0.9758794748572851</v>
       </c>
       <c r="FW3">
-        <v>0.977197184034962</v>
+        <v>0.9774707327447558</v>
       </c>
       <c r="FX3">
-        <v>0.9773798357720146</v>
+        <v>0.9776345625658377</v>
       </c>
       <c r="FY3">
-        <v>0.9787795770494274</v>
+        <v>0.9790196480342985</v>
       </c>
       <c r="FZ3">
-        <v>0.9801880597266991</v>
+        <v>0.9804135048244984</v>
       </c>
       <c r="GA3">
-        <v>0.9808555889159274</v>
+        <v>0.9810638718370683</v>
       </c>
       <c r="GB3">
-        <v>0.9815482117047507</v>
+        <v>0.981739418344821</v>
       </c>
       <c r="GC3">
-        <v>0.9829046543828621</v>
+        <v>0.9830810570025365</v>
       </c>
       <c r="GD3">
-        <v>0.9834694878337475</v>
+        <v>0.9836283767484477</v>
       </c>
       <c r="GE3">
-        <v>0.9834697327781436</v>
+        <v>0.9836283767484477</v>
       </c>
       <c r="GF3">
-        <v>0.9835044192645839</v>
+        <v>0.9836437348327067</v>
       </c>
       <c r="GG3">
-        <v>0.9835632464576346</v>
+        <v>0.9836833162574038</v>
       </c>
       <c r="GH3">
-        <v>0.9844926431426372</v>
+        <v>0.9845964471402349</v>
       </c>
       <c r="GI3">
-        <v>0.9890180810696114</v>
+        <v>0.9891179285423433</v>
       </c>
       <c r="GJ3">
-        <v>0.9894436745227437</v>
+        <v>0.9895255316708997</v>
       </c>
       <c r="GK3">
-        <v>0.9894442704122941</v>
+        <v>0.9895255316708997</v>
       </c>
       <c r="GL3">
-        <v>0.9896899546383295</v>
+        <v>0.9897526097416675</v>
       </c>
       <c r="GM3">
-        <v>0.9897585502922226</v>
+        <v>0.9898019930647248</v>
       </c>
       <c r="GN3">
-        <v>0.9950050470075613</v>
+        <v>0.9950470014450716</v>
       </c>
       <c r="GO3">
-        <v>0.9979959151592985</v>
+        <v>0.9980286602275963</v>
       </c>
       <c r="GP3">
-        <v>0.9996141313331859</v>
+        <v>0.9996329684338117</v>
       </c>
       <c r="GQ3">
-        <v>0.9999992916269707</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GR3">
-        <v>0.9999998219004022</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0003637794325823104</v>
+        <v>0.0003523152419502666</v>
       </c>
       <c r="C4">
-        <v>0.0006261464744447387</v>
+        <v>0.000602988910304344</v>
       </c>
       <c r="D4">
-        <v>0.001359381749649654</v>
+        <v>0.001325594931831957</v>
       </c>
       <c r="E4">
-        <v>0.001636158281614369</v>
+        <v>0.001590710654439154</v>
       </c>
       <c r="F4">
-        <v>0.001648416877701387</v>
+        <v>0.001590710654439154</v>
       </c>
       <c r="G4">
-        <v>0.001662657088802472</v>
+        <v>0.001592696747724815</v>
       </c>
       <c r="H4">
-        <v>0.001733289249303858</v>
+        <v>0.001651202231141366</v>
       </c>
       <c r="I4">
-        <v>0.001733289279812729</v>
+        <v>0.001651202231141366</v>
       </c>
       <c r="J4">
-        <v>0.00173667742983678</v>
+        <v>0.001651202231141366</v>
       </c>
       <c r="K4">
-        <v>0.00185527343067864</v>
+        <v>0.001757779948861003</v>
       </c>
       <c r="L4">
-        <v>0.002139792162698314</v>
+        <v>0.002030655368198515</v>
       </c>
       <c r="M4">
-        <v>0.002552612795628746</v>
+        <v>0.002432122639196174</v>
       </c>
       <c r="N4">
-        <v>0.00290793887815105</v>
+        <v>0.002775965427276067</v>
       </c>
       <c r="O4">
-        <v>0.003330657201151741</v>
+        <v>0.00318735275623279</v>
       </c>
       <c r="P4">
-        <v>0.003801333864492868</v>
+        <v>0.003646806807063053</v>
       </c>
       <c r="Q4">
-        <v>0.004214154497423301</v>
+        <v>0.004048274078060712</v>
       </c>
       <c r="R4">
-        <v>0.004527980199651012</v>
+        <v>0.004350522698721418</v>
       </c>
       <c r="S4">
-        <v>0.00497916437285377</v>
+        <v>0.004790440208139849</v>
       </c>
       <c r="T4">
-        <v>0.005364182325586843</v>
+        <v>0.005164041967385035</v>
       </c>
       <c r="U4">
-        <v>0.005578161007105784</v>
+        <v>0.005366217922056013</v>
       </c>
       <c r="V4">
-        <v>0.005716288268086288</v>
+        <v>0.005492371038804469</v>
       </c>
       <c r="W4">
-        <v>0.005783223353561431</v>
+        <v>0.00554717109213794</v>
       </c>
       <c r="X4">
-        <v>0.005804059094709334</v>
+        <v>0.005555767620774753</v>
       </c>
       <c r="Y4">
-        <v>0.005807789749235816</v>
+        <v>0.005555767620774753</v>
       </c>
       <c r="Z4">
-        <v>0.005809972763451313</v>
+        <v>0.005555767620774753</v>
       </c>
       <c r="AA4">
-        <v>0.005870796803883076</v>
+        <v>0.005604442818653016</v>
       </c>
       <c r="AB4">
-        <v>0.005959499294512735</v>
+        <v>0.005681059469517672</v>
       </c>
       <c r="AC4">
-        <v>0.006054288815185604</v>
+        <v>0.005763776906565625</v>
       </c>
       <c r="AD4">
-        <v>0.006223017706383336</v>
+        <v>0.005920600810461573</v>
       </c>
       <c r="AE4">
-        <v>0.006407838607695298</v>
+        <v>0.00609355309096639</v>
       </c>
       <c r="AF4">
-        <v>0.006635638609312351</v>
+        <v>0.006309581600675036</v>
       </c>
       <c r="AG4">
-        <v>0.006871270440984997</v>
+        <v>0.006533459639670367</v>
       </c>
       <c r="AH4">
-        <v>0.007045148862219284</v>
+        <v>0.006695444711077314</v>
       </c>
       <c r="AI4">
-        <v>0.00737731984457722</v>
+        <v>0.007016080070550336</v>
       </c>
       <c r="AJ4">
-        <v>0.007541751905744451</v>
+        <v>0.007168597433966611</v>
       </c>
       <c r="AK4">
-        <v>0.007559242780868611</v>
+        <v>0.007173841537483492</v>
       </c>
       <c r="AL4">
-        <v>0.007861241683012369</v>
+        <v>0.007464236630556421</v>
       </c>
       <c r="AM4">
-        <v>0.008041970894295286</v>
+        <v>0.007633087974180964</v>
       </c>
       <c r="AN4">
-        <v>0.008066254190467663</v>
+        <v>0.00764513984900634</v>
       </c>
       <c r="AO4">
-        <v>0.00830340770215111</v>
+        <v>0.007870543006872352</v>
       </c>
       <c r="AP4">
-        <v>0.008366921042601963</v>
+        <v>0.007921913582345723</v>
       </c>
       <c r="AQ4">
-        <v>0.008367525241646252</v>
+        <v>0.007921913582345723</v>
       </c>
       <c r="AR4">
-        <v>0.008418249292006319</v>
+        <v>0.007960465965083688</v>
       </c>
       <c r="AS4">
-        <v>0.008586298753199228</v>
+        <v>0.008116608903524149</v>
       </c>
       <c r="AT4">
-        <v>0.008727286334200036</v>
+        <v>0.008245628804358737</v>
       </c>
       <c r="AU4">
-        <v>0.009025233236315031</v>
+        <v>0.008531962740247503</v>
       </c>
       <c r="AV4">
-        <v>0.009341745458561812</v>
+        <v>0.008836903952220747</v>
       </c>
       <c r="AW4">
-        <v>0.009385205586870317</v>
+        <v>0.008868175997097038</v>
       </c>
       <c r="AX4">
-        <v>0.009466725357448989</v>
+        <v>0.008937593695609808</v>
       </c>
       <c r="AY4">
-        <v>0.009562777288130819</v>
+        <v>0.009021576395599732</v>
       </c>
       <c r="AZ4">
-        <v>0.009649571768746935</v>
+        <v>0.009096280724519927</v>
       </c>
       <c r="BA4">
-        <v>0.009745623699428765</v>
+        <v>0.00918026342450985</v>
       </c>
       <c r="BB4">
-        <v>0.009863561414265953</v>
+        <v>0.009286181368557687</v>
       </c>
       <c r="BC4">
-        <v>0.009914934194630626</v>
+        <v>0.009325383947371684</v>
       </c>
       <c r="BD4">
-        <v>0.009918142620953401</v>
+        <v>0.009325383947371684</v>
       </c>
       <c r="BE4">
-        <v>0.009937053564087642</v>
+        <v>0.009332051328124548</v>
       </c>
       <c r="BF4">
-        <v>0.009952222125195318</v>
+        <v>0.009334967869404265</v>
       </c>
       <c r="BG4">
-        <v>0.009963545562275697</v>
+        <v>0.009334967869404265</v>
       </c>
       <c r="BH4">
-        <v>0.0100634106129846</v>
+        <v>0.009422772306729351</v>
       </c>
       <c r="BI4">
-        <v>0.01014027938853025</v>
+        <v>0.009487528499378903</v>
       </c>
       <c r="BJ4">
-        <v>0.01016066581867497</v>
+        <v>0.009495674701610095</v>
       </c>
       <c r="BK4">
-        <v>0.01017198925575535</v>
+        <v>0.009495674701610095</v>
       </c>
       <c r="BL4">
-        <v>0.0101905074098868</v>
+        <v>0.009501948405692373</v>
       </c>
       <c r="BM4">
-        <v>0.010194339881914</v>
+        <v>0.009501948405692373</v>
       </c>
       <c r="BN4">
-        <v>0.01022852531215667</v>
+        <v>0.009523924792519884</v>
       </c>
       <c r="BO4">
-        <v>0.01023078637327272</v>
+        <v>0.009523924792519884</v>
       </c>
       <c r="BP4">
-        <v>0.01027785607160685</v>
+        <v>0.009558814564725208</v>
       </c>
       <c r="BQ4">
-        <v>0.01032066619891074</v>
+        <v>0.009589435139653112</v>
       </c>
       <c r="BR4">
-        <v>0.01032371404893237</v>
+        <v>0.009589435139653112</v>
       </c>
       <c r="BS4">
-        <v>0.01033118626328542</v>
+        <v>0.009589435139653112</v>
       </c>
       <c r="BT4">
-        <v>0.0103673459505421</v>
+        <v>0.009613390245137814</v>
       </c>
       <c r="BU4">
-        <v>0.01040242190079109</v>
+        <v>0.009636259164466717</v>
       </c>
       <c r="BV4">
-        <v>0.01040924690963953</v>
+        <v>0.009636259164466717</v>
       </c>
       <c r="BW4">
-        <v>0.01047037110007343</v>
+        <v>0.009685235190659103</v>
       </c>
       <c r="BX4">
-        <v>0.01049232671322928</v>
+        <v>0.009694954122113819</v>
       </c>
       <c r="BY4">
-        <v>0.01051428232638513</v>
+        <v>0.009704673053568535</v>
       </c>
       <c r="BZ4">
-        <v>0.01051465545221778</v>
+        <v>0.009704673053568535</v>
       </c>
       <c r="CA4">
-        <v>0.01061460219792726</v>
+        <v>0.00979255937051755</v>
       </c>
       <c r="CB4">
-        <v>0.0109225578001133</v>
+        <v>0.01008892462523878</v>
       </c>
       <c r="CC4">
-        <v>0.01109060726130621</v>
+        <v>0.01024506756367924</v>
       </c>
       <c r="CD4">
-        <v>0.01109224764521785</v>
+        <v>0.01024506756367924</v>
       </c>
       <c r="CE4">
-        <v>0.01111698043539342</v>
+        <v>0.0102575699483238</v>
       </c>
       <c r="CF4">
-        <v>0.01117857879583068</v>
+        <v>0.01030702121610109</v>
       </c>
       <c r="CG4">
-        <v>0.0113202860268366</v>
+        <v>0.01043676239328503</v>
       </c>
       <c r="CH4">
-        <v>0.01132065915266925</v>
+        <v>0.01043676239328503</v>
       </c>
       <c r="CI4">
-        <v>0.01136835385300781</v>
+        <v>0.01047227857994307</v>
       </c>
       <c r="CJ4">
-        <v>0.01136965457601704</v>
+        <v>0.01047227857994307</v>
       </c>
       <c r="CK4">
-        <v>0.01137106091402703</v>
+        <v>0.01047227857994307</v>
       </c>
       <c r="CL4">
-        <v>0.01137195160550335</v>
+        <v>0.01047227857994307</v>
       </c>
       <c r="CM4">
-        <v>0.011447833796042</v>
+        <v>0.0105360459579923</v>
       </c>
       <c r="CN4">
-        <v>0.08460521431535409</v>
+        <v>0.08384646927398808</v>
       </c>
       <c r="CO4">
-        <v>0.1057955724657751</v>
+        <v>0.1050724294273685</v>
       </c>
       <c r="CP4">
-        <v>0.2916567737851221</v>
+        <v>0.2913413740355028</v>
       </c>
       <c r="CQ4">
-        <v>0.4082887296130411</v>
+        <v>0.4082246212877607</v>
       </c>
       <c r="CR4">
-        <v>0.4329930347884061</v>
+        <v>0.4329724696701199</v>
       </c>
       <c r="CS4">
-        <v>0.4608659719862638</v>
+        <v>0.4608961108981782</v>
       </c>
       <c r="CT4">
-        <v>0.4718564210642802</v>
+        <v>0.4718991111026024</v>
       </c>
       <c r="CU4">
-        <v>0.4720619533957391</v>
+        <v>0.4720928216192224</v>
       </c>
       <c r="CV4">
-        <v>0.4725550383492393</v>
+        <v>0.4725747346009308</v>
       </c>
       <c r="CW4">
-        <v>0.4757902729722048</v>
+        <v>0.4758049942635748</v>
       </c>
       <c r="CX4">
-        <v>0.487025531051959</v>
+        <v>0.4870533567160488</v>
       </c>
       <c r="CY4">
-        <v>0.533321673380595</v>
+        <v>0.5334418378604642</v>
       </c>
       <c r="CZ4">
-        <v>0.540907296434442</v>
+        <v>0.5410323174403254</v>
       </c>
       <c r="DA4">
-        <v>0.5435009374528531</v>
+        <v>0.5436195335546097</v>
       </c>
       <c r="DB4">
-        <v>0.5488375517907353</v>
+        <v>0.5489559218612101</v>
       </c>
       <c r="DC4">
-        <v>0.5555813824386069</v>
+        <v>0.5557027066600164</v>
       </c>
       <c r="DD4">
-        <v>0.6267409929437376</v>
+        <v>0.6270108451813904</v>
       </c>
       <c r="DE4">
-        <v>0.6373539880190746</v>
+        <v>0.6376355383710585</v>
       </c>
       <c r="DF4">
-        <v>0.6521365131240092</v>
+        <v>0.6524391843529497</v>
       </c>
       <c r="DG4">
-        <v>0.6531964346315331</v>
+        <v>0.6534892148882808</v>
       </c>
       <c r="DH4">
-        <v>0.6649582947150253</v>
+        <v>0.6652653694176293</v>
       </c>
       <c r="DI4">
-        <v>0.6672416280312337</v>
+        <v>0.6675415765622302</v>
       </c>
       <c r="DJ4">
-        <v>0.6709578624576136</v>
+        <v>0.6712539230445562</v>
       </c>
       <c r="DK4">
-        <v>0.6786998078125702</v>
+        <v>0.6790010781998592</v>
       </c>
       <c r="DL4">
-        <v>0.6907622628981963</v>
+        <v>0.6910785070489939</v>
       </c>
       <c r="DM4">
-        <v>0.725181443142523</v>
+        <v>0.7255631852436697</v>
       </c>
       <c r="DN4">
-        <v>0.7252167471127736</v>
+        <v>0.7255862826983049</v>
       </c>
       <c r="DO4">
-        <v>0.7268804686245837</v>
+        <v>0.7272414777715923</v>
       </c>
       <c r="DP4">
-        <v>0.7274332373885075</v>
+        <v>0.7277832094437646</v>
       </c>
       <c r="DQ4">
-        <v>0.7275079979790382</v>
+        <v>0.7278458526870908</v>
       </c>
       <c r="DR4">
-        <v>0.7358828640384877</v>
+        <v>0.7362273588907184</v>
       </c>
       <c r="DS4">
-        <v>0.7505295491424581</v>
+        <v>0.7508948578854683</v>
       </c>
       <c r="DT4">
-        <v>0.7505461985225762</v>
+        <v>0.7508992585922762</v>
       </c>
       <c r="DU4">
-        <v>0.7520748476334274</v>
+        <v>0.7524190760131345</v>
       </c>
       <c r="DV4">
-        <v>0.7520757749704939</v>
+        <v>0.7524190760131345</v>
       </c>
       <c r="DW4">
-        <v>0.7575795007095625</v>
+        <v>0.7579229533776485</v>
       </c>
       <c r="DX4">
-        <v>0.7658494467682672</v>
+        <v>0.7661993024707721</v>
       </c>
       <c r="DY4">
-        <v>0.7668218527251699</v>
+        <v>0.7671616196782136</v>
       </c>
       <c r="DZ4">
-        <v>0.7685469543374156</v>
+        <v>0.7688783335654397</v>
       </c>
       <c r="EA4">
-        <v>0.7770274023976146</v>
+        <v>0.7773656603756365</v>
       </c>
       <c r="EB4">
-        <v>0.7818823554320777</v>
+        <v>0.7822192988676198</v>
       </c>
       <c r="EC4">
-        <v>0.7824705415362531</v>
+        <v>0.7827965279200451</v>
       </c>
       <c r="ED4">
-        <v>0.7929251156104655</v>
+        <v>0.7932624420913833</v>
       </c>
       <c r="EE4">
-        <v>0.8082582802193089</v>
+        <v>0.8086179719729067</v>
       </c>
       <c r="EF4">
-        <v>0.80869796675243</v>
+        <v>0.8090463658586117</v>
       </c>
       <c r="EG4">
-        <v>0.8121853625771855</v>
+        <v>0.8125293565846682</v>
       </c>
       <c r="EH4">
-        <v>0.8131822039842617</v>
+        <v>0.8135161644642015</v>
       </c>
       <c r="EI4">
-        <v>0.8181950430198456</v>
+        <v>0.8185280457654589</v>
       </c>
       <c r="EJ4">
-        <v>0.8209123072391342</v>
+        <v>0.821239164457929</v>
       </c>
       <c r="EK4">
-        <v>0.8209165202161641</v>
+        <v>0.821239164457929</v>
       </c>
       <c r="EL4">
-        <v>0.8209514654364122</v>
+        <v>0.821261902351819</v>
       </c>
       <c r="EM4">
-        <v>0.8229859906508544</v>
+        <v>0.8232887391107355</v>
       </c>
       <c r="EN4">
-        <v>0.825155091266252</v>
+        <v>0.8254504553989023</v>
       </c>
       <c r="EO4">
-        <v>0.8281566731875589</v>
+        <v>0.8284465343258097</v>
       </c>
       <c r="EP4">
-        <v>0.837842167256312</v>
+        <v>0.8381416304400905</v>
       </c>
       <c r="EQ4">
-        <v>0.8417888059843275</v>
+        <v>0.8420849019170382</v>
       </c>
       <c r="ER4">
-        <v>0.8418766553809511</v>
+        <v>0.8421606635459812</v>
       </c>
       <c r="ES4">
-        <v>0.841942849681421</v>
+        <v>0.8422147211402019</v>
       </c>
       <c r="ET4">
-        <v>0.8423825362145421</v>
+        <v>0.8426431150259068</v>
       </c>
       <c r="EU4">
-        <v>0.8430558055493214</v>
+        <v>0.8433056195893801</v>
       </c>
       <c r="EV4">
-        <v>0.8435037810525013</v>
+        <v>0.8437423211774703</v>
       </c>
       <c r="EW4">
-        <v>0.8435062406181189</v>
+        <v>0.8437423211774703</v>
       </c>
       <c r="EX4">
-        <v>0.8442971149837329</v>
+        <v>0.844522696548564</v>
       </c>
       <c r="EY4">
-        <v>0.8502918303262867</v>
+        <v>0.8505186731088801</v>
       </c>
       <c r="EZ4">
-        <v>0.8510448666316323</v>
+        <v>0.8512611249090943</v>
       </c>
       <c r="FA4">
-        <v>0.8541657891537863</v>
+        <v>0.8543768141358666</v>
       </c>
       <c r="FB4">
-        <v>0.8597625689935153</v>
+        <v>0.8599739558949342</v>
       </c>
       <c r="FC4">
-        <v>0.8616813840071361</v>
+        <v>0.861884820958389</v>
       </c>
       <c r="FD4">
-        <v>0.866293290639874</v>
+        <v>0.8664948637856523</v>
       </c>
       <c r="FE4">
-        <v>0.8695044692626688</v>
+        <v>0.86970101308373</v>
       </c>
       <c r="FF4">
-        <v>0.8696590670637662</v>
+        <v>0.8698436739625338</v>
       </c>
       <c r="FG4">
-        <v>0.8696912082719943</v>
+        <v>0.869863601507589</v>
       </c>
       <c r="FH4">
-        <v>0.8711974566826866</v>
+        <v>0.8713609676047219</v>
       </c>
       <c r="FI4">
-        <v>0.8717893185868879</v>
+        <v>0.8719418807641506</v>
       </c>
       <c r="FJ4">
-        <v>0.8719880822982988</v>
+        <v>0.8721288073642504</v>
       </c>
       <c r="FK4">
-        <v>0.8731347141064383</v>
+        <v>0.8732657441576729</v>
       </c>
       <c r="FL4">
-        <v>0.8785067625445721</v>
+        <v>0.8786376466424025</v>
       </c>
       <c r="FM4">
-        <v>0.8947862696601331</v>
+        <v>0.8949416576795416</v>
       </c>
       <c r="FN4">
-        <v>0.8997963886956977</v>
+        <v>0.8999508128338245</v>
       </c>
       <c r="FO4">
-        <v>0.9035422021222875</v>
+        <v>0.9036928051622389</v>
       </c>
       <c r="FP4">
-        <v>0.9158073732093526</v>
+        <v>0.9159734081327322</v>
       </c>
       <c r="FQ4">
-        <v>0.9203287372414477</v>
+        <v>0.9204927037412238</v>
       </c>
       <c r="FR4">
-        <v>0.9203881532718695</v>
+        <v>0.9205399677471162</v>
       </c>
       <c r="FS4">
-        <v>0.9204115104350353</v>
+        <v>0.9205510913959578</v>
       </c>
       <c r="FT4">
-        <v>0.9206964019370576</v>
+        <v>0.9208243404277247</v>
       </c>
       <c r="FU4">
-        <v>0.9210729919397308</v>
+        <v>0.9211894951905013</v>
       </c>
       <c r="FV4">
-        <v>0.9214668072825263</v>
+        <v>0.9215719142211187</v>
       </c>
       <c r="FW4">
-        <v>0.9216509170538332</v>
+        <v>0.9217441537645287</v>
       </c>
       <c r="FX4">
-        <v>0.9245233710742234</v>
+        <v>0.9246108129730845</v>
       </c>
       <c r="FY4">
-        <v>0.9330352581346456</v>
+        <v>0.9331296498328155</v>
       </c>
       <c r="FZ4">
-        <v>0.9371495721638513</v>
+        <v>0.9372409755420441</v>
       </c>
       <c r="GA4">
-        <v>0.9423287697006162</v>
+        <v>0.9424195912997235</v>
       </c>
       <c r="GB4">
-        <v>0.9501649247562416</v>
+        <v>0.9502611690611403</v>
       </c>
       <c r="GC4">
-        <v>0.9573199688070321</v>
+        <v>0.9574200965681486</v>
       </c>
       <c r="GD4">
-        <v>0.9620144568403561</v>
+        <v>0.9621129074225315</v>
       </c>
       <c r="GE4">
-        <v>0.9631837464486565</v>
+        <v>0.9632725532207042</v>
       </c>
       <c r="GF4">
-        <v>0.9638198480531719</v>
+        <v>0.9638978060581882</v>
       </c>
       <c r="GG4">
-        <v>0.9646584650991249</v>
+        <v>0.9647260320037818</v>
       </c>
       <c r="GH4">
-        <v>0.965253814863351</v>
+        <v>0.965310440905485</v>
       </c>
       <c r="GI4">
-        <v>0.9666299511731197</v>
+        <v>0.9666774008600558</v>
       </c>
       <c r="GJ4">
-        <v>0.966812720504417</v>
+        <v>0.9668482969341825</v>
       </c>
       <c r="GK4">
-        <v>0.9671857947370653</v>
+        <v>0.9672099279816104</v>
       </c>
       <c r="GL4">
-        <v>0.967219980167308</v>
+        <v>0.967231904368438</v>
       </c>
       <c r="GM4">
-        <v>0.9703286224893749</v>
+        <v>0.9703352856429761</v>
       </c>
       <c r="GN4">
-        <v>0.9876077446120318</v>
+        <v>0.9876411707271656</v>
       </c>
       <c r="GO4">
-        <v>0.9922726886451462</v>
+        <v>0.9923043708145571</v>
       </c>
       <c r="GP4">
-        <v>0.9925977273874534</v>
+        <v>0.9926178578157588</v>
       </c>
       <c r="GQ4">
-        <v>0.9959331072111298</v>
+        <v>0.9959484889982546</v>
       </c>
       <c r="GR4">
-        <v>0.9991386799338847</v>
+        <v>0.999149019727463</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,601 +8964,601 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0004075953890657769</v>
+        <v>0.0003313010863574261</v>
       </c>
       <c r="C5">
-        <v>0.0005363360456121583</v>
+        <v>0.0003797856702241669</v>
       </c>
       <c r="D5">
-        <v>0.0006172713034409753</v>
+        <v>0.0003797856702241669</v>
       </c>
       <c r="E5">
-        <v>0.00074703955995979</v>
+        <v>0.0004293124534738532</v>
       </c>
       <c r="F5">
-        <v>0.0008065755653626671</v>
+        <v>0.0004293124534738532</v>
       </c>
       <c r="G5">
-        <v>0.0009085063626282543</v>
+        <v>0.0004506062826219727</v>
       </c>
       <c r="H5">
-        <v>0.0009802330407041023</v>
+        <v>0.0004506062826219727</v>
       </c>
       <c r="I5">
-        <v>0.000982204594151213</v>
+        <v>0.0004506062826219727</v>
       </c>
       <c r="J5">
-        <v>0.001005182540534803</v>
+        <v>0.0004506062826219727</v>
       </c>
       <c r="K5">
-        <v>0.001072884758718611</v>
+        <v>0.0004506062826219727</v>
       </c>
       <c r="L5">
-        <v>0.001115668937570876</v>
+        <v>0.0004506062826219727</v>
       </c>
       <c r="M5">
-        <v>0.00111650752414838</v>
+        <v>0.0004506062826219727</v>
       </c>
       <c r="N5">
-        <v>0.001261300940264127</v>
+        <v>0.0005153716922638909</v>
       </c>
       <c r="O5">
-        <v>0.001422867795929907</v>
+        <v>0.0005971488465709253</v>
       </c>
       <c r="P5">
-        <v>0.001446658672291689</v>
+        <v>0.0005971488465709253</v>
       </c>
       <c r="Q5">
-        <v>0.001530486970042897</v>
+        <v>0.0006000829887496296</v>
       </c>
       <c r="R5">
-        <v>0.00184314126165558</v>
+        <v>0.0008350941219772707</v>
       </c>
       <c r="S5">
-        <v>0.002095136154895522</v>
+        <v>0.00100858405118599</v>
       </c>
       <c r="T5">
-        <v>0.002444501745523381</v>
+        <v>0.001280828051489465</v>
       </c>
       <c r="U5">
-        <v>0.002729558967876388</v>
+        <v>0.001487850035899371</v>
       </c>
       <c r="V5">
-        <v>0.003180575485777342</v>
+        <v>0.001863189147648775</v>
       </c>
       <c r="W5">
-        <v>0.003805733609006744</v>
+        <v>0.002415143944963707</v>
       </c>
       <c r="X5">
-        <v>0.004369215893890672</v>
+        <v>0.00290454665742982</v>
       </c>
       <c r="Y5">
-        <v>0.004586173438070533</v>
+        <v>0.003042501451809768</v>
       </c>
       <c r="Z5">
-        <v>0.004700498985003616</v>
+        <v>0.003076366126424765</v>
       </c>
       <c r="AA5">
-        <v>0.004818395521840903</v>
+        <v>0.003113852525032079</v>
       </c>
       <c r="AB5">
-        <v>0.005072787415016543</v>
+        <v>0.003289773509049011</v>
       </c>
       <c r="AC5">
-        <v>0.00515442346782656</v>
+        <v>0.003290484260427536</v>
       </c>
       <c r="AD5">
-        <v>0.005157571944042099</v>
+        <v>0.003290484260427536</v>
       </c>
       <c r="AE5">
-        <v>0.005200751162883765</v>
+        <v>0.003290484260427536</v>
       </c>
       <c r="AF5">
-        <v>0.005556577323338313</v>
+        <v>0.003569280617744904</v>
       </c>
       <c r="AG5">
-        <v>0.00585523206532655</v>
+        <v>0.003790093305690806</v>
       </c>
       <c r="AH5">
-        <v>0.006083161839212067</v>
+        <v>0.003939176215422579</v>
       </c>
       <c r="AI5">
-        <v>0.00648288822848894</v>
+        <v>0.004262496504831389</v>
       </c>
       <c r="AJ5">
-        <v>0.007270672207355713</v>
+        <v>0.004979387630428708</v>
       </c>
       <c r="AK5">
-        <v>0.007739403594781445</v>
+        <v>0.005372693291986363</v>
       </c>
       <c r="AL5">
-        <v>0.008053882436345182</v>
+        <v>0.0056095548970748</v>
       </c>
       <c r="AM5">
-        <v>0.008719929218477699</v>
+        <v>0.006202979270315645</v>
       </c>
       <c r="AN5">
-        <v>0.00929377146308371</v>
+        <v>0.006702889129452973</v>
       </c>
       <c r="AO5">
-        <v>0.009646195903629511</v>
+        <v>0.006978235437641348</v>
       </c>
       <c r="AP5">
-        <v>0.01001695171368355</v>
+        <v>0.007272173554415306</v>
       </c>
       <c r="AQ5">
-        <v>0.01013238165058701</v>
+        <v>0.007307158309388937</v>
       </c>
       <c r="AR5">
-        <v>0.0102015794287307</v>
+        <v>0.007307158309388937</v>
       </c>
       <c r="AS5">
-        <v>0.01030999798582224</v>
+        <v>0.007335032071846416</v>
       </c>
       <c r="AT5">
-        <v>0.01036746016428075</v>
+        <v>0.007335032071846416</v>
       </c>
       <c r="AU5">
-        <v>0.0103837333418442</v>
+        <v>0.007335032071846416</v>
       </c>
       <c r="AV5">
-        <v>0.01039019846837077</v>
+        <v>0.007335032071846416</v>
       </c>
       <c r="AW5">
-        <v>0.01043231133524104</v>
+        <v>0.007335032071846416</v>
       </c>
       <c r="AX5">
-        <v>0.01051394738805106</v>
+        <v>0.00733574282322494</v>
       </c>
       <c r="AY5">
-        <v>0.01053287291154336</v>
+        <v>0.00733574282322494</v>
       </c>
       <c r="AZ5">
-        <v>0.01066352811803838</v>
+        <v>0.007386169157606101</v>
       </c>
       <c r="BA5">
-        <v>0.01120295680356758</v>
+        <v>0.007851176534262932</v>
       </c>
       <c r="BB5">
-        <v>0.01158339339336192</v>
+        <v>0.00815493296841956</v>
       </c>
       <c r="BC5">
-        <v>0.01184164408643405</v>
+        <v>0.00833476757542103</v>
       </c>
       <c r="BD5">
-        <v>0.01216018581788879</v>
+        <v>0.008575749793054206</v>
       </c>
       <c r="BE5">
-        <v>0.01288386214847533</v>
+        <v>0.009227622474439685</v>
       </c>
       <c r="BF5">
-        <v>0.01402430481788162</v>
+        <v>0.01030218261476099</v>
       </c>
       <c r="BG5">
-        <v>0.01442377830716528</v>
+        <v>0.01062524641115311</v>
       </c>
       <c r="BH5">
-        <v>0.01468057854027631</v>
+        <v>0.01080360995108861</v>
       </c>
       <c r="BI5">
-        <v>0.01508670332938154</v>
+        <v>0.0111334195442458</v>
       </c>
       <c r="BJ5">
-        <v>0.01539829309102278</v>
+        <v>0.0113673510234163</v>
       </c>
       <c r="BK5">
-        <v>0.01546222666930768</v>
+        <v>0.0113673510234163</v>
       </c>
       <c r="BL5">
-        <v>0.01550183619524511</v>
+        <v>0.0113673510234163</v>
       </c>
       <c r="BM5">
-        <v>0.01557092874339163</v>
+        <v>0.0113673510234163</v>
       </c>
       <c r="BN5">
-        <v>0.01557818261819703</v>
+        <v>0.0113673510234163</v>
       </c>
       <c r="BO5">
-        <v>0.01560569739745891</v>
+        <v>0.0113673510234163</v>
       </c>
       <c r="BP5">
-        <v>0.01560663299457382</v>
+        <v>0.0113673510234163</v>
       </c>
       <c r="BQ5">
-        <v>0.01562223505715527</v>
+        <v>0.0113673510234163</v>
       </c>
       <c r="BR5">
-        <v>0.01570048256505619</v>
+        <v>0.0113673510234163</v>
       </c>
       <c r="BS5">
-        <v>0.01606545989526525</v>
+        <v>0.01165542856380804</v>
       </c>
       <c r="BT5">
-        <v>0.01634516076776195</v>
+        <v>0.01185701809914745</v>
       </c>
       <c r="BU5">
-        <v>0.01673649865726385</v>
+        <v>0.01217183071093478</v>
       </c>
       <c r="BV5">
-        <v>0.01771846793092138</v>
+        <v>0.01308566597806293</v>
       </c>
       <c r="BW5">
-        <v>0.01895276259780998</v>
+        <v>0.01425541149838443</v>
       </c>
       <c r="BX5">
-        <v>0.01946621533403601</v>
+        <v>0.01469407387790091</v>
       </c>
       <c r="BY5">
-        <v>0.02007077001781812</v>
+        <v>0.01522513251673535</v>
       </c>
       <c r="BZ5">
-        <v>0.0208094523380021</v>
+        <v>0.01589222438215984</v>
       </c>
       <c r="CA5">
-        <v>0.02113253772933496</v>
+        <v>0.01613781481276335</v>
       </c>
       <c r="CB5">
-        <v>0.02126299328583534</v>
+        <v>0.01618803866066455</v>
       </c>
       <c r="CC5">
-        <v>0.02133421056392485</v>
+        <v>0.01618803866066455</v>
       </c>
       <c r="CD5">
-        <v>0.02135319117341567</v>
+        <v>0.01618803866066455</v>
       </c>
       <c r="CE5">
-        <v>0.02137502828282987</v>
+        <v>0.01618803866066455</v>
       </c>
       <c r="CF5">
-        <v>0.02137548352837765</v>
+        <v>0.01618803866066455</v>
       </c>
       <c r="CG5">
-        <v>0.02144659404647003</v>
+        <v>0.01618803866066455</v>
       </c>
       <c r="CH5">
-        <v>0.02169052405992632</v>
+        <v>0.01635334913000608</v>
       </c>
       <c r="CI5">
-        <v>0.02209180608916146</v>
+        <v>0.01667824716080072</v>
       </c>
       <c r="CJ5">
-        <v>0.02256746400640139</v>
+        <v>0.0170785777593883</v>
       </c>
       <c r="CK5">
-        <v>0.02315625539060637</v>
+        <v>0.01759364914488177</v>
       </c>
       <c r="CL5">
-        <v>0.02373558132506527</v>
+        <v>0.0180991206022424</v>
       </c>
       <c r="CM5">
-        <v>0.02373570357083199</v>
+        <v>0.0180991206022424</v>
       </c>
       <c r="CN5">
-        <v>0.1585637799539111</v>
+        <v>0.1547606533987548</v>
       </c>
       <c r="CO5">
-        <v>0.2359840128770228</v>
+        <v>0.2331987328717648</v>
       </c>
       <c r="CP5">
-        <v>0.4384616074453245</v>
+        <v>0.4384709001569492</v>
       </c>
       <c r="CQ5">
-        <v>0.4419110052527904</v>
+        <v>0.4418872194298988</v>
       </c>
       <c r="CR5">
-        <v>0.4792254602517865</v>
+        <v>0.4796497265728693</v>
       </c>
       <c r="CS5">
-        <v>0.4852646580897779</v>
+        <v>0.4856926399156634</v>
       </c>
       <c r="CT5">
-        <v>0.4852917008040525</v>
+        <v>0.4856926399156634</v>
       </c>
       <c r="CU5">
-        <v>0.4856340180648694</v>
+        <v>0.4859577354484924</v>
       </c>
       <c r="CV5">
-        <v>0.4897633755540946</v>
+        <v>0.4900636747873895</v>
       </c>
       <c r="CW5">
-        <v>0.4902565519408646</v>
+        <v>0.490481772745479</v>
       </c>
       <c r="CX5">
-        <v>0.5370847606846432</v>
+        <v>0.5378931982888927</v>
       </c>
       <c r="CY5">
-        <v>0.5589775940973423</v>
+        <v>0.5600149843999259</v>
       </c>
       <c r="CZ5">
-        <v>0.5618152496212189</v>
+        <v>0.5628108701894368</v>
       </c>
       <c r="DA5">
-        <v>0.5779961091871484</v>
+        <v>0.5791395307864561</v>
       </c>
       <c r="DB5">
-        <v>0.5850622884975899</v>
+        <v>0.5862240162250038</v>
       </c>
       <c r="DC5">
-        <v>0.6230348124789326</v>
+        <v>0.6246539417270007</v>
       </c>
       <c r="DD5">
-        <v>0.6599116244896689</v>
+        <v>0.6619725881609888</v>
       </c>
       <c r="DE5">
-        <v>0.6620464902323986</v>
+        <v>0.6640556994313284</v>
       </c>
       <c r="DF5">
-        <v>0.6774064028203509</v>
+        <v>0.6795517496188197</v>
       </c>
       <c r="DG5">
-        <v>0.6775816510956497</v>
+        <v>0.6796474025686521</v>
       </c>
       <c r="DH5">
-        <v>0.6823516959676876</v>
+        <v>0.6844031317216218</v>
       </c>
       <c r="DI5">
-        <v>0.6823792107469495</v>
+        <v>0.6844031317216218</v>
       </c>
       <c r="DJ5">
-        <v>0.6901829475376051</v>
+        <v>0.6922356533331813</v>
       </c>
       <c r="DK5">
-        <v>0.6931079301591391</v>
+        <v>0.6951201069017252</v>
       </c>
       <c r="DL5">
-        <v>0.7138682696022187</v>
+        <v>0.7160933093732202</v>
       </c>
       <c r="DM5">
-        <v>0.7284270782116616</v>
+        <v>0.7307768740658933</v>
       </c>
       <c r="DN5">
-        <v>0.7284334989821893</v>
+        <v>0.7307768740658933</v>
       </c>
       <c r="DO5">
-        <v>0.7284561287635822</v>
+        <v>0.7307768740658933</v>
       </c>
       <c r="DP5">
-        <v>0.7288525971129465</v>
+        <v>0.7310968900274726</v>
       </c>
       <c r="DQ5">
-        <v>0.732050908027148</v>
+        <v>0.7342585551429234</v>
       </c>
       <c r="DR5">
-        <v>0.7399480748152972</v>
+        <v>0.7421858341390182</v>
       </c>
       <c r="DS5">
-        <v>0.7403923472233791</v>
+        <v>0.7425543333254265</v>
       </c>
       <c r="DT5">
-        <v>0.7455442910851722</v>
+        <v>0.7476973872177379</v>
       </c>
       <c r="DU5">
-        <v>0.7469612038471618</v>
+        <v>0.7490523453413435</v>
       </c>
       <c r="DV5">
-        <v>0.7473227358674633</v>
+        <v>0.7493369286233117</v>
       </c>
       <c r="DW5">
-        <v>0.7506362237785752</v>
+        <v>0.7526154070886355</v>
       </c>
       <c r="DX5">
-        <v>0.7507248070461988</v>
+        <v>0.7526231637559212</v>
       </c>
       <c r="DY5">
-        <v>0.7558529909086293</v>
+        <v>0.7577421200836756</v>
       </c>
       <c r="DZ5">
-        <v>0.7561558254505054</v>
+        <v>0.7579671719551373</v>
       </c>
       <c r="EA5">
-        <v>0.7618977278964721</v>
+        <v>0.7637085661441434</v>
       </c>
       <c r="EB5">
-        <v>0.7626851568753484</v>
+        <v>0.7644250972261625</v>
       </c>
       <c r="EC5">
-        <v>0.7677509634394523</v>
+        <v>0.7694807900432418</v>
       </c>
       <c r="ED5">
-        <v>0.7810304900832135</v>
+        <v>0.7828668976407287</v>
       </c>
       <c r="EE5">
-        <v>0.7879144498985432</v>
+        <v>0.7897665747390072</v>
       </c>
       <c r="EF5">
-        <v>0.7895555420545189</v>
+        <v>0.7913488972381958</v>
       </c>
       <c r="EG5">
-        <v>0.7967029965627801</v>
+        <v>0.7985158125748447</v>
       </c>
       <c r="EH5">
-        <v>0.7974907805416469</v>
+        <v>0.7992327037004421</v>
       </c>
       <c r="EI5">
-        <v>0.8002055438688203</v>
+        <v>0.8019039513282082</v>
       </c>
       <c r="EJ5">
-        <v>0.8002067271235885</v>
+        <v>0.8019039513282082</v>
       </c>
       <c r="EK5">
-        <v>0.8019143881777785</v>
+        <v>0.8035537884892334</v>
       </c>
       <c r="EL5">
-        <v>0.8026465343081378</v>
+        <v>0.8042142513032908</v>
       </c>
       <c r="EM5">
-        <v>0.8026727993244333</v>
+        <v>0.8042142513032908</v>
       </c>
       <c r="EN5">
-        <v>0.8035536627608031</v>
+        <v>0.8050255442932097</v>
       </c>
       <c r="EO5">
-        <v>0.8124043635233726</v>
+        <v>0.8139199043971457</v>
       </c>
       <c r="EP5">
-        <v>0.8246975361935939</v>
+        <v>0.8263056446044362</v>
       </c>
       <c r="EQ5">
-        <v>0.8290533736767435</v>
+        <v>0.8306412816041445</v>
       </c>
       <c r="ER5">
-        <v>0.8290719625532448</v>
+        <v>0.8306412816041445</v>
       </c>
       <c r="ES5">
-        <v>0.8298086647334819</v>
+        <v>0.8313063651972002</v>
       </c>
       <c r="ET5">
-        <v>0.830758406868004</v>
+        <v>0.8321875154648908</v>
       </c>
       <c r="EU5">
-        <v>0.8308772868448149</v>
+        <v>0.8322259992754883</v>
       </c>
       <c r="EV5">
-        <v>0.8311497691175053</v>
+        <v>0.8324202676542827</v>
       </c>
       <c r="EW5">
-        <v>0.8311515180525584</v>
+        <v>0.8324202676542827</v>
       </c>
       <c r="EX5">
-        <v>0.8321212523565441</v>
+        <v>0.8333216941259803</v>
       </c>
       <c r="EY5">
-        <v>0.835328088270517</v>
+        <v>0.836492005358344</v>
       </c>
       <c r="EZ5">
-        <v>0.8358358089568968</v>
+        <v>0.8369248542511215</v>
       </c>
       <c r="FA5">
-        <v>0.8442293737317296</v>
+        <v>0.8453555837039071</v>
       </c>
       <c r="FB5">
-        <v>0.8498929655797971</v>
+        <v>0.8510175547136624</v>
       </c>
       <c r="FC5">
-        <v>0.852985806496828</v>
+        <v>0.8540722513891372</v>
       </c>
       <c r="FD5">
-        <v>0.8648275001791607</v>
+        <v>0.8660000983157613</v>
       </c>
       <c r="FE5">
-        <v>0.8734349479482558</v>
+        <v>0.8746477494604722</v>
       </c>
       <c r="FF5">
-        <v>0.8750536357048326</v>
+        <v>0.8762073492544687</v>
       </c>
       <c r="FG5">
-        <v>0.8774620421402243</v>
+        <v>0.8785678874893378</v>
       </c>
       <c r="FH5">
-        <v>0.8801642616677341</v>
+        <v>0.8812264131040446</v>
       </c>
       <c r="FI5">
-        <v>0.8811714857407141</v>
+        <v>0.8821658619727457</v>
       </c>
       <c r="FJ5">
-        <v>0.8840132836644796</v>
+        <v>0.8849659490144207</v>
       </c>
       <c r="FK5">
-        <v>0.8842403046283895</v>
+        <v>0.8851141102024502</v>
       </c>
       <c r="FL5">
-        <v>0.8989354612341748</v>
+        <v>0.8999359600269508</v>
       </c>
       <c r="FM5">
-        <v>0.9129234978589293</v>
+        <v>0.9140406436119919</v>
       </c>
       <c r="FN5">
-        <v>0.9170073300493757</v>
+        <v>0.9181004108610016</v>
       </c>
       <c r="FO5">
-        <v>0.926040362807054</v>
+        <v>0.9271796934035238</v>
       </c>
       <c r="FP5">
-        <v>0.9375513654982579</v>
+        <v>0.9387721511163043</v>
       </c>
       <c r="FQ5">
-        <v>0.9395439117448056</v>
+        <v>0.9407109209161484</v>
       </c>
       <c r="FR5">
-        <v>0.9401469858286274</v>
+        <v>0.94124047791971</v>
       </c>
       <c r="FS5">
-        <v>0.9421314711753913</v>
+        <v>0.9431710722962318</v>
       </c>
       <c r="FT5">
-        <v>0.9437860164310062</v>
+        <v>0.9447670390271434</v>
       </c>
       <c r="FU5">
-        <v>0.9459741082723081</v>
+        <v>0.9469041325946576</v>
       </c>
       <c r="FV5">
-        <v>0.9471251770414293</v>
+        <v>0.9479894698027709</v>
       </c>
       <c r="FW5">
-        <v>0.947131001596773</v>
+        <v>0.9479894698027709</v>
       </c>
       <c r="FX5">
-        <v>0.9497709385259536</v>
+        <v>0.9505848279522303</v>
       </c>
       <c r="FY5">
-        <v>0.9538443424166798</v>
+        <v>0.9546340187436445</v>
       </c>
       <c r="FZ5">
-        <v>0.9570334253311289</v>
+        <v>0.957786324754477</v>
       </c>
       <c r="GA5">
-        <v>0.961039806823653</v>
+        <v>0.961767540941061</v>
       </c>
       <c r="GB5">
-        <v>0.9664967231772648</v>
+        <v>0.9672199001577354</v>
       </c>
       <c r="GC5">
-        <v>0.9723132455212298</v>
+        <v>0.9730369743912485</v>
       </c>
       <c r="GD5">
-        <v>0.9759545746235468</v>
+        <v>0.9766479517825593</v>
       </c>
       <c r="GE5">
-        <v>0.9779681288695309</v>
+        <v>0.9786080280485739</v>
       </c>
       <c r="GF5">
-        <v>0.9798960893178111</v>
+        <v>0.9804812944610036</v>
       </c>
       <c r="GG5">
-        <v>0.9799777253706211</v>
+        <v>0.9804820052123822</v>
       </c>
       <c r="GH5">
-        <v>0.9807979706486171</v>
+        <v>0.9812318188241896</v>
       </c>
       <c r="GI5">
-        <v>0.9808091333043176</v>
+        <v>0.9812318188241896</v>
       </c>
       <c r="GJ5">
-        <v>0.9810225551985924</v>
+        <v>0.981366187736662</v>
       </c>
       <c r="GK5">
-        <v>0.9815690039839332</v>
+        <v>0.9818383149497223</v>
       </c>
       <c r="GL5">
-        <v>0.9818171872772754</v>
+        <v>0.9820079391265293</v>
       </c>
       <c r="GM5">
-        <v>0.9872106815325886</v>
+        <v>0.9873959751887806</v>
       </c>
       <c r="GN5">
-        <v>0.9944680813379004</v>
+        <v>0.9946743978471673</v>
       </c>
       <c r="GO5">
-        <v>0.9945003699920343</v>
+        <v>0.9946743978471673</v>
       </c>
       <c r="GP5">
-        <v>0.9948905167815681</v>
+        <v>0.9949880024366843</v>
       </c>
       <c r="GQ5">
-        <v>0.9972203535190676</v>
+        <v>0.9972688547112009</v>
       </c>
       <c r="GR5">
-        <v>0.9999941754446565</v>
+        <v>1</v>
       </c>
       <c r="GS5">
         <v>1</v>
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>6.303150244183527E-06</v>
+        <v>3.864381172421122E-06</v>
       </c>
       <c r="C6">
-        <v>0.0002815500478067815</v>
+        <v>0.0002767993382070144</v>
       </c>
       <c r="D6">
-        <v>0.0007925080132820803</v>
+        <v>0.0007855565198247611</v>
       </c>
       <c r="E6">
-        <v>0.0009499989218874464</v>
+        <v>0.000940679956510346</v>
       </c>
       <c r="F6">
-        <v>0.0009501546599060673</v>
+        <v>0.000940679956510346</v>
       </c>
       <c r="G6">
-        <v>0.0009638729737845871</v>
+        <v>0.0009519629981613872</v>
       </c>
       <c r="H6">
-        <v>0.0009663135643629749</v>
+        <v>0.0009519629981613872</v>
       </c>
       <c r="I6">
-        <v>0.0009680490830476062</v>
+        <v>0.0009519629981613872</v>
       </c>
       <c r="J6">
-        <v>0.0009687283798015909</v>
+        <v>0.0009519629981613872</v>
       </c>
       <c r="K6">
-        <v>0.0009763209167343564</v>
+        <v>0.0009571173740716114</v>
       </c>
       <c r="L6">
-        <v>0.001135569695324156</v>
+        <v>0.001113999509718293</v>
       </c>
       <c r="M6">
-        <v>0.001293616133924603</v>
+        <v>0.001269678738375899</v>
       </c>
       <c r="N6">
-        <v>0.001546322801686802</v>
+        <v>0.001520062836084217</v>
       </c>
       <c r="O6">
-        <v>0.001877695138752391</v>
+        <v>0.001849149700267288</v>
       </c>
       <c r="P6">
-        <v>0.002038957937324355</v>
+        <v>0.002008046805668063</v>
       </c>
       <c r="Q6">
-        <v>0.002088899658882105</v>
+        <v>0.00205557033723985</v>
       </c>
       <c r="R6">
-        <v>0.002211580857795723</v>
+        <v>0.002175867648664137</v>
       </c>
       <c r="S6">
-        <v>0.00233603053669368</v>
+        <v>0.002297934274052893</v>
       </c>
       <c r="T6">
-        <v>0.00240347460609644</v>
+        <v>0.002362968407230233</v>
       </c>
       <c r="U6">
-        <v>0.00243853826778594</v>
+        <v>0.002395606862735454</v>
       </c>
       <c r="V6">
-        <v>0.002549194356806044</v>
+        <v>0.002503873393462606</v>
       </c>
       <c r="W6">
-        <v>0.002654559789872999</v>
+        <v>0.002606846773268063</v>
       </c>
       <c r="X6">
-        <v>0.002664203709787598</v>
+        <v>0.0026140534995517</v>
       </c>
       <c r="Y6">
-        <v>0.002704662472429323</v>
+        <v>0.002652089600231884</v>
       </c>
       <c r="Z6">
-        <v>0.002775978337797797</v>
+        <v>0.002720997355237219</v>
       </c>
       <c r="AA6">
-        <v>0.002976382086023156</v>
+        <v>0.002919053868387905</v>
       </c>
       <c r="AB6">
-        <v>0.003163935824362306</v>
+        <v>0.003104254311842265</v>
       </c>
       <c r="AC6">
-        <v>0.003272132183404192</v>
+        <v>0.003210059952631265</v>
       </c>
       <c r="AD6">
-        <v>0.003563443780824531</v>
+        <v>0.003499067185317829</v>
       </c>
       <c r="AE6">
-        <v>0.003798078798746761</v>
+        <v>0.003731371110954092</v>
       </c>
       <c r="AF6">
-        <v>0.004003468066927971</v>
+        <v>0.003934415495133083</v>
       </c>
       <c r="AG6">
-        <v>0.004295866864338684</v>
+        <v>0.004224510440511999</v>
       </c>
       <c r="AH6">
-        <v>0.004626434601411398</v>
+        <v>0.004552792325268776</v>
       </c>
       <c r="AI6">
-        <v>0.004718715025594224</v>
+        <v>0.004642674525559116</v>
       </c>
       <c r="AJ6">
-        <v>0.004737690773426187</v>
+        <v>0.004659217480465309</v>
       </c>
       <c r="AK6">
-        <v>0.004895981322024472</v>
+        <v>0.004815140934238194</v>
       </c>
       <c r="AL6">
-        <v>0.005123842380006688</v>
+        <v>0.005040667705469119</v>
       </c>
       <c r="AM6">
-        <v>0.005178997669518269</v>
+        <v>0.005093407263610111</v>
       </c>
       <c r="AN6">
-        <v>0.005223181509127007</v>
+        <v>0.005135170197929815</v>
       </c>
       <c r="AO6">
-        <v>0.005225804847903776</v>
+        <v>0.005135353032308628</v>
       </c>
       <c r="AP6">
-        <v>0.005236630104807915</v>
+        <v>0.005143741652676927</v>
       </c>
       <c r="AQ6">
-        <v>0.005306608758188231</v>
+        <v>0.005211311565091418</v>
       </c>
       <c r="AR6">
-        <v>0.005322657643046113</v>
+        <v>0.005224926276772929</v>
       </c>
       <c r="AS6">
-        <v>0.005330785349974139</v>
+        <v>0.005230616075053983</v>
       </c>
       <c r="AT6">
-        <v>0.005342075077874165</v>
+        <v>0.00523946938545349</v>
       </c>
       <c r="AU6">
-        <v>0.005343999495457124</v>
+        <v>0.00523946938545349</v>
       </c>
       <c r="AV6">
-        <v>0.005344295461154503</v>
+        <v>0.00523946938545349</v>
       </c>
       <c r="AW6">
-        <v>0.005528979869519062</v>
+        <v>0.00542179914581408</v>
       </c>
       <c r="AX6">
-        <v>0.005908309996159968</v>
+        <v>0.005798866415516042</v>
       </c>
       <c r="AY6">
-        <v>0.006138767294119193</v>
+        <v>0.006026990651059321</v>
       </c>
       <c r="AZ6">
-        <v>0.006432467871518378</v>
+        <v>0.006318387990320366</v>
       </c>
       <c r="BA6">
-        <v>0.00683571293794751</v>
+        <v>0.006719381477622429</v>
       </c>
       <c r="BB6">
-        <v>0.007038551956151304</v>
+        <v>0.006919874409176631</v>
       </c>
       <c r="BC6">
-        <v>0.007272889764076165</v>
+        <v>0.007151880984657179</v>
       </c>
       <c r="BD6">
-        <v>0.007741872459923169</v>
+        <v>0.007618643101940957</v>
       </c>
       <c r="BE6">
-        <v>0.008175045196087282</v>
+        <v>0.008049578372274213</v>
       </c>
       <c r="BF6">
-        <v>0.008260543975330163</v>
+        <v>0.008132675729535188</v>
       </c>
       <c r="BG6">
-        <v>0.008265377910987356</v>
+        <v>0.008135070203268124</v>
       </c>
       <c r="BH6">
-        <v>0.008331521750401631</v>
+        <v>0.008198803493294271</v>
       </c>
       <c r="BI6">
-        <v>0.008377282433996405</v>
+        <v>0.0082421440152084</v>
       </c>
       <c r="BJ6">
-        <v>0.008387286365907817</v>
+        <v>0.008249710923263376</v>
       </c>
       <c r="BK6">
-        <v>0.008464636325222858</v>
+        <v>0.008324655617774453</v>
       </c>
       <c r="BL6">
-        <v>0.008605424673976131</v>
+        <v>0.008463068618011578</v>
       </c>
       <c r="BM6">
-        <v>0.008778036752447593</v>
+        <v>0.008633320355407436</v>
       </c>
       <c r="BN6">
-        <v>0.009001120000472117</v>
+        <v>0.008854067063560138</v>
       </c>
       <c r="BO6">
-        <v>0.009522197095857807</v>
+        <v>0.009372948147069494</v>
       </c>
       <c r="BP6">
-        <v>0.0102725820892129</v>
+        <v>0.0101212452656106</v>
       </c>
       <c r="BQ6">
-        <v>0.01109979891188762</v>
+        <v>0.01094641044584009</v>
       </c>
       <c r="BR6">
-        <v>0.01160501904741373</v>
+        <v>0.0114494270916617</v>
       </c>
       <c r="BS6">
-        <v>0.01202284041371379</v>
+        <v>0.01186500375272897</v>
       </c>
       <c r="BT6">
-        <v>0.0127916412069058</v>
+        <v>0.0126317253556334</v>
       </c>
       <c r="BU6">
-        <v>0.01352297290042962</v>
+        <v>0.01336096018918445</v>
       </c>
       <c r="BV6">
-        <v>0.01371183620875717</v>
+        <v>0.01354747082019448</v>
       </c>
       <c r="BW6">
-        <v>0.01383473246766889</v>
+        <v>0.0136679832930349</v>
       </c>
       <c r="BX6">
-        <v>0.01393866893174849</v>
+        <v>0.01376952702997954</v>
       </c>
       <c r="BY6">
-        <v>0.01394286827701131</v>
+        <v>0.01377128661405784</v>
       </c>
       <c r="BZ6">
-        <v>0.01394506664999184</v>
+        <v>0.01377128661405784</v>
       </c>
       <c r="CA6">
-        <v>0.01394612964988243</v>
+        <v>0.01377128661405784</v>
       </c>
       <c r="CB6">
-        <v>0.01394698686047484</v>
+        <v>0.01377128661405784</v>
       </c>
       <c r="CC6">
-        <v>0.01397662585721237</v>
+        <v>0.01379849784644656</v>
       </c>
       <c r="CD6">
-        <v>0.01415360875564513</v>
+        <v>0.01397312246499583</v>
       </c>
       <c r="CE6">
-        <v>0.01437878322365113</v>
+        <v>0.01419596137930793</v>
       </c>
       <c r="CF6">
-        <v>0.01455916876205376</v>
+        <v>0.01437399024244467</v>
       </c>
       <c r="CG6">
-        <v>0.01474298934042597</v>
+        <v>0.0145554557654478</v>
       </c>
       <c r="CH6">
-        <v>0.01529083297557463</v>
+        <v>0.01510111601129006</v>
       </c>
       <c r="CI6">
-        <v>0.01623873971718061</v>
+        <v>0.01604702802542584</v>
       </c>
       <c r="CJ6">
-        <v>0.01717882544885584</v>
+        <v>0.01698511534139751</v>
       </c>
       <c r="CK6">
-        <v>0.01761001374503753</v>
+        <v>0.01741406523592575</v>
       </c>
       <c r="CL6">
-        <v>0.01797644136179269</v>
+        <v>0.01777822391117389</v>
       </c>
       <c r="CM6">
-        <v>0.0200355280435588</v>
+        <v>0.01983583987591834</v>
       </c>
       <c r="CN6">
-        <v>0.1898032765402094</v>
+        <v>0.1896812057383364</v>
       </c>
       <c r="CO6">
-        <v>0.2359114701319062</v>
+        <v>0.2358087012992662</v>
       </c>
       <c r="CP6">
-        <v>0.3861833288011993</v>
+        <v>0.3861489834588763</v>
       </c>
       <c r="CQ6">
-        <v>0.3908368989599904</v>
+        <v>0.3908023064076596</v>
       </c>
       <c r="CR6">
-        <v>0.4183043157167574</v>
+        <v>0.4182802345125574</v>
       </c>
       <c r="CS6">
-        <v>0.4289648636223547</v>
+        <v>0.4289433679798608</v>
       </c>
       <c r="CT6">
-        <v>0.4296956704658831</v>
+        <v>0.4296720777159077</v>
       </c>
       <c r="CU6">
-        <v>0.4308561264556069</v>
+        <v>0.4308306392121763</v>
       </c>
       <c r="CV6">
-        <v>0.4396336213778793</v>
+        <v>0.439609831685669</v>
       </c>
       <c r="CW6">
-        <v>0.4411181701647331</v>
+        <v>0.4410926388148109</v>
       </c>
       <c r="CX6">
-        <v>0.4900870497310975</v>
+        <v>0.4900821693932471</v>
       </c>
       <c r="CY6">
-        <v>0.515653189504701</v>
+        <v>0.5156579239104182</v>
       </c>
       <c r="CZ6">
-        <v>0.5158863646026361</v>
+        <v>0.515888767227598</v>
       </c>
       <c r="DA6">
-        <v>0.5216579931515265</v>
+        <v>0.5216606758206699</v>
       </c>
       <c r="DB6">
-        <v>0.527422371800481</v>
+        <v>0.5274253310948968</v>
       </c>
       <c r="DC6">
-        <v>0.5899062962471653</v>
+        <v>0.5899362799811002</v>
       </c>
       <c r="DD6">
-        <v>0.6643945405875473</v>
+        <v>0.6644572097604711</v>
       </c>
       <c r="DE6">
-        <v>0.6644333964132032</v>
+        <v>0.6644936421682521</v>
       </c>
       <c r="DF6">
-        <v>0.67092477565572</v>
+        <v>0.67098564087512</v>
       </c>
       <c r="DG6">
-        <v>0.6737548512306587</v>
+        <v>0.6738146093161267</v>
       </c>
       <c r="DH6">
-        <v>0.6852048321292653</v>
+        <v>0.6852675480574011</v>
       </c>
       <c r="DI6">
-        <v>0.6852117905608037</v>
+        <v>0.6852720680288854</v>
       </c>
       <c r="DJ6">
-        <v>0.6914921315051893</v>
+        <v>0.6915529289161412</v>
       </c>
       <c r="DK6">
-        <v>0.6938516602842949</v>
+        <v>0.6939111286607668</v>
       </c>
       <c r="DL6">
-        <v>0.7103308041383667</v>
+        <v>0.7103956020111339</v>
       </c>
       <c r="DM6">
-        <v>0.7207269010463059</v>
+        <v>0.7207941597709271</v>
       </c>
       <c r="DN6">
-        <v>0.7224382084311517</v>
+        <v>0.7225038324329239</v>
       </c>
       <c r="DO6">
-        <v>0.7241141605163106</v>
+        <v>0.7241781331223749</v>
       </c>
       <c r="DP6">
-        <v>0.724872752309593</v>
+        <v>0.7249346409110076</v>
       </c>
       <c r="DQ6">
-        <v>0.7353090842171759</v>
+        <v>0.7353734526444733</v>
       </c>
       <c r="DR6">
-        <v>0.7600726809978861</v>
+        <v>0.7601462857053732</v>
       </c>
       <c r="DS6">
-        <v>0.7670124939364317</v>
+        <v>0.7670869295807181</v>
       </c>
       <c r="DT6">
-        <v>0.767428366392749</v>
+        <v>0.7675005564127353</v>
       </c>
       <c r="DU6">
-        <v>0.7674283676122583</v>
+        <v>0.7675005564127353</v>
       </c>
       <c r="DV6">
-        <v>0.772358088968604</v>
+        <v>0.7724301607865077</v>
       </c>
       <c r="DW6">
-        <v>0.7798491802022679</v>
+        <v>0.7799223429288946</v>
       </c>
       <c r="DX6">
-        <v>0.7798507676948538</v>
+        <v>0.7799223429288946</v>
       </c>
       <c r="DY6">
-        <v>0.7829883859670692</v>
+        <v>0.7830589990982219</v>
       </c>
       <c r="DZ6">
-        <v>0.7835710241619097</v>
+        <v>0.7836394703121811</v>
       </c>
       <c r="EA6">
-        <v>0.7875929425262943</v>
+        <v>0.787660843592084</v>
       </c>
       <c r="EB6">
-        <v>0.7904230181012331</v>
+        <v>0.7904898120330907</v>
       </c>
       <c r="EC6">
-        <v>0.7995892840200628</v>
+        <v>0.7996579588398416</v>
       </c>
       <c r="ED6">
-        <v>0.8191851058465354</v>
+        <v>0.8192605799262034</v>
       </c>
       <c r="EE6">
-        <v>0.8333045767215028</v>
+        <v>0.8333842675224318</v>
       </c>
       <c r="EF6">
-        <v>0.8336634965883245</v>
+        <v>0.8337409149072402</v>
       </c>
       <c r="EG6">
-        <v>0.8347108693790497</v>
+        <v>0.8347863398767137</v>
       </c>
       <c r="EH6">
-        <v>0.8348577633077489</v>
+        <v>0.8349308613361673</v>
       </c>
       <c r="EI6">
-        <v>0.8456600472120911</v>
+        <v>0.845735797642105</v>
       </c>
       <c r="EJ6">
-        <v>0.8484496431873882</v>
+        <v>0.8485242673940928</v>
       </c>
       <c r="EK6">
-        <v>0.8484921511870118</v>
+        <v>0.8485643536981344</v>
       </c>
       <c r="EL6">
-        <v>0.8489257280331723</v>
+        <v>0.8489956932690343</v>
       </c>
       <c r="EM6">
-        <v>0.8497529448558471</v>
+        <v>0.8498208584492638</v>
       </c>
       <c r="EN6">
-        <v>0.8497541567525363</v>
+        <v>0.8498208584492638</v>
       </c>
       <c r="EO6">
-        <v>0.8541411773136878</v>
+        <v>0.8542075061008974</v>
       </c>
       <c r="EP6">
-        <v>0.8643705082231037</v>
+        <v>0.8644392192186259</v>
       </c>
       <c r="EQ6">
-        <v>0.8695604964771446</v>
+        <v>0.869629213226807</v>
       </c>
       <c r="ER6">
-        <v>0.8701593753018414</v>
+        <v>0.8702259327293818</v>
       </c>
       <c r="ES6">
-        <v>0.8701783510496733</v>
+        <v>0.8702424756842879</v>
       </c>
       <c r="ET6">
-        <v>0.8701791678000061</v>
+        <v>0.8702424756842879</v>
       </c>
       <c r="EU6">
-        <v>0.8710372239924078</v>
+        <v>0.8710984947774801</v>
       </c>
       <c r="EV6">
-        <v>0.871275474730298</v>
+        <v>0.8713344161281863</v>
       </c>
       <c r="EW6">
-        <v>0.8731346369138345</v>
+        <v>0.8731920133142681</v>
       </c>
       <c r="EX6">
-        <v>0.8826682158294116</v>
+        <v>0.8827276463352995</v>
       </c>
       <c r="EY6">
-        <v>0.8998882526769225</v>
+        <v>0.8999533620695653</v>
       </c>
       <c r="EZ6">
-        <v>0.9024513774542252</v>
+        <v>0.9025152538242278</v>
       </c>
       <c r="FA6">
-        <v>0.9038608881417435</v>
+        <v>0.903922987467553</v>
       </c>
       <c r="FB6">
-        <v>0.9049068302324813</v>
+        <v>0.9049669810623493</v>
       </c>
       <c r="FC6">
-        <v>0.9053803788582879</v>
+        <v>0.9054383112627947</v>
       </c>
       <c r="FD6">
-        <v>0.9121872664980107</v>
+        <v>0.9122459671543789</v>
       </c>
       <c r="FE6">
-        <v>0.9202982329261855</v>
+        <v>0.9203583168121393</v>
       </c>
       <c r="FF6">
-        <v>0.9226633443052417</v>
+        <v>0.922722101789359</v>
       </c>
       <c r="FG6">
-        <v>0.9243089662906692</v>
+        <v>0.9243660580760042</v>
       </c>
       <c r="FH6">
-        <v>0.9273475677637614</v>
+        <v>0.9274036507518473</v>
       </c>
       <c r="FI6">
-        <v>0.9309256210320765</v>
+        <v>0.930980949617694</v>
       </c>
       <c r="FJ6">
-        <v>0.9420947469331703</v>
+        <v>0.9421529009158021</v>
       </c>
       <c r="FK6">
-        <v>0.9434852088208573</v>
+        <v>0.9435415767762593</v>
       </c>
       <c r="FL6">
-        <v>0.9482356300787907</v>
+        <v>0.9482917964972448</v>
       </c>
       <c r="FM6">
-        <v>0.9534946153322207</v>
+        <v>0.9535508200424331</v>
       </c>
       <c r="FN6">
-        <v>0.9538242522293017</v>
+        <v>0.9538781706482324</v>
       </c>
       <c r="FO6">
-        <v>0.9560377349097006</v>
+        <v>0.9560902554217042</v>
       </c>
       <c r="FP6">
-        <v>0.9594826570791947</v>
+        <v>0.9595343604067408</v>
       </c>
       <c r="FQ6">
-        <v>0.9594945545530893</v>
+        <v>0.9595438217497358</v>
       </c>
       <c r="FR6">
-        <v>0.959656063931659</v>
+        <v>0.9597029655514167</v>
       </c>
       <c r="FS6">
-        <v>0.9598798082696777</v>
+        <v>0.9599243736613204</v>
       </c>
       <c r="FT6">
-        <v>0.9602365552165185</v>
+        <v>0.9602788471014422</v>
       </c>
       <c r="FU6">
-        <v>0.9606481495128737</v>
+        <v>0.9606881937560018</v>
       </c>
       <c r="FV6">
-        <v>0.9613953911062566</v>
+        <v>0.9614333459922055</v>
       </c>
       <c r="FW6">
-        <v>0.9614496966157757</v>
+        <v>0.9614852353696146</v>
       </c>
       <c r="FX6">
-        <v>0.9632728283996312</v>
+        <v>0.9633067851647926</v>
       </c>
       <c r="FY6">
-        <v>0.9661761593739213</v>
+        <v>0.9662090435509458</v>
       </c>
       <c r="FZ6">
-        <v>0.9676927549604913</v>
+        <v>0.9677239125924398</v>
       </c>
       <c r="GA6">
-        <v>0.968952374449337</v>
+        <v>0.9689816843513722</v>
       </c>
       <c r="GB6">
-        <v>0.9712881761286527</v>
+        <v>0.9713161458069777</v>
       </c>
       <c r="GC6">
-        <v>0.9736116913080772</v>
+        <v>0.973638314968622</v>
       </c>
       <c r="GD6">
-        <v>0.9742032807028385</v>
+        <v>0.9742277416037105</v>
       </c>
       <c r="GE6">
-        <v>0.974216999016717</v>
+        <v>0.9742390246453615</v>
       </c>
       <c r="GF6">
-        <v>0.9742450337124687</v>
+        <v>0.9742646308202079</v>
       </c>
       <c r="GG6">
-        <v>0.9754382355019026</v>
+        <v>0.975455953558457</v>
       </c>
       <c r="GH6">
-        <v>0.9803858454580898</v>
+        <v>0.9804034549679804</v>
       </c>
       <c r="GI6">
-        <v>0.9815790472475237</v>
+        <v>0.9815947777062296</v>
       </c>
       <c r="GJ6">
-        <v>0.9817327241161627</v>
+        <v>0.9817460853043233</v>
       </c>
       <c r="GK6">
-        <v>0.9817365035177292</v>
+        <v>0.9817474247466682</v>
       </c>
       <c r="GL6">
-        <v>0.9818518952367074</v>
+        <v>0.9818604291405827</v>
       </c>
       <c r="GM6">
-        <v>0.9888501461747355</v>
+        <v>0.9888595385736131</v>
       </c>
       <c r="GN6">
-        <v>0.9973801610991995</v>
+        <v>0.9973911343426327</v>
       </c>
       <c r="GO6">
-        <v>0.9975546132876546</v>
+        <v>0.9975632270577717</v>
       </c>
       <c r="GP6">
-        <v>0.9975794415214347</v>
+        <v>0.9975856252585424</v>
       </c>
       <c r="GQ6">
-        <v>0.997944044118206</v>
+        <v>0.9979479580531635</v>
       </c>
       <c r="GR6">
-        <v>0.9988550897101384</v>
+        <v>0.9988569915346377</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>99</v>
       </c>
       <c r="E2">
-        <v>0.04316724116202976</v>
+        <v>0.03961621282542595</v>
       </c>
       <c r="F2">
-        <v>0.5029012887788878</v>
+        <v>0.5032040444543435</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>17</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>96</v>
       </c>
       <c r="E3">
-        <v>0.007909671282679878</v>
+        <v>0.006553169013985592</v>
       </c>
       <c r="F3">
-        <v>0.5297196998119394</v>
+        <v>0.529997596335243</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>17</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>102</v>
       </c>
       <c r="E4">
-        <v>0.01136965457601704</v>
+        <v>0.0105360459579923</v>
       </c>
       <c r="F4">
-        <v>0.533321673380595</v>
+        <v>0.5334418378604642</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>17</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>101</v>
       </c>
       <c r="E5">
-        <v>0.02256746400640139</v>
+        <v>0.0180991206022424</v>
       </c>
       <c r="F5">
-        <v>0.5370847606846432</v>
+        <v>0.5378931982888927</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>17</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>102</v>
       </c>
       <c r="E6">
-        <v>0.01717882544885584</v>
+        <v>0.01777822391117389</v>
       </c>
       <c r="F6">
-        <v>0.515653189504701</v>
+        <v>0.5156579239104182</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>17</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2">
-        <v>0.04316724116202976</v>
+        <v>0.03961621282542595</v>
       </c>
       <c r="F2">
-        <v>0.7113772817589683</v>
+        <v>0.7007895576676578</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>17</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>110</v>
       </c>
       <c r="E3">
-        <v>0.007909671282679878</v>
+        <v>0.006553169013985592</v>
       </c>
       <c r="F3">
-        <v>0.7094293285850161</v>
+        <v>0.7100501126934694</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>17</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>116</v>
       </c>
       <c r="E4">
-        <v>0.01136965457601704</v>
+        <v>0.0105360459579923</v>
       </c>
       <c r="F4">
-        <v>0.725181443142523</v>
+        <v>0.7255631852436697</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H4">
         <v>17</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>115</v>
       </c>
       <c r="E5">
-        <v>0.02256746400640139</v>
+        <v>0.0180991206022424</v>
       </c>
       <c r="F5">
-        <v>0.7138682696022187</v>
+        <v>0.7160933093732202</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>17</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>115</v>
       </c>
       <c r="E6">
-        <v>0.01717882544885584</v>
+        <v>0.01777822391117389</v>
       </c>
       <c r="F6">
-        <v>0.7103308041383667</v>
+        <v>0.7103956020111339</v>
       </c>
       <c r="G6">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>17</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>130</v>
       </c>
       <c r="E2">
-        <v>0.04316724116202976</v>
+        <v>0.03961621282542595</v>
       </c>
       <c r="F2">
-        <v>0.8036476652757439</v>
+        <v>0.8056013100356376</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>17</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3">
-        <v>0.007909671282679878</v>
+        <v>0.006553169013985592</v>
       </c>
       <c r="F3">
-        <v>0.8058797770354225</v>
+        <v>0.8002881373521938</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>17</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>134</v>
       </c>
       <c r="E4">
-        <v>0.01136965457601704</v>
+        <v>0.0105360459579923</v>
       </c>
       <c r="F4">
-        <v>0.8082582802193089</v>
+        <v>0.8086179719729067</v>
       </c>
       <c r="G4">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>17</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>138</v>
       </c>
       <c r="E5">
-        <v>0.02256746400640139</v>
+        <v>0.0180991206022424</v>
       </c>
       <c r="F5">
-        <v>0.8002055438688203</v>
+        <v>0.8019039513282082</v>
       </c>
       <c r="G5">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H5">
         <v>17</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>133</v>
       </c>
       <c r="E6">
-        <v>0.01717882544885584</v>
+        <v>0.01777822391117389</v>
       </c>
       <c r="F6">
-        <v>0.8191851058465354</v>
+        <v>0.8192605799262034</v>
       </c>
       <c r="G6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H6">
         <v>17</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>167</v>
       </c>
       <c r="E2">
-        <v>0.04316724116202976</v>
+        <v>0.03961621282542595</v>
       </c>
       <c r="F2">
-        <v>0.9117573957004176</v>
+        <v>0.9126609572231773</v>
       </c>
       <c r="G2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H2">
         <v>17</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>152</v>
       </c>
       <c r="E3">
-        <v>0.007909671282679878</v>
+        <v>0.006553169013985592</v>
       </c>
       <c r="F3">
-        <v>0.9000690280125173</v>
+        <v>0.9005425090842301</v>
       </c>
       <c r="G3">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H3">
         <v>17</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>170</v>
       </c>
       <c r="E4">
-        <v>0.01136965457601704</v>
+        <v>0.0105360459579923</v>
       </c>
       <c r="F4">
-        <v>0.9035422021222875</v>
+        <v>0.9036928051622389</v>
       </c>
       <c r="G4">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H4">
         <v>17</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>168</v>
       </c>
       <c r="E5">
-        <v>0.02256746400640139</v>
+        <v>0.0180991206022424</v>
       </c>
       <c r="F5">
-        <v>0.9129234978589293</v>
+        <v>0.9140406436119919</v>
       </c>
       <c r="G5">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H5">
         <v>17</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>155</v>
       </c>
       <c r="E6">
-        <v>0.01717882544885584</v>
+        <v>0.01777822391117389</v>
       </c>
       <c r="F6">
-        <v>0.9024513774542252</v>
+        <v>0.9025152538242278</v>
       </c>
       <c r="G6">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H6">
         <v>17</v>

--- a/on_trucks/Processed_Stand_Alone/17_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/17_11R22.xlsx
@@ -1994,40 +1994,40 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.000325169636542772</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0004897432822241372</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0007563575703201933</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.001096760587216584</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.001005883117993959</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.001227739919892641</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0008922042793417782</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0007720339990671461</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0005380798538369358</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0004449507231341604</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0005002214101388915</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0002883441421817167</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2039,52 +2039,52 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.430455619778617E-06</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.000136673260865587</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0002858213441568175</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0005686104119738177</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0008383202979657931</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0007948872690877767</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0007428197780244871</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0008661368784131902</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0009488559513677725</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0008723753375603031</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0006590276507307217</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0007505752815262337</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0004636295696873608</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0001833271740058814</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>9.566127407405819E-05</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.573398919569602E-05</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -2096,40 +2096,40 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0001139597457920106</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0002693597443141499</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0005380798538369358</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0006480244925486712</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0009091164099298683</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0009326115523600109</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.000836215134662048</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0009293912047210897</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.00101145498968224</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.000748574607902529</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0003326155893673989</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>9.738026093532061E-05</v>
+        <v>0</v>
       </c>
       <c r="AV2">
         <v>0</v>
@@ -2141,49 +2141,49 @@
         <v>0</v>
       </c>
       <c r="AY2">
-        <v>6.050752346892926E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0001186040488206148</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0003867335182770093</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0004102122582573781</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.000618398529516814</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.000761299334812936</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.00101375477514003</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.001086422082624287</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0009230304966983172</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.001019346896766304</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.0006719058519211726</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0004426911945530995</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0003561132934146975</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0001376473335078633</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>5.053806387157339E-05</v>
+        <v>0</v>
       </c>
       <c r="BN2">
         <v>0</v>
@@ -2195,43 +2195,43 @@
         <v>0</v>
       </c>
       <c r="BQ2">
-        <v>5.996028914462427E-05</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0001838339894539536</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.0003039052171568961</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0004573350283369781</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0006210172514979828</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0005026533264420811</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0005927812442099197</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0007331195312277705</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0006335561143525271</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.0006498434432288328</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0005625739054583024</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0002896282312496867</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>7.786815980864251E-05</v>
+        <v>0</v>
       </c>
       <c r="CD2">
         <v>0</v>
@@ -2243,322 +2243,322 @@
         <v>0</v>
       </c>
       <c r="CG2">
-        <v>6.152811021877388E-05</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.0001500176662534664</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.000218997419529443</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.0004511708965872662</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0005643323594487118</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0005711841790926437</v>
+        <v>0</v>
       </c>
       <c r="CM2">
         <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1342574313662628</v>
+        <v>0.274577264671292</v>
       </c>
       <c r="CO2">
-        <v>0.08332202321140376</v>
+        <v>0.1400361302033087</v>
       </c>
       <c r="CP2">
-        <v>0.1957884069512626</v>
+        <v>0.4371056032085757</v>
       </c>
       <c r="CQ2">
-        <v>0.002370048540760851</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.02983654441515751</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.007720722461375291</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.001020399792292215</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>9.260337143771154E-05</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.009179651518964917</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.001198567859220882</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.06470996601618653</v>
+        <v>0.09087411539792356</v>
       </c>
       <c r="CY2">
-        <v>0.02113574039553089</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.001873409091528579</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.01767121090432294</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.006601314292883234</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.04408427523694945</v>
+        <v>0.0363932751111916</v>
       </c>
       <c r="DD2">
-        <v>0.03826174779120534</v>
+        <v>0.02101361140770855</v>
       </c>
       <c r="DE2">
-        <v>0.002049281625486435</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.01280957946620356</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.000380956059093261</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.005036668105261751</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.000117676085287147</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.005449675715584436</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.002830822109818618</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.02323740754748175</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.01928005936534193</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.0001139873160825872</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.0003319766228239887</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.0001892899909970427</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.004348234810824528</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.009010456199560654</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.0005997849383887938</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.002898970137391435</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>7.098989374569282E-05</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.002121764962284031</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.004402554054492689</v>
+        <v>0</v>
       </c>
       <c r="DX2">
         <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.002781780809988778</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.001591227116852589</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.007207891060474657</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.0008692534856197767</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.002860256812186137</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.01166515422056671</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.006938369144532095</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.001929162537055047</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.006584687473796487</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.000216664444423284</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.004856348482421397</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.000232982391205834</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.0002883441421817167</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.0001489847067915084</v>
+        <v>0</v>
       </c>
       <c r="EM2">
         <v>0</v>
       </c>
       <c r="EN2">
-        <v>6.073141690834143E-05</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.004300977733031194</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.007931706565317439</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.001999577950184866</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.0006042339003905549</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.002171396750305726</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.001726758736839013</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.0003125125039253835</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.0002706467696231288</v>
+        <v>0</v>
       </c>
       <c r="EW2">
         <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.002036800373705479</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.005926124761642069</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>6.075462333728063E-05</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.006651483514259246</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.004025074859127867</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.001784763266722399</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.007052510957516595</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.004593107692245299</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.0008578511100351763</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.001044123404647756</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.0005124816945964753</v>
+        <v>0</v>
       </c>
       <c r="FI2">
         <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.00213777922074651</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.0001008981611631011</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.01430714338048877</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.01342552790509784</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.003899923661105384</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.008503371427313175</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.008724820699209759</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.0004785681514436869</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>4.867012859140838E-05</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.0006571422296291003</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.0004027674495542478</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.0007612405188680372</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.0003680490017411711</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.0002115608424261066</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.004735583420968055</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.005694605195581895</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.003469657737379661</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.00373916365587121</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.005599634403893499</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.004493961667091953</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.002179438304431553</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.001246215052069639</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.001319853141581248</v>
+        <v>0</v>
       </c>
       <c r="GG2">
         <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.001805194340410077</v>
+        <v>0</v>
       </c>
       <c r="GI2">
         <v>0</v>
@@ -2573,25 +2573,25 @@
         <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.006749081836651838</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.005997309976164667</v>
+        <v>0</v>
       </c>
       <c r="GO2">
         <v>0</v>
       </c>
       <c r="GP2">
-        <v>8.242315048573155E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.001198567859220882</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.001341366574454615</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.0002053444455864364</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,28 +2767,28 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>6.903300932155487E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0001650617134544663</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>6.098219546164606E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.356470205713558E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.970947135726154E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.399312595669482E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>3.515461244726881E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.000145340006505049</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -2815,19 +2815,19 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>2.071985795665103E-05</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>4.671728837397579E-05</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>9.20363208570346E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0003332846949893006</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>4.743200148534032E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -2836,49 +2836,49 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>1.907101322834187E-05</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0001871092645904168</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>3.648135739184118E-05</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>3.032577676899075E-05</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>7.124473421124978E-05</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0001357751176588371</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0001346852698449361</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0002775856781125825</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0002486262784860646</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>5.812642753846425E-05</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>6.657744662435547E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0001951625870078046</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>8.052178515177418E-06</v>
+        <v>0</v>
       </c>
       <c r="AN3">
         <v>0</v>
@@ -2890,37 +2890,37 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>7.77238665709059E-05</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0002543428294405404</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0001313993104030899</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>8.866956579590226E-05</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.00020990951341508</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0002085843027042619</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>8.386462462932393E-05</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>8.091698931756626E-05</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>6.279723714005918E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>4.343273272089495E-05</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>5.52945129866395E-05</v>
+        <v>0</v>
       </c>
       <c r="BB3">
         <v>0</v>
@@ -2929,46 +2929,46 @@
         <v>0</v>
       </c>
       <c r="BD3">
-        <v>4.071924616423457E-06</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>2.491723653602624E-05</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>4.369009667032661E-05</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>3.410425133493449E-05</v>
+        <v>0</v>
       </c>
       <c r="BH3">
         <v>0</v>
       </c>
       <c r="BI3">
-        <v>7.950030054629333E-07</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0001871092645904168</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.0002175409265671765</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0001619012019550339</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.0003251634809722989</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.0002396165133415132</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.0001205209107581423</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>2.748252755105253E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>4.74582751129532E-05</v>
+        <v>0</v>
       </c>
       <c r="BR3">
         <v>0</v>
@@ -2977,310 +2977,310 @@
         <v>0</v>
       </c>
       <c r="BT3">
-        <v>4.184695914814779E-05</v>
+        <v>0</v>
       </c>
       <c r="BU3">
         <v>0</v>
       </c>
       <c r="BV3">
-        <v>6.79073593753124E-05</v>
+        <v>0</v>
       </c>
       <c r="BW3">
         <v>0</v>
       </c>
       <c r="BX3">
-        <v>4.412951968051396E-05</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0001047141890555653</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>1.870929429120349E-05</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>1.484302723745291E-05</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>9.111300112282479E-05</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.000109312726112765</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.0001650180545201004</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.0001099764703532695</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.000125713835458665</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.0001833025185816838</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>9.20363208570346E-05</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>1.315389206576076E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>5.202882670291629E-06</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>3.799658631458467E-05</v>
+        <v>0</v>
       </c>
       <c r="CL3">
         <v>0</v>
       </c>
       <c r="CM3">
-        <v>1.503314880194636E-05</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.001413570238978116</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.1579303694014535</v>
+        <v>0.2919757646511493</v>
       </c>
       <c r="CP3">
-        <v>0.08420569533484566</v>
+        <v>0.1236042203931387</v>
       </c>
       <c r="CQ3">
-        <v>0.2296447095864789</v>
+        <v>0.4557561320148351</v>
       </c>
       <c r="CR3">
-        <v>0.001498964144465758</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.04875111861503546</v>
+        <v>0.04263347472479889</v>
       </c>
       <c r="CT3">
-        <v>0.004672529073253944</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.001230838383106541</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>4.056346474478375E-06</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.00413090452144222</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.0001412411941661418</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.03680370121407008</v>
+        <v>0.01534810326451752</v>
       </c>
       <c r="CZ3">
-        <v>0.01503470230744254</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.0009006844240428188</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.00890951737385462</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.001162485008231986</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.05193728362667185</v>
+        <v>0.04991000093616454</v>
       </c>
       <c r="DE3">
-        <v>0.03917879039076359</v>
+        <v>0.02077230401539612</v>
       </c>
       <c r="DF3">
-        <v>0.00304115755155186</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.01290462494315371</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.001233938859808384</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.006246796996609854</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.0003950209969455397</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.01034588427341678</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.002476825938808704</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.02174859350337485</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.007171104500412627</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.002071537371950681</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.0001754770534572357</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
         <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.006524714059179117</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.01664915069902156</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.003010531075001275</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.00292291799922534</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.0002856950718067428</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.002166080588618321</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.006813755671087401</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.0001222541232915878</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.006067740177445132</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.0008612442813029369</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.006131465564797682</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.002113296625908822</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.01059752670495017</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.02161949611154048</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.009759962509874183</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.000294891573970037</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.001395932972711905</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.0007891949985233048</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.009476082104465653</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.001310566561014233</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>2.071985795665103E-05</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.0002457644559085513</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.0009528925724685696</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.0003100894988751311</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.009382071404379671</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.01192761304808467</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.004511645147548365</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.0009418938423384655</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.0001331984177243959</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>3.978132963576548E-05</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.0005789657804951691</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.0006700820668248685</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.00185948740276731</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.005110242150321257</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.007463545107362766</v>
+        <v>0</v>
       </c>
       <c r="FA3">
         <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.004181868575871796</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.00221843167464923</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.001823086026215285</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.007486582695827641</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.004608721003846883</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.001881213417039822</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.004303914211947874</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.002809943407335911</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.001393856790199919</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.007069910094444956</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.000876138490136924</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.00704261116921922</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.005931521191612254</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.0007058163677720559</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.002754116363719692</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.003779064383998753</v>
+        <v>0</v>
       </c>
       <c r="FR3">
         <v>0</v>
@@ -3289,76 +3289,76 @@
         <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.0003186281268224217</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.0003365839598200158</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.001381683162123144</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.001591257887470758</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.0001638298210818699</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.00138508546846087</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.001393856790199919</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.0006503670125698858</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.0006755465077526968</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.001341638657715402</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.0005473197459112469</v>
+        <v>0</v>
       </c>
       <c r="GE3">
         <v>0</v>
       </c>
       <c r="GF3">
-        <v>1.535808425905751E-05</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>3.958142469710362E-05</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.0009131308828310193</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.004521481402108433</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.0004076031285564387</v>
+        <v>0</v>
       </c>
       <c r="GK3">
         <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.0002270780707676697</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>4.938332305736193E-05</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.005245008380346851</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.00298165878252466</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.001604308206215322</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.0003670315661881125</v>
+        <v>0</v>
       </c>
       <c r="GR3">
         <v>0</v>
@@ -3540,25 +3540,25 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0003523152419502666</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0002506736683540774</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0007226060215276129</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0002651157226071972</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.986093285660778E-06</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>5.850548341655155E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3567,46 +3567,46 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0001065777177196366</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0002728754193375121</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0004014672709976585</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0003438427880798929</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0004113873289567231</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.000459454050830264</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0004014672709976585</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0003022486206607066</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0004399175094184307</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0003736017592451862</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0002021759546709772</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0001261531167484565</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>5.480005333347066E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>8.596528636813371E-06</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -3615,133 +3615,133 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>4.867519787826324E-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>7.661665086465552E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>8.271743704795336E-05</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0001568239038959476</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0001729522805048177</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0002160285097086455</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0002238780389953317</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0001619850714069468</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0003206353594730223</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0001525173634162753</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>5.244103516880875E-06</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0002903950930729295</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0001688513436245431</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>1.205187482537485E-05</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0002254031578660125</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>5.137057547337002E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>3.855238273796554E-05</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.0001561429384404598</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0001290199008345889</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0002863339358887652</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0003049412119732437</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>3.127204487629027E-05</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>6.941769851277013E-05</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>8.398269998992293E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>7.470432892019426E-05</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>8.398269998992293E-05</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.0001059179440478364</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>3.920257881399782E-05</v>
+        <v>0</v>
       </c>
       <c r="BD4">
         <v>0</v>
       </c>
       <c r="BE4">
-        <v>6.667380752863512E-06</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>2.91654127971774E-06</v>
+        <v>0</v>
       </c>
       <c r="BG4">
         <v>0</v>
       </c>
       <c r="BH4">
-        <v>8.780443732508583E-05</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>6.475619264955156E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>8.146202231192939E-06</v>
+        <v>0</v>
       </c>
       <c r="BK4">
         <v>0</v>
       </c>
       <c r="BL4">
-        <v>6.273704082278454E-06</v>
+        <v>0</v>
       </c>
       <c r="BM4">
         <v>0</v>
       </c>
       <c r="BN4">
-        <v>2.197638682751115E-05</v>
+        <v>0</v>
       </c>
       <c r="BO4">
         <v>0</v>
       </c>
       <c r="BP4">
-        <v>3.488977220532371E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>3.062057492790333E-05</v>
+        <v>0</v>
       </c>
       <c r="BR4">
         <v>0</v>
@@ -3750,52 +3750,52 @@
         <v>0</v>
       </c>
       <c r="BT4">
-        <v>2.395510548470177E-05</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>2.286891932890351E-05</v>
+        <v>0</v>
       </c>
       <c r="BV4">
         <v>0</v>
       </c>
       <c r="BW4">
-        <v>4.897602619238636E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>9.718931454716699E-06</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>9.718931454716699E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
         <v>0</v>
       </c>
       <c r="CA4">
-        <v>8.788631694901482E-05</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.0002963652547212292</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.0001561429384404598</v>
+        <v>0</v>
       </c>
       <c r="CD4">
         <v>0</v>
       </c>
       <c r="CE4">
-        <v>1.250238464456011E-05</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>4.945126777728643E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.0001297411771839432</v>
+        <v>0</v>
       </c>
       <c r="CH4">
         <v>0</v>
       </c>
       <c r="CI4">
-        <v>3.551618665804261E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
         <v>0</v>
@@ -3807,337 +3807,337 @@
         <v>0</v>
       </c>
       <c r="CM4">
-        <v>6.37673780492212E-05</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.07331042331599578</v>
+        <v>0.1241847983885475</v>
       </c>
       <c r="CO4">
-        <v>0.02122596015338043</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.1862689446081343</v>
+        <v>0.4484885697309332</v>
       </c>
       <c r="CQ4">
-        <v>0.1168832472522579</v>
+        <v>0.2492823206376372</v>
       </c>
       <c r="CR4">
-        <v>0.02474784838235923</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.02792364122805827</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.01100300020442417</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.0001937105166200234</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.0004819129817084313</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.003230259662643959</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.01124836245247403</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.04638848114441543</v>
+        <v>0.0468919365642952</v>
       </c>
       <c r="CZ4">
-        <v>0.00759047957986125</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.002587216114284198</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.005336388306600461</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.006746784798806266</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.07130813852137395</v>
+        <v>0.1184362412830769</v>
       </c>
       <c r="DE4">
-        <v>0.01062469318966812</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.01480364598189123</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.001050030535331169</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.01177615452934847</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.002276207144600965</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.003712346482325975</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.007747155155303023</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.01207742884913471</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.03448467819467584</v>
+        <v>0.01271613339550996</v>
       </c>
       <c r="DN4">
-        <v>2.309745463520487E-05</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.00165519507328732</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.0005417316721723478</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>6.264324332618109E-05</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.00838150620362761</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.01466749899474985</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>4.400706807925241E-06</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.001519817420858323</v>
+        <v>0</v>
       </c>
       <c r="DV4">
         <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.005503877364514019</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.008276349093123537</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.0009623172074415886</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.001716713887226045</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.008487326810196814</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.004853638491983272</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.0005772290524253056</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.01046591417133829</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.0153555298815234</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.0004283938857049724</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.003482990726056462</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.0009868078795333421</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.005011881301257443</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.002711118692470122</v>
+        <v>0</v>
       </c>
       <c r="EK4">
         <v>0</v>
       </c>
       <c r="EL4">
-        <v>2.273789388993861E-05</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.002026836758916554</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.002161716288166743</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.002996078926907445</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.009695096114280795</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.003943271476947722</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>7.576162894292123E-05</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>5.405759422076804E-05</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.0004283938857049724</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.0006625045634732798</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.0004367015880901701</v>
+        <v>0</v>
       </c>
       <c r="EW4">
         <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.0007803753710937987</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.005995976560316064</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.0007424518002142738</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.003115689226772318</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.005597141759067554</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.001910865063454789</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.004610042827263321</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.003206149298077757</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.0001426608788037535</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>1.992754505521933E-05</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.001497366097132927</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.0005809131594286497</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.0001869266000998167</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.001136936793422489</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.00537190248472963</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.01630401103713912</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.005009155154282881</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.003741992328414424</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.0122806029704933</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.004519295608491628</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>4.72640058923612E-05</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>1.112364884155414E-05</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.0002732490317668164</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.0003651547627767073</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.0003824190306174453</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.0001722395434099572</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.002866659208555759</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.008518836859731102</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.004111325709228542</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.005178615757679401</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.007841577761416783</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.007158927507008283</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.004692810854382851</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.001159645798172577</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.0006252528374839971</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.000828225945593614</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.0005844089017031706</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.001366959954570812</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0001708960741266549</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0003616310474278996</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>2.197638682751115E-05</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.003103381274538119</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.01730588508418953</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.004663200087391501</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.000313487001201753</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.003330631182495775</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.003200530729208383</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.0008509802725371537</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,22 +4313,22 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0003313010863574261</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4.848458386674082E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.952678324968633E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.129382914811949E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -4349,52 +4349,52 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>6.476540964191815E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>8.177715430703435E-05</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2.934142178704411E-06</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.000235011133227641</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0001734899292087189</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0002722440003034752</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0002070219844099067</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0003753391117494039</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0005519547973149314</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0004894027124661135</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0001379547943799475</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>3.386467461499741E-05</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>3.748639860731402E-05</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0001759209840169326</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>7.107513785240269E-07</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -4403,46 +4403,46 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.000278796357317368</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0002208126879459023</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0001490829097317732</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0003233202894088098</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0007168911255973191</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0003933056615576559</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0002368616050884363</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0005934243732408445</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0004999098591373279</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0002753463081883748</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0002939381167739584</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>3.498475497363031E-05</v>
+        <v>0</v>
       </c>
       <c r="AR5">
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.787376245747966E-05</v>
+        <v>0</v>
       </c>
       <c r="AT5">
         <v>0</v>
@@ -4457,43 +4457,43 @@
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>7.107513785240269E-07</v>
+        <v>0</v>
       </c>
       <c r="AY5">
         <v>0</v>
       </c>
       <c r="AZ5">
-        <v>5.042633438116113E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.0004650073766568316</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.0003037564341566278</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.0001798346070014695</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.0002409822176331769</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.0006518726813854796</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.0010745601403213</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.0003230637963921234</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.0001783635399355031</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0003298095931571929</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.0002339314791704914</v>
+        <v>0</v>
       </c>
       <c r="BK5">
         <v>0</v>
@@ -4520,34 +4520,34 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.0002880775403917446</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0002015895353394122</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.0003148126117873244</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.0009138352671281549</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.001169745520321496</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.0004386623795164821</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.0005310586388344384</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.0006670918654244893</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.0002455904306035099</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>5.022384790120291E-05</v>
+        <v>0</v>
       </c>
       <c r="CC5">
         <v>0</v>
@@ -4565,100 +4565,100 @@
         <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.000165310469341524</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.000324898030794646</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.0004003305985875834</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.0005150713854934644</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.0005054714573606291</v>
+        <v>0</v>
       </c>
       <c r="CM5">
         <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1366615327965124</v>
+        <v>0.2882125827263936</v>
       </c>
       <c r="CO5">
-        <v>0.07843807947301008</v>
+        <v>0.1303764055949353</v>
       </c>
       <c r="CP5">
-        <v>0.2052721672851844</v>
+        <v>0.4742070512799186</v>
       </c>
       <c r="CQ5">
-        <v>0.003416319272949566</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.03776250714297054</v>
+        <v>0.02011024182865698</v>
       </c>
       <c r="CS5">
-        <v>0.006042913342794055</v>
+        <v>0</v>
       </c>
       <c r="CT5">
         <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.0002650955328289751</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.004105939338897219</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.0004180979580894803</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.04741142554341361</v>
+        <v>0.04626719932338824</v>
       </c>
       <c r="CY5">
-        <v>0.02212178611103324</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.002795885789510814</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.01632866059701928</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.0070844854385477</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.03842992550199697</v>
+        <v>0.02191952582544733</v>
       </c>
       <c r="DD5">
-        <v>0.03731864643398804</v>
+        <v>0.01890699342126</v>
       </c>
       <c r="DE5">
-        <v>0.002083111270339549</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.01549605018749129</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>9.565294983235376E-05</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.004755729152969773</v>
+        <v>0</v>
       </c>
       <c r="DI5">
         <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.007832521611559404</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.00288445356854392</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.02097320247149501</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.0146835646926731</v>
+        <v>0</v>
       </c>
       <c r="DN5">
         <v>0</v>
@@ -4667,247 +4667,247 @@
         <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.0003200159615792927</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.003161665115450833</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.007927278996094826</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.0003684991864083018</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.005143053892311448</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.001354958123605536</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.000284583281968179</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.003278478465323851</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>7.756667285676354E-06</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.005118956327754436</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.0002250518714617019</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.005741394189006068</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.0007165310820191312</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.005055692817079264</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.01338610759748695</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.006899677098278492</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.001582322499188538</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.007166915336648879</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.0007168911255973191</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.002671247627766151</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
         <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.001649837161025206</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.0006604628140574062</v>
+        <v>0</v>
       </c>
       <c r="EM5">
         <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.0008112929899189425</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.008894360103935964</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.01238574020729054</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.004335636999708329</v>
+        <v>0</v>
       </c>
       <c r="ER5">
         <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.0006650835930557215</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.000881150267690535</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>3.84838105975475E-05</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.0001942683787943262</v>
+        <v>0</v>
       </c>
       <c r="EW5">
         <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.0009014264716976793</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.003170311232363649</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.0004328488927774662</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.008430729452785541</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.005661971009755297</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.003054696675474906</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.01192784692662409</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.008647651144710935</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.001559599793996572</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.002360538234869015</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.002658525614706798</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.0009394488687011522</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.002800087041674996</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.0001481611880295401</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.01482184982450052</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.01410468358504117</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.004059767249009705</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.009079282542522204</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.01159245771278054</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.00193876979984411</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.0005295570035615801</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.00193059437652182</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.001595966730911683</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.002137093567514126</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.001085337208113356</v>
+        <v>0</v>
       </c>
       <c r="FW5">
         <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.002595358149459385</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.004049190791414171</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.003152306010832477</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.003981216186583958</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.005452359216674377</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.005817074233513128</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.003610977391310726</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.001960076266014721</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.001873266412429706</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>7.107513785240269E-07</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.0007498136118075262</v>
+        <v>0</v>
       </c>
       <c r="GI5">
         <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.0001343689124722876</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.0004721272130603113</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.0001696241768069721</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.005388036062251345</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.007278422658386675</v>
+        <v>0</v>
       </c>
       <c r="GO5">
         <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.0003136045895169601</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.002280852274516531</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.002731145288799263</v>
+        <v>0</v>
       </c>
       <c r="GS5">
         <v>0</v>
@@ -5086,22 +5086,22 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>3.864381172421122E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0002729349570345933</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0005087571816177466</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0001551234366855848</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.128304165104118E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -5113,112 +5113,112 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>5.154375910224192E-06</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0001568821356466815</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0001556792286576067</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0002503840977083175</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0003290868641830709</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0001588971054007748</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>4.752353157178692E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0001202973114242874</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0001220666253887559</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>6.503413317733945E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>3.263845550522105E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0001082665307271521</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0001029733798054571</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>7.206726283637129E-06</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>3.803610068018375E-05</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>6.890775500533485E-05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0001980565131506864</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0001852004434543597</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0001058056407890006</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0002890072326865641</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0002323039256362628</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0002030443841789916</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0002900949453789157</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0003282818847567775</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>8.988220029033894E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>1.654295490619338E-05</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0001559234537728844</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0002255267712309254</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>5.273955814099108E-05</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>4.176293431970497E-05</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>1.82834378812022E-07</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>8.388620368299291E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>6.756991241449138E-05</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>1.361471168151105E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>5.689798281053726E-06</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>8.853310399507248E-06</v>
+        <v>0</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -5227,91 +5227,91 @@
         <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0001823297603605908</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.0003770672697019619</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.0002281242355432793</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.0002913973392610438</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.0004009934873020628</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0002004929315542032</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.0002320065754805474</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.0004667621172837784</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.0004309352703332565</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>8.309735726097583E-05</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>2.394473732935791E-06</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>6.373329002614696E-05</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>4.334052191412977E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>7.566908054975361E-06</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>7.494469451107744E-05</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.0001384130002371245</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.0001702517373958571</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.0002207467081527015</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.0005188810835093555</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.0007482971185411053</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.0008251651802294878</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.000503016645821613</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.0004155766610672637</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.0007667216029044338</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0007292348335510529</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.0001865106310100284</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.000120512472840418</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.000101543736944643</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>1.759584078295841E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
         <v>0</v>
@@ -5323,367 +5323,367 @@
         <v>0</v>
       </c>
       <c r="CC6">
-        <v>2.721123238872351E-05</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.0001746246185492647</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.0002228389143121016</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.0001780288631367405</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.0001814655230031274</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.0005456602458422656</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.0009459120141357733</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.0009380873159716731</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.0004289498945282432</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.0003641586752481402</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.002057615964744445</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1698453658624181</v>
+        <v>0.3756300379077711</v>
       </c>
       <c r="CO6">
-        <v>0.04612749556092979</v>
+        <v>0.04329125591959981</v>
       </c>
       <c r="CP6">
-        <v>0.15034028215961</v>
+        <v>0.3232342462200234</v>
       </c>
       <c r="CQ6">
-        <v>0.004653322948783361</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.02747792810489781</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.01066313346730341</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.0007287097360468396</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.001158561496268627</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.008779192473492724</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.001482807129141886</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.04898953057843611</v>
+        <v>0.05097943572262786</v>
       </c>
       <c r="CY6">
-        <v>0.02557575451717118</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.0002308433171798444</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.005771908593071857</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.005764655274226861</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.06251094888620343</v>
+        <v>0.08730152630020784</v>
       </c>
       <c r="DD6">
-        <v>0.0745209297793708</v>
+        <v>0.1195634979297699</v>
       </c>
       <c r="DE6">
-        <v>3.643240778104819E-05</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.006491998706867878</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.002828968441006668</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.01145293874127443</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>4.519971484296337E-06</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.006280860887255728</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.002358199744625611</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.01648447335036719</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.0103985577597932</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.00170967266199684</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.00167430068945094</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.0007565077886327095</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.01043881173346572</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.02477283306089999</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.006940643875344922</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.0004136268320171798</v>
+        <v>0</v>
       </c>
       <c r="DU6">
         <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.004929604373772468</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.007492182142386937</v>
+        <v>0</v>
       </c>
       <c r="DX6">
         <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.003136656169327232</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.0005804712139592573</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.004021373279902925</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.002828968441006668</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.009168146806750882</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.01960262108636182</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.01412368759622843</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.0003566473848084753</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.001045424969473421</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.0001445214594536152</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.01080493630593767</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.002788469751987794</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>4.008630404160461E-05</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.0004313395708999473</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.0008251651802294878</v>
+        <v>0</v>
       </c>
       <c r="EN6">
         <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.004386647651633551</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.01023171311772851</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.005189994008181073</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.0005967195025747725</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>1.654295490619338E-05</v>
+        <v>0</v>
       </c>
       <c r="ET6">
         <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.0008560190931922645</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.0002359213507061579</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.00185759718608176</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.009535633021031407</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.01722571573426578</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.00256189175466244</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.001407733643325148</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.001043993594796317</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.0004713302004454684</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.006807655891584197</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.008112349657760429</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.002363784977219727</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.001643956286645295</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.003037592675843005</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.003577298865846666</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.01117195129810809</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.001388675860457166</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.004750219720985554</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.00525902354518824</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.0003273506057993191</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.002212084773471759</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.003444104985036562</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>9.461342995097746E-06</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.0001591438016808337</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.0002214081099037931</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.0003544734401216974</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.0004093466545595718</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.0007451522362037816</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>5.188937740910491E-05</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.001821549795178054</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.002902258386153193</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.001514869041494035</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.001257771758932368</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.002334461455605469</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.002322169161644303</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.0005894266350885607</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>1.128304165104118E-05</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>2.560617484636465E-05</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.001191322738249137</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.00494750140952339</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.001191322738249137</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.0001513075980936632</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>1.339442344886034E-06</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.0001130043939144971</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.006999109433030399</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.00853159576901958</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.0001720927151389801</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>2.239820077080958E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0003623327946210285</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.0009090334814741833</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.001143008465362177</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.000325169636542772</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0008149129187669092</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.001571270489087102</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.002668031076303686</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.003673914194297646</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.004901654114190288</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.005793858393532065</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.006565892392599211</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007103972246436147</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.007548922969570307</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.008049144379709199</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.008337488521890916</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.008337488521890916</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.008337488521890916</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.008337488521890916</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.008338918977510695</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.008475592238376281</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.008761413582533099</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.009330023994506918</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.01016834429247271</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.01096323156156049</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.01170605133958498</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.01257218821799816</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.01352104416936594</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.01439341950692624</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.01505244715765696</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0158030224391832</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.01626665200887056</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.01644997918287644</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0165456404569505</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.01656137444614619</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.01656137444614619</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.01656137444614619</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.01656137444614619</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0166753341919382</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.01694469393625235</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.01748277379008929</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.01813079828263796</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.01903991469256783</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.01997252624492784</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.02080874137958989</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.02173813258431098</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.02274958757399322</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.02349816218189575</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.02383077777126315</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.02392815803219847</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.02392815803219847</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.02392815803219847</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.02392815803219847</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.02393420878454536</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.02405281283336598</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.02443954635164299</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.02484975860990036</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.02546815713941718</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.02622945647423011</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.02724321124937014</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.02832963333199443</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.02925266382869274</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.03027201072545905</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.03094391657738022</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.03138660777193332</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.03174272106534802</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.03188036839885589</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.03193090646272746</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.03193090646272746</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.03193090646272746</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.03193090646272746</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.03199086675187208</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.03217470074132603</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.03247860595848293</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0329359409868199</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.03355695823831788</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.03405961156475996</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.03465239280896988</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.03538551234019765</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.03601906845455018</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.03666891189777901</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.03723148580323731</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.037521114034487</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.03759898219429564</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.03759898219429564</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.03759898219429564</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.03759898219429564</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.03766051030451441</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.03781052797076788</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.03802952539029732</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.03848069628688459</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0390450286463333</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.03961621282542595</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.03961621282542595</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1738736441916887</v>
+        <v>0.274577264671292</v>
       </c>
       <c r="CO2">
-        <v>0.2571956674030925</v>
+        <v>0.4146133948746007</v>
       </c>
       <c r="CP2">
-        <v>0.4529840743543551</v>
+        <v>0.8517189980831764</v>
       </c>
       <c r="CQ2">
-        <v>0.4553541228951159</v>
+        <v>0.8517189980831764</v>
       </c>
       <c r="CR2">
-        <v>0.4851906673102734</v>
+        <v>0.8517189980831764</v>
       </c>
       <c r="CS2">
-        <v>0.4929113897716487</v>
+        <v>0.8517189980831764</v>
       </c>
       <c r="CT2">
-        <v>0.4939317895639409</v>
+        <v>0.8517189980831764</v>
       </c>
       <c r="CU2">
-        <v>0.4940243929353786</v>
+        <v>0.8517189980831764</v>
       </c>
       <c r="CV2">
-        <v>0.5032040444543435</v>
+        <v>0.8517189980831764</v>
       </c>
       <c r="CW2">
-        <v>0.5044026123135644</v>
+        <v>0.8517189980831764</v>
       </c>
       <c r="CX2">
-        <v>0.5691125783297509</v>
+        <v>0.9425931134811</v>
       </c>
       <c r="CY2">
-        <v>0.5902483187252818</v>
+        <v>0.9425931134811</v>
       </c>
       <c r="CZ2">
-        <v>0.5921217278168104</v>
+        <v>0.9425931134811</v>
       </c>
       <c r="DA2">
-        <v>0.6097929387211333</v>
+        <v>0.9425931134811</v>
       </c>
       <c r="DB2">
-        <v>0.6163942530140165</v>
+        <v>0.9425931134811</v>
       </c>
       <c r="DC2">
-        <v>0.660478528250966</v>
+        <v>0.9789863885922916</v>
       </c>
       <c r="DD2">
-        <v>0.6987402760421714</v>
+        <v>1</v>
       </c>
       <c r="DE2">
-        <v>0.7007895576676578</v>
+        <v>1</v>
       </c>
       <c r="DF2">
-        <v>0.7135991371338614</v>
+        <v>1</v>
       </c>
       <c r="DG2">
-        <v>0.7139800931929546</v>
+        <v>1</v>
       </c>
       <c r="DH2">
-        <v>0.7190167612982163</v>
+        <v>1</v>
       </c>
       <c r="DI2">
-        <v>0.7191344373835035</v>
+        <v>1</v>
       </c>
       <c r="DJ2">
-        <v>0.7245841130990879</v>
+        <v>1</v>
       </c>
       <c r="DK2">
-        <v>0.7274149352089065</v>
+        <v>1</v>
       </c>
       <c r="DL2">
-        <v>0.7506523427563883</v>
+        <v>1</v>
       </c>
       <c r="DM2">
-        <v>0.7699324021217302</v>
+        <v>1</v>
       </c>
       <c r="DN2">
-        <v>0.7700463894378128</v>
+        <v>1</v>
       </c>
       <c r="DO2">
-        <v>0.7703783660606368</v>
+        <v>1</v>
       </c>
       <c r="DP2">
-        <v>0.7705676560516338</v>
+        <v>1</v>
       </c>
       <c r="DQ2">
-        <v>0.7749158908624584</v>
+        <v>1</v>
       </c>
       <c r="DR2">
-        <v>0.783926347062019</v>
+        <v>1</v>
       </c>
       <c r="DS2">
-        <v>0.7845261320004078</v>
+        <v>1</v>
       </c>
       <c r="DT2">
-        <v>0.7874251021377993</v>
+        <v>1</v>
       </c>
       <c r="DU2">
-        <v>0.7874960920315449</v>
+        <v>1</v>
       </c>
       <c r="DV2">
-        <v>0.7896178569938289</v>
+        <v>1</v>
       </c>
       <c r="DW2">
-        <v>0.7940204110483216</v>
+        <v>1</v>
       </c>
       <c r="DX2">
-        <v>0.7940204110483216</v>
+        <v>1</v>
       </c>
       <c r="DY2">
-        <v>0.7968021918583104</v>
+        <v>1</v>
       </c>
       <c r="DZ2">
-        <v>0.7983934189751629</v>
+        <v>1</v>
       </c>
       <c r="EA2">
-        <v>0.8056013100356376</v>
+        <v>1</v>
       </c>
       <c r="EB2">
-        <v>0.8064705635212573</v>
+        <v>1</v>
       </c>
       <c r="EC2">
-        <v>0.8093308203334435</v>
+        <v>1</v>
       </c>
       <c r="ED2">
-        <v>0.8209959745540102</v>
+        <v>1</v>
       </c>
       <c r="EE2">
-        <v>0.8279343436985422</v>
+        <v>1</v>
       </c>
       <c r="EF2">
-        <v>0.8298635062355972</v>
+        <v>1</v>
       </c>
       <c r="EG2">
-        <v>0.8364481937093937</v>
+        <v>1</v>
       </c>
       <c r="EH2">
-        <v>0.836664858153817</v>
+        <v>1</v>
       </c>
       <c r="EI2">
-        <v>0.8415212066362384</v>
+        <v>1</v>
       </c>
       <c r="EJ2">
-        <v>0.8417541890274443</v>
+        <v>1</v>
       </c>
       <c r="EK2">
-        <v>0.842042533169626</v>
+        <v>1</v>
       </c>
       <c r="EL2">
-        <v>0.8421915178764174</v>
+        <v>1</v>
       </c>
       <c r="EM2">
-        <v>0.8421915178764174</v>
+        <v>1</v>
       </c>
       <c r="EN2">
-        <v>0.8422522492933258</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0.8465532270263569</v>
+        <v>1</v>
       </c>
       <c r="EP2">
-        <v>0.8544849335916743</v>
+        <v>1</v>
       </c>
       <c r="EQ2">
-        <v>0.8564845115418592</v>
+        <v>1</v>
       </c>
       <c r="ER2">
-        <v>0.8570887454422498</v>
+        <v>1</v>
       </c>
       <c r="ES2">
-        <v>0.8592601421925555</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.8609869009293946</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.8612994134333199</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.8615700602029431</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.8615700602029431</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.8636068605766486</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.8695329853382907</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.869593739961628</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.8762452234758873</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.8802702983350151</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.8820550616017375</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.8891075725592541</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.8937006802514994</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.8945585313615346</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.8956026547661824</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.8961151364607789</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.8961151364607789</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.8982529156815254</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.8983538138426885</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.9126609572231773</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.9260864851282752</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.9299864087893805</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.9384897802166937</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.9472146009159035</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9476931690673471</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9477418391959386</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9483989814255677</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9488017488751219</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.94956298939399</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.9499310383957311</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9501425992381572</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9548781826591253</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9605727878547071</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9640424455920867</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.967781609247958</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9733812436518515</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9778752053189435</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.980054643623375</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9813008586754447</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9826207118170259</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9826207118170259</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.984425906157436</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.984425906157436</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.984425906157436</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.984425906157436</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.984425906157436</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9911749879940878</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9971722979702524</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9971722979702524</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9972547211207381</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.998453288979959</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9997946555544136</v>
+        <v>1</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>6.903300932155487E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0002340947227760211</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0002950769182376672</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0002950769182376672</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0003486416202948028</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0003783510916520644</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0003783510916520644</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0003923442176087592</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0003923442176087592</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0003923442176087592</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.000427498830056028</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.000427498830056028</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.000427498830056028</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0005728388365610769</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0005728388365610769</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0005728388365610769</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0005935586945177279</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0006402759828917037</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0007323123037487383</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.001065596998738039</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.001113029000223379</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.001113029000223379</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.001113029000223379</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.001132100013451721</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.001132100013451721</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.001319209278042138</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.001355690635433979</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.001355690635433979</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.00138601641220297</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.00145726114641422</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.001593036264073057</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.001727721533917993</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.002005307212030575</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.00225393349051664</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.002312059918055104</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.00237863736467946</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.002573799951687264</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.002581852130202442</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.002581852130202442</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.002581852130202442</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.002581852130202442</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.002659575996773348</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.002913918826213888</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.003045318136616978</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.00313398770241288</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.00334389721582796</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.003552481518532222</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.003636346143161546</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.003717263132479112</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.003780060369619171</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.003823493102340066</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.003878787615326706</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.003878787615326706</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.003878787615326706</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.003882859539943129</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.003907776776479155</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.003951466873149482</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.003985571124484417</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.003985571124484417</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.00398636612748988</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.004173475392080296</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.004391016318647473</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.004552917520602507</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.004878081001574807</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.00511769751491632</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.005238218425674462</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.005265700953225515</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.005313159228338468</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.005313159228338468</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.005313159228338468</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.005355006187486616</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.005355006187486616</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.005422913546861929</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.005422913546861929</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.005467043066542443</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.005571757255598008</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.005590466549889212</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.005605309577126665</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.00569642257824949</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.005805735304362254</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.005970753358882355</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.006080729829235625</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.00620644366469429</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.006389746183275973</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.006481782504133008</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.006494936396198769</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.006500139278869061</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.006538135865183646</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.006538135865183646</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.006553169013985592</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.007966739252963708</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.1658971086544172</v>
+        <v>0.2919757646511493</v>
       </c>
       <c r="CP3">
-        <v>0.2501028039892629</v>
+        <v>0.415579985044288</v>
       </c>
       <c r="CQ3">
-        <v>0.4797475135757418</v>
+        <v>0.8713361170591231</v>
       </c>
       <c r="CR3">
-        <v>0.4812464777202076</v>
+        <v>0.8713361170591231</v>
       </c>
       <c r="CS3">
-        <v>0.529997596335243</v>
+        <v>0.9139695917839219</v>
       </c>
       <c r="CT3">
-        <v>0.534670125408497</v>
+        <v>0.9139695917839219</v>
       </c>
       <c r="CU3">
-        <v>0.5359009637916036</v>
+        <v>0.9139695917839219</v>
       </c>
       <c r="CV3">
-        <v>0.5359050201380781</v>
+        <v>0.9139695917839219</v>
       </c>
       <c r="CW3">
-        <v>0.5400359246595203</v>
+        <v>0.9139695917839219</v>
       </c>
       <c r="CX3">
-        <v>0.5401771658536865</v>
+        <v>0.9139695917839219</v>
       </c>
       <c r="CY3">
-        <v>0.5769808670677565</v>
+        <v>0.9293176950484394</v>
       </c>
       <c r="CZ3">
-        <v>0.5920155693751991</v>
+        <v>0.9293176950484394</v>
       </c>
       <c r="DA3">
-        <v>0.5929162537992418</v>
+        <v>0.9293176950484394</v>
       </c>
       <c r="DB3">
-        <v>0.6018257711730964</v>
+        <v>0.9293176950484394</v>
       </c>
       <c r="DC3">
-        <v>0.6029882561813285</v>
+        <v>0.9293176950484394</v>
       </c>
       <c r="DD3">
-        <v>0.6549255398080003</v>
+        <v>0.979227695984604</v>
       </c>
       <c r="DE3">
-        <v>0.6941043301987638</v>
+        <v>1</v>
       </c>
       <c r="DF3">
-        <v>0.6971454877503157</v>
+        <v>1</v>
       </c>
       <c r="DG3">
-        <v>0.7100501126934694</v>
+        <v>1</v>
       </c>
       <c r="DH3">
-        <v>0.7112840515532778</v>
+        <v>1</v>
       </c>
       <c r="DI3">
-        <v>0.7175308485498877</v>
+        <v>1</v>
       </c>
       <c r="DJ3">
-        <v>0.7179258695468332</v>
+        <v>1</v>
       </c>
       <c r="DK3">
-        <v>0.72827175382025</v>
+        <v>1</v>
       </c>
       <c r="DL3">
-        <v>0.7307485797590587</v>
+        <v>1</v>
       </c>
       <c r="DM3">
-        <v>0.7524971732624336</v>
+        <v>1</v>
       </c>
       <c r="DN3">
-        <v>0.7596682777628462</v>
+        <v>1</v>
       </c>
       <c r="DO3">
-        <v>0.7617398151347968</v>
+        <v>1</v>
       </c>
       <c r="DP3">
-        <v>0.761915292188254</v>
+        <v>1</v>
       </c>
       <c r="DQ3">
-        <v>0.761915292188254</v>
+        <v>1</v>
       </c>
       <c r="DR3">
-        <v>0.7684400062474331</v>
+        <v>1</v>
       </c>
       <c r="DS3">
-        <v>0.7850891569464546</v>
+        <v>1</v>
       </c>
       <c r="DT3">
-        <v>0.7880996880214559</v>
+        <v>1</v>
       </c>
       <c r="DU3">
-        <v>0.7910226060206813</v>
+        <v>1</v>
       </c>
       <c r="DV3">
-        <v>0.7913083010924881</v>
+        <v>1</v>
       </c>
       <c r="DW3">
-        <v>0.7934743816811064</v>
+        <v>1</v>
       </c>
       <c r="DX3">
-        <v>0.8002881373521938</v>
+        <v>1</v>
       </c>
       <c r="DY3">
-        <v>0.8004103914754854</v>
+        <v>1</v>
       </c>
       <c r="DZ3">
-        <v>0.8064781316529306</v>
+        <v>1</v>
       </c>
       <c r="EA3">
-        <v>0.8073393759342335</v>
+        <v>1</v>
       </c>
       <c r="EB3">
-        <v>0.8134708414990313</v>
+        <v>1</v>
       </c>
       <c r="EC3">
-        <v>0.8155841381249401</v>
+        <v>1</v>
       </c>
       <c r="ED3">
-        <v>0.8261816648298903</v>
+        <v>1</v>
       </c>
       <c r="EE3">
-        <v>0.8478011609414308</v>
+        <v>1</v>
       </c>
       <c r="EF3">
-        <v>0.857561123451305</v>
+        <v>1</v>
       </c>
       <c r="EG3">
-        <v>0.857856015025275</v>
+        <v>1</v>
       </c>
       <c r="EH3">
-        <v>0.8592519479979869</v>
+        <v>1</v>
       </c>
       <c r="EI3">
-        <v>0.8600411429965101</v>
+        <v>1</v>
       </c>
       <c r="EJ3">
-        <v>0.8695172251009757</v>
+        <v>1</v>
       </c>
       <c r="EK3">
-        <v>0.87082779166199</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.8708485115199466</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.8710942759758551</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.8720471685483236</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.8723572580471988</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.8817393294515784</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.8936669424996631</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.8981785876472114</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.8991204814895498</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.8992536799072742</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.89929346123691</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.8998724270174052</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.9005425090842301</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.9024019964869974</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.9075122386373187</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.9149757837446815</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.9149757837446815</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.9191576523205532</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.9213760839952024</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.9231991700214177</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.9306857527172454</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.9352944737210923</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.9371756871381322</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.94147960135008</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.9442895447574159</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.9456834015476158</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.9527533116420607</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.9536294501321976</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.9606720613014168</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.966603582493029</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.967309398860801</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9700635152245207</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9738425796085195</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9738425796085195</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9738425796085195</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9741612077353419</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9744977916951619</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9758794748572851</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9774707327447558</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9776345625658377</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9790196480342985</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9804135048244984</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9810638718370683</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.981739418344821</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9830810570025365</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9836283767484477</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9836283767484477</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9836437348327067</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9836833162574038</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9845964471402349</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9891179285423433</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9895255316708997</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9895255316708997</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9897526097416675</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9898019930647248</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9950470014450716</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9980286602275963</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9996329684338117</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0003523152419502666</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.000602988910304344</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.001325594931831957</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.001590710654439154</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.001590710654439154</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.001592696747724815</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.001651202231141366</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.001651202231141366</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.001651202231141366</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.001757779948861003</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.002030655368198515</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.002432122639196174</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.002775965427276067</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.00318735275623279</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.003646806807063053</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.004048274078060712</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.004350522698721418</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.004790440208139849</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.005164041967385035</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.005366217922056013</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.005492371038804469</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.00554717109213794</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.005555767620774753</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.005555767620774753</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.005555767620774753</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.005604442818653016</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.005681059469517672</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.005763776906565625</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.005920600810461573</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.00609355309096639</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.006309581600675036</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.006533459639670367</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.006695444711077314</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.007016080070550336</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.007168597433966611</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.007173841537483492</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.007464236630556421</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.007633087974180964</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.00764513984900634</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.007870543006872352</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.007921913582345723</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.007921913582345723</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.007960465965083688</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.008116608903524149</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.008245628804358737</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.008531962740247503</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.008836903952220747</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.008868175997097038</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.008937593695609808</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.009021576395599732</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.009096280724519927</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.00918026342450985</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.009286181368557687</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.009325383947371684</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.009325383947371684</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.009332051328124548</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.009334967869404265</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.009334967869404265</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.009422772306729351</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.009487528499378903</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.009495674701610095</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.009495674701610095</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.009501948405692373</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.009501948405692373</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.009523924792519884</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.009523924792519884</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.009558814564725208</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.009589435139653112</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.009589435139653112</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.009589435139653112</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.009613390245137814</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.009636259164466717</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.009636259164466717</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.009685235190659103</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.009694954122113819</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.009704673053568535</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.009704673053568535</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.00979255937051755</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.01008892462523878</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.01024506756367924</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.01024506756367924</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.0102575699483238</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.01030702121610109</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.01043676239328503</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.01043676239328503</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.01047227857994307</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.01047227857994307</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.01047227857994307</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.01047227857994307</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0105360459579923</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.08384646927398808</v>
+        <v>0.1241847983885475</v>
       </c>
       <c r="CO4">
-        <v>0.1050724294273685</v>
+        <v>0.1241847983885475</v>
       </c>
       <c r="CP4">
-        <v>0.2913413740355028</v>
+        <v>0.5726733681194807</v>
       </c>
       <c r="CQ4">
-        <v>0.4082246212877607</v>
+        <v>0.8219556887571178</v>
       </c>
       <c r="CR4">
-        <v>0.4329724696701199</v>
+        <v>0.8219556887571178</v>
       </c>
       <c r="CS4">
-        <v>0.4608961108981782</v>
+        <v>0.8219556887571178</v>
       </c>
       <c r="CT4">
-        <v>0.4718991111026024</v>
+        <v>0.8219556887571178</v>
       </c>
       <c r="CU4">
-        <v>0.4720928216192224</v>
+        <v>0.8219556887571178</v>
       </c>
       <c r="CV4">
-        <v>0.4725747346009308</v>
+        <v>0.8219556887571178</v>
       </c>
       <c r="CW4">
-        <v>0.4758049942635748</v>
+        <v>0.8219556887571178</v>
       </c>
       <c r="CX4">
-        <v>0.4870533567160488</v>
+        <v>0.8219556887571178</v>
       </c>
       <c r="CY4">
-        <v>0.5334418378604642</v>
+        <v>0.868847625321413</v>
       </c>
       <c r="CZ4">
-        <v>0.5410323174403254</v>
+        <v>0.868847625321413</v>
       </c>
       <c r="DA4">
-        <v>0.5436195335546097</v>
+        <v>0.868847625321413</v>
       </c>
       <c r="DB4">
-        <v>0.5489559218612101</v>
+        <v>0.868847625321413</v>
       </c>
       <c r="DC4">
-        <v>0.5557027066600164</v>
+        <v>0.868847625321413</v>
       </c>
       <c r="DD4">
-        <v>0.6270108451813904</v>
+        <v>0.98728386660449</v>
       </c>
       <c r="DE4">
-        <v>0.6376355383710585</v>
+        <v>0.98728386660449</v>
       </c>
       <c r="DF4">
-        <v>0.6524391843529497</v>
+        <v>0.98728386660449</v>
       </c>
       <c r="DG4">
-        <v>0.6534892148882808</v>
+        <v>0.98728386660449</v>
       </c>
       <c r="DH4">
-        <v>0.6652653694176293</v>
+        <v>0.98728386660449</v>
       </c>
       <c r="DI4">
-        <v>0.6675415765622302</v>
+        <v>0.98728386660449</v>
       </c>
       <c r="DJ4">
-        <v>0.6712539230445562</v>
+        <v>0.98728386660449</v>
       </c>
       <c r="DK4">
-        <v>0.6790010781998592</v>
+        <v>0.98728386660449</v>
       </c>
       <c r="DL4">
-        <v>0.6910785070489939</v>
+        <v>0.98728386660449</v>
       </c>
       <c r="DM4">
-        <v>0.7255631852436697</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN4">
-        <v>0.7255862826983049</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO4">
-        <v>0.7272414777715923</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP4">
-        <v>0.7277832094437646</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ4">
-        <v>0.7278458526870908</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR4">
-        <v>0.7362273588907184</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS4">
-        <v>0.7508948578854683</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT4">
-        <v>0.7508992585922762</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU4">
-        <v>0.7524190760131345</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV4">
-        <v>0.7524190760131345</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DW4">
-        <v>0.7579229533776485</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DX4">
-        <v>0.7661993024707721</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY4">
-        <v>0.7671616196782136</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ4">
-        <v>0.7688783335654397</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA4">
-        <v>0.7773656603756365</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB4">
-        <v>0.7822192988676198</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC4">
-        <v>0.7827965279200451</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED4">
-        <v>0.7932624420913833</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE4">
-        <v>0.8086179719729067</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF4">
-        <v>0.8090463658586117</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG4">
-        <v>0.8125293565846682</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH4">
-        <v>0.8135161644642015</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI4">
-        <v>0.8185280457654589</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ4">
-        <v>0.821239164457929</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK4">
-        <v>0.821239164457929</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL4">
-        <v>0.821261902351819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM4">
-        <v>0.8232887391107355</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN4">
-        <v>0.8254504553989023</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO4">
-        <v>0.8284465343258097</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP4">
-        <v>0.8381416304400905</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ4">
-        <v>0.8420849019170382</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER4">
-        <v>0.8421606635459812</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES4">
-        <v>0.8422147211402019</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET4">
-        <v>0.8426431150259068</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU4">
-        <v>0.8433056195893801</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV4">
-        <v>0.8437423211774703</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW4">
-        <v>0.8437423211774703</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX4">
-        <v>0.844522696548564</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY4">
-        <v>0.8505186731088801</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ4">
-        <v>0.8512611249090943</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA4">
-        <v>0.8543768141358666</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB4">
-        <v>0.8599739558949342</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC4">
-        <v>0.861884820958389</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD4">
-        <v>0.8664948637856523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE4">
-        <v>0.86970101308373</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF4">
-        <v>0.8698436739625338</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG4">
-        <v>0.869863601507589</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH4">
-        <v>0.8713609676047219</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI4">
-        <v>0.8719418807641506</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ4">
-        <v>0.8721288073642504</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK4">
-        <v>0.8732657441576729</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL4">
-        <v>0.8786376466424025</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM4">
-        <v>0.8949416576795416</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN4">
-        <v>0.8999508128338245</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO4">
-        <v>0.9036928051622389</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP4">
-        <v>0.9159734081327322</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ4">
-        <v>0.9204927037412238</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR4">
-        <v>0.9205399677471162</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS4">
-        <v>0.9205510913959578</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT4">
-        <v>0.9208243404277247</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU4">
-        <v>0.9211894951905013</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV4">
-        <v>0.9215719142211187</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW4">
-        <v>0.9217441537645287</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX4">
-        <v>0.9246108129730845</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY4">
-        <v>0.9331296498328155</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ4">
-        <v>0.9372409755420441</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA4">
-        <v>0.9424195912997235</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB4">
-        <v>0.9502611690611403</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC4">
-        <v>0.9574200965681486</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD4">
-        <v>0.9621129074225315</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE4">
-        <v>0.9632725532207042</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF4">
-        <v>0.9638978060581882</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG4">
-        <v>0.9647260320037818</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH4">
-        <v>0.965310440905485</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI4">
-        <v>0.9666774008600558</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ4">
-        <v>0.9668482969341825</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK4">
-        <v>0.9672099279816104</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL4">
-        <v>0.967231904368438</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM4">
-        <v>0.9703352856429761</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN4">
-        <v>0.9876411707271656</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO4">
-        <v>0.9923043708145571</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP4">
-        <v>0.9926178578157588</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ4">
-        <v>0.9959484889982546</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR4">
-        <v>0.999149019727463</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0003313010863574261</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0003797856702241669</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0003797856702241669</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0004293124534738532</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0004293124534738532</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0004506062826219727</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0004506062826219727</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0004506062826219727</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0004506062826219727</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0004506062826219727</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0004506062826219727</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0004506062826219727</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0005153716922638909</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0005971488465709253</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0005971488465709253</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0006000829887496296</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0008350941219772707</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.00100858405118599</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.001280828051489465</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.001487850035899371</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.001863189147648775</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.002415143944963707</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.00290454665742982</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.003042501451809768</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.003076366126424765</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.003113852525032079</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.003289773509049011</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.003290484260427536</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.003290484260427536</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.003290484260427536</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.003569280617744904</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.003790093305690806</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.003939176215422579</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.004262496504831389</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.004979387630428708</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.005372693291986363</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0056095548970748</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.006202979270315645</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.006702889129452973</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.006978235437641348</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.007272173554415306</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.007307158309388937</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.007307158309388937</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.007335032071846416</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.007335032071846416</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.007335032071846416</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.007335032071846416</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.007335032071846416</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.00733574282322494</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.00733574282322494</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.007386169157606101</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.007851176534262932</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.00815493296841956</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.00833476757542103</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.008575749793054206</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.009227622474439685</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.01030218261476099</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.01062524641115311</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.01080360995108861</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0111334195442458</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.0113673510234163</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.0113673510234163</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.0113673510234163</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.0113673510234163</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.0113673510234163</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.0113673510234163</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.0113673510234163</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0113673510234163</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.0113673510234163</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.01165542856380804</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.01185701809914745</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.01217183071093478</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.01308566597806293</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.01425541149838443</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.01469407387790091</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.01522513251673535</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.01589222438215984</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.01613781481276335</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.01618803866066455</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.01618803866066455</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.01618803866066455</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.01618803866066455</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.01618803866066455</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.01618803866066455</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.01635334913000608</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.01667824716080072</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.0170785777593883</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.01759364914488177</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.0180991206022424</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.0180991206022424</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1547606533987548</v>
+        <v>0.2882125827263936</v>
       </c>
       <c r="CO5">
-        <v>0.2331987328717648</v>
+        <v>0.4185889883213288</v>
       </c>
       <c r="CP5">
-        <v>0.4384709001569492</v>
+        <v>0.8927960396012474</v>
       </c>
       <c r="CQ5">
-        <v>0.4418872194298988</v>
+        <v>0.8927960396012474</v>
       </c>
       <c r="CR5">
-        <v>0.4796497265728693</v>
+        <v>0.9129062814299044</v>
       </c>
       <c r="CS5">
-        <v>0.4856926399156634</v>
+        <v>0.9129062814299044</v>
       </c>
       <c r="CT5">
-        <v>0.4856926399156634</v>
+        <v>0.9129062814299044</v>
       </c>
       <c r="CU5">
-        <v>0.4859577354484924</v>
+        <v>0.9129062814299044</v>
       </c>
       <c r="CV5">
-        <v>0.4900636747873895</v>
+        <v>0.9129062814299044</v>
       </c>
       <c r="CW5">
-        <v>0.490481772745479</v>
+        <v>0.9129062814299044</v>
       </c>
       <c r="CX5">
-        <v>0.5378931982888927</v>
+        <v>0.9591734807532926</v>
       </c>
       <c r="CY5">
-        <v>0.5600149843999259</v>
+        <v>0.9591734807532926</v>
       </c>
       <c r="CZ5">
-        <v>0.5628108701894368</v>
+        <v>0.9591734807532926</v>
       </c>
       <c r="DA5">
-        <v>0.5791395307864561</v>
+        <v>0.9591734807532926</v>
       </c>
       <c r="DB5">
-        <v>0.5862240162250038</v>
+        <v>0.9591734807532926</v>
       </c>
       <c r="DC5">
-        <v>0.6246539417270007</v>
+        <v>0.9810930065787399</v>
       </c>
       <c r="DD5">
-        <v>0.6619725881609888</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DE5">
-        <v>0.6640556994313284</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DF5">
-        <v>0.6795517496188197</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG5">
-        <v>0.6796474025686521</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH5">
-        <v>0.6844031317216218</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI5">
-        <v>0.6844031317216218</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ5">
-        <v>0.6922356533331813</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK5">
-        <v>0.6951201069017252</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL5">
-        <v>0.7160933093732202</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM5">
-        <v>0.7307768740658933</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN5">
-        <v>0.7307768740658933</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO5">
-        <v>0.7307768740658933</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP5">
-        <v>0.7310968900274726</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ5">
-        <v>0.7342585551429234</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR5">
-        <v>0.7421858341390182</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS5">
-        <v>0.7425543333254265</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT5">
-        <v>0.7476973872177379</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU5">
-        <v>0.7490523453413435</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV5">
-        <v>0.7493369286233117</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DW5">
-        <v>0.7526154070886355</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DX5">
-        <v>0.7526231637559212</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY5">
-        <v>0.7577421200836756</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ5">
-        <v>0.7579671719551373</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA5">
-        <v>0.7637085661441434</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB5">
-        <v>0.7644250972261625</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC5">
-        <v>0.7694807900432418</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED5">
-        <v>0.7828668976407287</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE5">
-        <v>0.7897665747390072</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF5">
-        <v>0.7913488972381958</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG5">
-        <v>0.7985158125748447</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH5">
-        <v>0.7992327037004421</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI5">
-        <v>0.8019039513282082</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ5">
-        <v>0.8019039513282082</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK5">
-        <v>0.8035537884892334</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL5">
-        <v>0.8042142513032908</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM5">
-        <v>0.8042142513032908</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN5">
-        <v>0.8050255442932097</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO5">
-        <v>0.8139199043971457</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP5">
-        <v>0.8263056446044362</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ5">
-        <v>0.8306412816041445</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER5">
-        <v>0.8306412816041445</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES5">
-        <v>0.8313063651972002</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET5">
-        <v>0.8321875154648908</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU5">
-        <v>0.8322259992754883</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV5">
-        <v>0.8324202676542827</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW5">
-        <v>0.8324202676542827</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX5">
-        <v>0.8333216941259803</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY5">
-        <v>0.836492005358344</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ5">
-        <v>0.8369248542511215</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA5">
-        <v>0.8453555837039071</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB5">
-        <v>0.8510175547136624</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC5">
-        <v>0.8540722513891372</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD5">
-        <v>0.8660000983157613</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE5">
-        <v>0.8746477494604722</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF5">
-        <v>0.8762073492544687</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG5">
-        <v>0.8785678874893378</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH5">
-        <v>0.8812264131040446</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI5">
-        <v>0.8821658619727457</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ5">
-        <v>0.8849659490144207</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK5">
-        <v>0.8851141102024502</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL5">
-        <v>0.8999359600269508</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM5">
-        <v>0.9140406436119919</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN5">
-        <v>0.9181004108610016</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO5">
-        <v>0.9271796934035238</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP5">
-        <v>0.9387721511163043</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ5">
-        <v>0.9407109209161484</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR5">
-        <v>0.94124047791971</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS5">
-        <v>0.9431710722962318</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT5">
-        <v>0.9447670390271434</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU5">
-        <v>0.9469041325946576</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV5">
-        <v>0.9479894698027709</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW5">
-        <v>0.9479894698027709</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX5">
-        <v>0.9505848279522303</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY5">
-        <v>0.9546340187436445</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ5">
-        <v>0.957786324754477</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA5">
-        <v>0.961767540941061</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB5">
-        <v>0.9672199001577354</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC5">
-        <v>0.9730369743912485</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD5">
-        <v>0.9766479517825593</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE5">
-        <v>0.9786080280485739</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF5">
-        <v>0.9804812944610036</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG5">
-        <v>0.9804820052123822</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH5">
-        <v>0.9812318188241896</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI5">
-        <v>0.9812318188241896</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ5">
-        <v>0.981366187736662</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK5">
-        <v>0.9818383149497223</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL5">
-        <v>0.9820079391265293</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM5">
-        <v>0.9873959751887806</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN5">
-        <v>0.9946743978471673</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO5">
-        <v>0.9946743978471673</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP5">
-        <v>0.9949880024366843</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ5">
-        <v>0.9972688547112009</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>3.864381172421122E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0002767993382070144</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0007855565198247611</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.000940679956510346</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.000940679956510346</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0009519629981613872</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0009519629981613872</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0009519629981613872</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0009519629981613872</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0009571173740716114</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.001113999509718293</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.001269678738375899</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.001520062836084217</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.001849149700267288</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.002008046805668063</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.00205557033723985</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.002175867648664137</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.002297934274052893</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.002362968407230233</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.002395606862735454</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.002503873393462606</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.002606846773268063</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0026140534995517</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.002652089600231884</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.002720997355237219</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.002919053868387905</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.003104254311842265</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.003210059952631265</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.003499067185317829</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.003731371110954092</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.003934415495133083</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.004224510440511999</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.004552792325268776</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.004642674525559116</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.004659217480465309</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.004815140934238194</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.005040667705469119</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.005093407263610111</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.005135170197929815</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.005135353032308628</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.005143741652676927</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.005211311565091418</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.005224926276772929</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.005230616075053983</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.00523946938545349</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.00523946938545349</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.00523946938545349</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.00542179914581408</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.005798866415516042</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.006026990651059321</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.006318387990320366</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.006719381477622429</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.006919874409176631</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.007151880984657179</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.007618643101940957</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.008049578372274213</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.008132675729535188</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.008135070203268124</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.008198803493294271</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.0082421440152084</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.008249710923263376</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.008324655617774453</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.008463068618011578</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.008633320355407436</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.008854067063560138</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.009372948147069494</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.0101212452656106</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.01094641044584009</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.0114494270916617</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.01186500375272897</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.0126317253556334</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.01336096018918445</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.01354747082019448</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.0136679832930349</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.01376952702997954</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.01377128661405784</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.01377128661405784</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.01377128661405784</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.01377128661405784</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.01379849784644656</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.01397312246499583</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.01419596137930793</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.01437399024244467</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.0145554557654478</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.01510111601129006</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.01604702802542584</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.01698511534139751</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.01741406523592575</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.01777822391117389</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.01983583987591834</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1896812057383364</v>
+        <v>0.3756300379077711</v>
       </c>
       <c r="CO6">
-        <v>0.2358087012992662</v>
+        <v>0.4189212938273709</v>
       </c>
       <c r="CP6">
-        <v>0.3861489834588763</v>
+        <v>0.7421555400473944</v>
       </c>
       <c r="CQ6">
-        <v>0.3908023064076596</v>
+        <v>0.7421555400473944</v>
       </c>
       <c r="CR6">
-        <v>0.4182802345125574</v>
+        <v>0.7421555400473944</v>
       </c>
       <c r="CS6">
-        <v>0.4289433679798608</v>
+        <v>0.7421555400473944</v>
       </c>
       <c r="CT6">
-        <v>0.4296720777159077</v>
+        <v>0.7421555400473944</v>
       </c>
       <c r="CU6">
-        <v>0.4308306392121763</v>
+        <v>0.7421555400473944</v>
       </c>
       <c r="CV6">
-        <v>0.439609831685669</v>
+        <v>0.7421555400473944</v>
       </c>
       <c r="CW6">
-        <v>0.4410926388148109</v>
+        <v>0.7421555400473944</v>
       </c>
       <c r="CX6">
-        <v>0.4900821693932471</v>
+        <v>0.7931349757700222</v>
       </c>
       <c r="CY6">
-        <v>0.5156579239104182</v>
+        <v>0.7931349757700222</v>
       </c>
       <c r="CZ6">
-        <v>0.515888767227598</v>
+        <v>0.7931349757700222</v>
       </c>
       <c r="DA6">
-        <v>0.5216606758206699</v>
+        <v>0.7931349757700222</v>
       </c>
       <c r="DB6">
-        <v>0.5274253310948968</v>
+        <v>0.7931349757700222</v>
       </c>
       <c r="DC6">
-        <v>0.5899362799811002</v>
+        <v>0.8804365020702301</v>
       </c>
       <c r="DD6">
-        <v>0.6644572097604711</v>
+        <v>1</v>
       </c>
       <c r="DE6">
-        <v>0.6644936421682521</v>
+        <v>1</v>
       </c>
       <c r="DF6">
-        <v>0.67098564087512</v>
+        <v>1</v>
       </c>
       <c r="DG6">
-        <v>0.6738146093161267</v>
+        <v>1</v>
       </c>
       <c r="DH6">
-        <v>0.6852675480574011</v>
+        <v>1</v>
       </c>
       <c r="DI6">
-        <v>0.6852720680288854</v>
+        <v>1</v>
       </c>
       <c r="DJ6">
-        <v>0.6915529289161412</v>
+        <v>1</v>
       </c>
       <c r="DK6">
-        <v>0.6939111286607668</v>
+        <v>1</v>
       </c>
       <c r="DL6">
-        <v>0.7103956020111339</v>
+        <v>1</v>
       </c>
       <c r="DM6">
-        <v>0.7207941597709271</v>
+        <v>1</v>
       </c>
       <c r="DN6">
-        <v>0.7225038324329239</v>
+        <v>1</v>
       </c>
       <c r="DO6">
-        <v>0.7241781331223749</v>
+        <v>1</v>
       </c>
       <c r="DP6">
-        <v>0.7249346409110076</v>
+        <v>1</v>
       </c>
       <c r="DQ6">
-        <v>0.7353734526444733</v>
+        <v>1</v>
       </c>
       <c r="DR6">
-        <v>0.7601462857053732</v>
+        <v>1</v>
       </c>
       <c r="DS6">
-        <v>0.7670869295807181</v>
+        <v>1</v>
       </c>
       <c r="DT6">
-        <v>0.7675005564127353</v>
+        <v>1</v>
       </c>
       <c r="DU6">
-        <v>0.7675005564127353</v>
+        <v>1</v>
       </c>
       <c r="DV6">
-        <v>0.7724301607865077</v>
+        <v>1</v>
       </c>
       <c r="DW6">
-        <v>0.7799223429288946</v>
+        <v>1</v>
       </c>
       <c r="DX6">
-        <v>0.7799223429288946</v>
+        <v>1</v>
       </c>
       <c r="DY6">
-        <v>0.7830589990982219</v>
+        <v>1</v>
       </c>
       <c r="DZ6">
-        <v>0.7836394703121811</v>
+        <v>1</v>
       </c>
       <c r="EA6">
-        <v>0.787660843592084</v>
+        <v>1</v>
       </c>
       <c r="EB6">
-        <v>0.7904898120330907</v>
+        <v>1</v>
       </c>
       <c r="EC6">
-        <v>0.7996579588398416</v>
+        <v>1</v>
       </c>
       <c r="ED6">
-        <v>0.8192605799262034</v>
+        <v>1</v>
       </c>
       <c r="EE6">
-        <v>0.8333842675224318</v>
+        <v>1</v>
       </c>
       <c r="EF6">
-        <v>0.8337409149072402</v>
+        <v>1</v>
       </c>
       <c r="EG6">
-        <v>0.8347863398767137</v>
+        <v>1</v>
       </c>
       <c r="EH6">
-        <v>0.8349308613361673</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>0.845735797642105</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>0.8485242673940928</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.8485643536981344</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.8489956932690343</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.8498208584492638</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.8498208584492638</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.8542075061008974</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.8644392192186259</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.869629213226807</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.8702259327293818</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.8702424756842879</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.8702424756842879</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.8710984947774801</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.8713344161281863</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.8731920133142681</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.8827276463352995</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.8999533620695653</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.9025152538242278</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.903922987467553</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.9049669810623493</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.9054383112627947</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.9122459671543789</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.9203583168121393</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.922722101789359</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.9243660580760042</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.9274036507518473</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.930980949617694</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.9421529009158021</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.9435415767762593</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.9482917964972448</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.9535508200424331</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9538781706482324</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.9560902554217042</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9595343604067408</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9595438217497358</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9597029655514167</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9599243736613204</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9602788471014422</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9606881937560018</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9614333459922055</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9614852353696146</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9633067851647926</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9662090435509458</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9677239125924398</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9689816843513722</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9713161458069777</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.973638314968622</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9742277416037105</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9742390246453615</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9742646308202079</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.975455953558457</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9804034549679804</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9815947777062296</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9817460853043233</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9817474247466682</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9818604291405827</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9888595385736131</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9973911343426327</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9975632270577717</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9975856252585424</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9979479580531635</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9988569915346377</v>
+        <v>1</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10570,16 +10570,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.03961621282542595</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5032040444543435</v>
+        <v>0.8517189980831764</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>17</v>
@@ -10611,16 +10611,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.006553169013985592</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.529997596335243</v>
+        <v>0.8713361170591231</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>17</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.0105360459579923</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5334418378604642</v>
+        <v>0.5726733681194807</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>17</v>
@@ -10693,16 +10693,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.0180991206022424</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5378931982888927</v>
+        <v>0.8927960396012474</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>17</v>
@@ -10734,16 +10734,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.01777822391117389</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5156579239104182</v>
+        <v>0.7421555400473944</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>17</v>
@@ -10829,16 +10829,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.03961621282542595</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7007895576676578</v>
+        <v>0.8517189980831764</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>17</v>
@@ -10870,16 +10870,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.006553169013985592</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7100501126934694</v>
+        <v>0.8713361170591231</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>17</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.0105360459579923</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7255631852436697</v>
+        <v>0.8219556887571178</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>17</v>
@@ -10952,16 +10952,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.0180991206022424</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7160933093732202</v>
+        <v>0.8927960396012474</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>17</v>
@@ -10993,16 +10993,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.01777822391117389</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7103956020111339</v>
+        <v>0.7421555400473944</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>17</v>
@@ -11088,16 +11088,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.03961621282542595</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8056013100356376</v>
+        <v>0.8517189980831764</v>
       </c>
       <c r="G2">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>17</v>
@@ -11129,16 +11129,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.006553169013985592</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8002881373521938</v>
+        <v>0.8713361170591231</v>
       </c>
       <c r="G3">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>17</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.0105360459579923</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8086179719729067</v>
+        <v>0.8219556887571178</v>
       </c>
       <c r="G4">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>17</v>
@@ -11211,16 +11211,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.0180991206022424</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8019039513282082</v>
+        <v>0.8927960396012474</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>17</v>
@@ -11252,16 +11252,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>0.01777822391117389</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8192605799262034</v>
+        <v>0.8804365020702301</v>
       </c>
       <c r="G6">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>17</v>
@@ -11347,16 +11347,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="E2">
-        <v>0.03961621282542595</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9126609572231773</v>
+        <v>0.9425931134811</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>17</v>
@@ -11388,16 +11388,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="E3">
-        <v>0.006553169013985592</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9005425090842301</v>
+        <v>0.9139695917839219</v>
       </c>
       <c r="G3">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>17</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="E4">
-        <v>0.0105360459579923</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9036928051622389</v>
+        <v>0.98728386660449</v>
       </c>
       <c r="G4">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>17</v>
@@ -11470,16 +11470,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="E5">
-        <v>0.0180991206022424</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9140406436119919</v>
+        <v>0.9129062814299044</v>
       </c>
       <c r="G5">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>17</v>
@@ -11511,16 +11511,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>0.01777822391117389</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9025152538242278</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>17</v>

--- a/on_trucks/Processed_Stand_Alone/17_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/17_11R22.xlsx
@@ -674,22 +674,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2574240311808033</v>
+        <v>0.2116830136500858</v>
       </c>
       <c r="E2">
-        <v>0.1402614823455096</v>
+        <v>0.1266870631178975</v>
       </c>
       <c r="F2">
-        <v>0.3989586962205507</v>
+        <v>0.3143597948220263</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01723321481121937</v>
+        <v>0.03743580795695334</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0005311206901440667</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -698,37 +698,37 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.002965636609440389</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.09744969111709491</v>
+        <v>0.09562911050745919</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.02291677032022633</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.01713550758141136</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.05000610342978386</v>
+        <v>0.06121100615391603</v>
       </c>
       <c r="T2">
-        <v>0.03661302028941143</v>
+        <v>0.05149495061066495</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.009022899865305196</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.002053760605626817</v>
+        <v>0.02642382373853294</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.01982019411206228</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.002683300263874251</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -787,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2775868269235207</v>
+        <v>0.2372664397366998</v>
       </c>
       <c r="F3">
-        <v>0.1254619971018861</v>
+        <v>0.1207611282593403</v>
       </c>
       <c r="G3">
-        <v>0.4255634973467957</v>
+        <v>0.3505948694168519</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.05230438035845576</v>
+        <v>0.06473312194618226</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -817,31 +817,31 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0276518625692575</v>
+        <v>0.04585290845901342</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.01145188830834365</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.001772407353305983</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.05887877103993815</v>
+        <v>0.06976814111444052</v>
       </c>
       <c r="U3">
-        <v>0.03255266466014604</v>
+        <v>0.04960620418829918</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.008085778794273309</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -853,13 +853,13 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.004042263071868652</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.02206168746866952</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.01400316188271172</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1266004579257536</v>
+        <v>0.1152460466268015</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.02418162762005599</v>
       </c>
       <c r="F4">
-        <v>0.4064548303183793</v>
+        <v>0.3127426029647964</v>
       </c>
       <c r="G4">
-        <v>0.2345519887759158</v>
+        <v>0.191428724824913</v>
       </c>
       <c r="H4">
-        <v>0.00628683506347773</v>
+        <v>0.03033929318679746</v>
       </c>
       <c r="I4">
-        <v>0.01415485160189844</v>
+        <v>0.03589184596009631</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.006307815512703091</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.006736806601563686</v>
       </c>
       <c r="O4">
-        <v>0.05990143297541074</v>
+        <v>0.0681757520797729</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.0003413681471207189</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -942,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0.12163980380121</v>
+        <v>0.1117452540595633</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.005646383937659748</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.0129528604754378</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.007659597697381921</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -963,13 +963,13 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.0006152995536057414</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.008186345391935834</v>
       </c>
       <c r="AC4">
-        <v>0.03040979953795437</v>
+        <v>0.0473631558895353</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.0017243982397464</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.01271482123051288</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1004,19 +1004,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2675280006482514</v>
+        <v>0.2209289622326693</v>
       </c>
       <c r="E5">
-        <v>0.1320084954813167</v>
+        <v>0.1215798687985091</v>
       </c>
       <c r="F5">
-        <v>0.4272244580780795</v>
+        <v>0.3380021337348586</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.03733301472751992</v>
+        <v>0.05217345256531336</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1034,31 +1034,31 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.05979160439170167</v>
+        <v>0.06863780225577146</v>
       </c>
       <c r="O5">
-        <v>0.0009280498257453274</v>
+        <v>0.02548504151305557</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.01559999115766435</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.03888648159682497</v>
+        <v>0.05331229619491006</v>
       </c>
       <c r="T5">
-        <v>0.0362998952505604</v>
+        <v>0.05141607462684857</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.01417927348035921</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1070,16 +1070,16 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.001102676798686877</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.02352516560725165</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.01279289577977701</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.001264365254324841</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1114,22 +1114,22 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3441328234088968</v>
+        <v>0.2769405515693146</v>
       </c>
       <c r="E6">
-        <v>0.05534507626942831</v>
+        <v>0.06593148301870733</v>
       </c>
       <c r="F6">
-        <v>0.298603190813589</v>
+        <v>0.2436733320956729</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.011812427690622</v>
+        <v>0.03412340348921602</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.005444651214364917</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.00223146436157186</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.06202576550959846</v>
+        <v>0.07081287437899784</v>
       </c>
       <c r="O6">
-        <v>0.00737228962706558</v>
+        <v>0.03087911973304037</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.09358806060661903</v>
+        <v>0.09387455395408499</v>
       </c>
       <c r="T6">
-        <v>0.1216222913678977</v>
+        <v>0.1143583763428976</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.006791716717439434</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.01537333413986636</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.004993399722023503</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.005062055555407974</v>
       </c>
       <c r="AH6">
-        <v>0.005498074706282975</v>
+        <v>0.02950968370739419</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1347,103 +1347,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2574240311808033</v>
+        <v>0.2116830136500858</v>
       </c>
       <c r="E2">
-        <v>0.3976855135263129</v>
+        <v>0.3383700767679834</v>
       </c>
       <c r="F2">
-        <v>0.7966442097468636</v>
+        <v>0.6527298715900096</v>
       </c>
       <c r="G2">
-        <v>0.7966442097468636</v>
+        <v>0.6527298715900096</v>
       </c>
       <c r="H2">
-        <v>0.813877424558083</v>
+        <v>0.690165679546963</v>
       </c>
       <c r="I2">
-        <v>0.813877424558083</v>
+        <v>0.690696800237107</v>
       </c>
       <c r="J2">
-        <v>0.813877424558083</v>
+        <v>0.690696800237107</v>
       </c>
       <c r="K2">
-        <v>0.813877424558083</v>
+        <v>0.690696800237107</v>
       </c>
       <c r="L2">
-        <v>0.813877424558083</v>
+        <v>0.6936624368465474</v>
       </c>
       <c r="M2">
-        <v>0.813877424558083</v>
+        <v>0.6936624368465474</v>
       </c>
       <c r="N2">
-        <v>0.9113271156751779</v>
+        <v>0.7892915473540065</v>
       </c>
       <c r="O2">
-        <v>0.9113271156751779</v>
+        <v>0.8122083176742328</v>
       </c>
       <c r="P2">
-        <v>0.9113271156751779</v>
+        <v>0.8122083176742328</v>
       </c>
       <c r="Q2">
-        <v>0.9113271156751779</v>
+        <v>0.8293438252556442</v>
       </c>
       <c r="R2">
-        <v>0.9113271156751779</v>
+        <v>0.8293438252556442</v>
       </c>
       <c r="S2">
-        <v>0.9613332191049617</v>
+        <v>0.8905548314095603</v>
       </c>
       <c r="T2">
-        <v>0.9979462393943731</v>
+        <v>0.9420497820202252</v>
       </c>
       <c r="U2">
-        <v>0.9979462393943731</v>
+        <v>0.9420497820202252</v>
       </c>
       <c r="V2">
-        <v>0.9979462393943731</v>
+        <v>0.9510726818855304</v>
       </c>
       <c r="W2">
-        <v>0.9979462393943731</v>
+        <v>0.9510726818855304</v>
       </c>
       <c r="X2">
-        <v>0.9979462393943731</v>
+        <v>0.9510726818855304</v>
       </c>
       <c r="Y2">
-        <v>0.9979462393943731</v>
+        <v>0.9510726818855304</v>
       </c>
       <c r="Z2">
-        <v>0.9979462393943731</v>
+        <v>0.9510726818855304</v>
       </c>
       <c r="AA2">
-        <v>0.9979462393943731</v>
+        <v>0.9510726818855304</v>
       </c>
       <c r="AB2">
-        <v>0.9999999999999999</v>
+        <v>0.9774965056240633</v>
       </c>
       <c r="AC2">
-        <v>0.9999999999999999</v>
+        <v>0.9973166997361256</v>
       </c>
       <c r="AD2">
-        <v>0.9999999999999999</v>
+        <v>0.9973166997361256</v>
       </c>
       <c r="AE2">
-        <v>0.9999999999999999</v>
+        <v>0.9973166997361256</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999999999</v>
+        <v>0.9973166997361256</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.9973166997361256</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -1460,100 +1460,100 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2775868269235207</v>
+        <v>0.2372664397366998</v>
       </c>
       <c r="F3">
-        <v>0.4030488240254068</v>
+        <v>0.3580275679960401</v>
       </c>
       <c r="G3">
-        <v>0.8286123213722025</v>
+        <v>0.708622437412892</v>
       </c>
       <c r="H3">
-        <v>0.8286123213722025</v>
+        <v>0.708622437412892</v>
       </c>
       <c r="I3">
-        <v>0.8809167017306583</v>
+        <v>0.7733555593590743</v>
       </c>
       <c r="J3">
-        <v>0.8809167017306583</v>
+        <v>0.7733555593590743</v>
       </c>
       <c r="K3">
-        <v>0.8809167017306583</v>
+        <v>0.7733555593590743</v>
       </c>
       <c r="L3">
-        <v>0.8809167017306583</v>
+        <v>0.7733555593590743</v>
       </c>
       <c r="M3">
-        <v>0.8809167017306583</v>
+        <v>0.7733555593590743</v>
       </c>
       <c r="N3">
-        <v>0.8809167017306583</v>
+        <v>0.7733555593590743</v>
       </c>
       <c r="O3">
-        <v>0.9085685642999157</v>
+        <v>0.8192084678180878</v>
       </c>
       <c r="P3">
-        <v>0.9085685642999157</v>
+        <v>0.8306603561264314</v>
       </c>
       <c r="Q3">
-        <v>0.9085685642999157</v>
+        <v>0.8306603561264314</v>
       </c>
       <c r="R3">
-        <v>0.9085685642999157</v>
+        <v>0.8324327634797374</v>
       </c>
       <c r="S3">
-        <v>0.9085685642999157</v>
+        <v>0.8324327634797374</v>
       </c>
       <c r="T3">
-        <v>0.9674473353398538</v>
+        <v>0.9022009045941779</v>
       </c>
       <c r="U3">
-        <v>0.9999999999999999</v>
+        <v>0.9518071087824771</v>
       </c>
       <c r="V3">
-        <v>0.9999999999999999</v>
+        <v>0.9518071087824771</v>
       </c>
       <c r="W3">
-        <v>0.9999999999999999</v>
+        <v>0.9598928875767504</v>
       </c>
       <c r="X3">
-        <v>0.9999999999999999</v>
+        <v>0.9598928875767504</v>
       </c>
       <c r="Y3">
-        <v>0.9999999999999999</v>
+        <v>0.9598928875767504</v>
       </c>
       <c r="Z3">
-        <v>0.9999999999999999</v>
+        <v>0.9598928875767504</v>
       </c>
       <c r="AA3">
-        <v>0.9999999999999999</v>
+        <v>0.963935150648619</v>
       </c>
       <c r="AB3">
-        <v>0.9999999999999999</v>
+        <v>0.963935150648619</v>
       </c>
       <c r="AC3">
-        <v>0.9999999999999999</v>
+        <v>0.9859968381172886</v>
       </c>
       <c r="AD3">
-        <v>0.9999999999999999</v>
+        <v>0.9859968381172886</v>
       </c>
       <c r="AE3">
-        <v>0.9999999999999999</v>
+        <v>0.9859968381172886</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999999</v>
+        <v>0.9859968381172886</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.9859968381172886</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.9859968381172886</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -1567,103 +1567,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1266004579257536</v>
+        <v>0.1152460466268015</v>
       </c>
       <c r="E4">
-        <v>0.1266004579257536</v>
+        <v>0.1394276742468575</v>
       </c>
       <c r="F4">
-        <v>0.5330552882441328</v>
+        <v>0.4521702772116539</v>
       </c>
       <c r="G4">
-        <v>0.7676072770200487</v>
+        <v>0.6435990020365669</v>
       </c>
       <c r="H4">
-        <v>0.7738941120835264</v>
+        <v>0.6739382952233643</v>
       </c>
       <c r="I4">
-        <v>0.7880489636854249</v>
+        <v>0.7098301411834607</v>
       </c>
       <c r="J4">
-        <v>0.7880489636854249</v>
+        <v>0.7161379566961638</v>
       </c>
       <c r="K4">
-        <v>0.7880489636854249</v>
+        <v>0.7161379566961638</v>
       </c>
       <c r="L4">
-        <v>0.7880489636854249</v>
+        <v>0.7161379566961638</v>
       </c>
       <c r="M4">
-        <v>0.7880489636854249</v>
+        <v>0.7161379566961638</v>
       </c>
       <c r="N4">
-        <v>0.7880489636854249</v>
+        <v>0.7228747632977275</v>
       </c>
       <c r="O4">
-        <v>0.8479503966608356</v>
+        <v>0.7910505153775004</v>
       </c>
       <c r="P4">
-        <v>0.8479503966608356</v>
+        <v>0.7913918835246211</v>
       </c>
       <c r="Q4">
-        <v>0.8479503966608356</v>
+        <v>0.7913918835246211</v>
       </c>
       <c r="R4">
-        <v>0.8479503966608356</v>
+        <v>0.7913918835246211</v>
       </c>
       <c r="S4">
-        <v>0.8479503966608356</v>
+        <v>0.7913918835246211</v>
       </c>
       <c r="T4">
-        <v>0.9695902004620456</v>
+        <v>0.9031371375841843</v>
       </c>
       <c r="U4">
-        <v>0.9695902004620456</v>
+        <v>0.9087835215218441</v>
       </c>
       <c r="V4">
-        <v>0.9695902004620456</v>
+        <v>0.9217363819972818</v>
       </c>
       <c r="W4">
-        <v>0.9695902004620456</v>
+        <v>0.9217363819972818</v>
       </c>
       <c r="X4">
-        <v>0.9695902004620456</v>
+        <v>0.9293959796946637</v>
       </c>
       <c r="Y4">
-        <v>0.9695902004620456</v>
+        <v>0.9293959796946637</v>
       </c>
       <c r="Z4">
-        <v>0.9695902004620456</v>
+        <v>0.9293959796946637</v>
       </c>
       <c r="AA4">
-        <v>0.9695902004620456</v>
+        <v>0.9300112792482694</v>
       </c>
       <c r="AB4">
-        <v>0.9695902004620456</v>
+        <v>0.9381976246402053</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9855607805297406</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9855607805297406</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9855607805297406</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9855607805297406</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9855607805297406</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.987285178769487</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1677,103 +1677,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2675280006482514</v>
+        <v>0.2209289622326693</v>
       </c>
       <c r="E5">
-        <v>0.3995364961295681</v>
+        <v>0.3425088310311784</v>
       </c>
       <c r="F5">
-        <v>0.8267609542076476</v>
+        <v>0.680510964766037</v>
       </c>
       <c r="G5">
-        <v>0.8267609542076476</v>
+        <v>0.680510964766037</v>
       </c>
       <c r="H5">
-        <v>0.8640939689351675</v>
+        <v>0.7326844173313504</v>
       </c>
       <c r="I5">
-        <v>0.8640939689351675</v>
+        <v>0.7326844173313504</v>
       </c>
       <c r="J5">
-        <v>0.8640939689351675</v>
+        <v>0.7326844173313504</v>
       </c>
       <c r="K5">
-        <v>0.8640939689351675</v>
+        <v>0.7326844173313504</v>
       </c>
       <c r="L5">
-        <v>0.8640939689351675</v>
+        <v>0.7326844173313504</v>
       </c>
       <c r="M5">
-        <v>0.8640939689351675</v>
+        <v>0.7326844173313504</v>
       </c>
       <c r="N5">
-        <v>0.9238855733268692</v>
+        <v>0.8013222195871218</v>
       </c>
       <c r="O5">
-        <v>0.9248136231526145</v>
+        <v>0.8268072611001773</v>
       </c>
       <c r="P5">
-        <v>0.9248136231526145</v>
+        <v>0.8268072611001773</v>
       </c>
       <c r="Q5">
-        <v>0.9248136231526145</v>
+        <v>0.8424072522578416</v>
       </c>
       <c r="R5">
-        <v>0.9248136231526145</v>
+        <v>0.8424072522578416</v>
       </c>
       <c r="S5">
-        <v>0.9637001047494395</v>
+        <v>0.8957195484527517</v>
       </c>
       <c r="T5">
-        <v>0.9999999999999999</v>
+        <v>0.9471356230796003</v>
       </c>
       <c r="U5">
-        <v>0.9999999999999999</v>
+        <v>0.9471356230796003</v>
       </c>
       <c r="V5">
-        <v>0.9999999999999999</v>
+        <v>0.9613148965599595</v>
       </c>
       <c r="W5">
-        <v>0.9999999999999999</v>
+        <v>0.9613148965599595</v>
       </c>
       <c r="X5">
-        <v>0.9999999999999999</v>
+        <v>0.9613148965599595</v>
       </c>
       <c r="Y5">
-        <v>0.9999999999999999</v>
+        <v>0.9613148965599595</v>
       </c>
       <c r="Z5">
-        <v>0.9999999999999999</v>
+        <v>0.9624175733586464</v>
       </c>
       <c r="AA5">
-        <v>0.9999999999999999</v>
+        <v>0.9624175733586464</v>
       </c>
       <c r="AB5">
-        <v>0.9999999999999999</v>
+        <v>0.9859427389658981</v>
       </c>
       <c r="AC5">
-        <v>0.9999999999999999</v>
+        <v>0.9987356347456752</v>
       </c>
       <c r="AD5">
-        <v>0.9999999999999999</v>
+        <v>0.9987356347456752</v>
       </c>
       <c r="AE5">
-        <v>0.9999999999999999</v>
+        <v>0.9987356347456752</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999999</v>
+        <v>0.9987356347456752</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999999</v>
+        <v>0.9987356347456752</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1787,103 +1787,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3441328234088968</v>
+        <v>0.2769405515693146</v>
       </c>
       <c r="E6">
-        <v>0.3994778996783251</v>
+        <v>0.342872034588022</v>
       </c>
       <c r="F6">
-        <v>0.6980810904919141</v>
+        <v>0.5865453666836948</v>
       </c>
       <c r="G6">
-        <v>0.6980810904919141</v>
+        <v>0.5865453666836948</v>
       </c>
       <c r="H6">
-        <v>0.7098935181825361</v>
+        <v>0.6206687701729109</v>
       </c>
       <c r="I6">
-        <v>0.7098935181825361</v>
+        <v>0.6261134213872758</v>
       </c>
       <c r="J6">
-        <v>0.7098935181825361</v>
+        <v>0.6261134213872758</v>
       </c>
       <c r="K6">
-        <v>0.7098935181825361</v>
+        <v>0.6261134213872758</v>
       </c>
       <c r="L6">
-        <v>0.7098935181825361</v>
+        <v>0.6283448857488476</v>
       </c>
       <c r="M6">
-        <v>0.7098935181825361</v>
+        <v>0.6283448857488476</v>
       </c>
       <c r="N6">
-        <v>0.7719192836921346</v>
+        <v>0.6991577601278455</v>
       </c>
       <c r="O6">
-        <v>0.7792915733192002</v>
+        <v>0.7300368798608858</v>
       </c>
       <c r="P6">
-        <v>0.7792915733192002</v>
+        <v>0.7300368798608858</v>
       </c>
       <c r="Q6">
-        <v>0.7792915733192002</v>
+        <v>0.7300368798608858</v>
       </c>
       <c r="R6">
-        <v>0.7792915733192002</v>
+        <v>0.7300368798608858</v>
       </c>
       <c r="S6">
-        <v>0.8728796339258192</v>
+        <v>0.8239114338149708</v>
       </c>
       <c r="T6">
-        <v>0.9945019252937169</v>
+        <v>0.9382698101578684</v>
       </c>
       <c r="U6">
-        <v>0.9945019252937169</v>
+        <v>0.9382698101578684</v>
       </c>
       <c r="V6">
-        <v>0.9945019252937169</v>
+        <v>0.9382698101578684</v>
       </c>
       <c r="W6">
-        <v>0.9945019252937169</v>
+        <v>0.9382698101578684</v>
       </c>
       <c r="X6">
-        <v>0.9945019252937169</v>
+        <v>0.9450615268753078</v>
       </c>
       <c r="Y6">
-        <v>0.9945019252937169</v>
+        <v>0.9450615268753078</v>
       </c>
       <c r="Z6">
-        <v>0.9945019252937169</v>
+        <v>0.9450615268753078</v>
       </c>
       <c r="AA6">
-        <v>0.9945019252937169</v>
+        <v>0.9450615268753078</v>
       </c>
       <c r="AB6">
-        <v>0.9945019252937169</v>
+        <v>0.9604348610151742</v>
       </c>
       <c r="AC6">
-        <v>0.9945019252937169</v>
+        <v>0.9654282607371977</v>
       </c>
       <c r="AD6">
-        <v>0.9945019252937169</v>
+        <v>0.9654282607371977</v>
       </c>
       <c r="AE6">
-        <v>0.9945019252937169</v>
+        <v>0.9654282607371977</v>
       </c>
       <c r="AF6">
-        <v>0.9945019252937169</v>
+        <v>0.9654282607371977</v>
       </c>
       <c r="AG6">
-        <v>0.9945019252937169</v>
+        <v>0.9704903162926056</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7966442097468636</v>
+        <v>0.6527298715900096</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8286123213722025</v>
+        <v>0.708622437412892</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2033,16 +2033,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.6435990020365669</v>
+      </c>
+      <c r="G4">
         <v>5</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.5330552882441328</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
       </c>
       <c r="H4">
         <v>17</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8267609542076476</v>
+        <v>0.680510964766037</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6980810904919141</v>
+        <v>0.5865453666836948</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2210,16 +2210,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7966442097468636</v>
+        <v>0.7892915473540065</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>17</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8286123213722025</v>
+        <v>0.708622437412892</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2292,16 +2292,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7676072770200487</v>
+        <v>0.7098301411834607</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>17</v>
@@ -2333,16 +2333,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8267609542076476</v>
+        <v>0.7326844173313504</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>17</v>
@@ -2374,16 +2374,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7098935181825361</v>
+        <v>0.7300368798608858</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>17</v>
@@ -2469,16 +2469,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.813877424558083</v>
+        <v>0.8122083176742328</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>17</v>
@@ -2510,16 +2510,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8286123213722025</v>
+        <v>0.8192084678180878</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>17</v>
@@ -2551,16 +2551,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8479503966608356</v>
+        <v>0.9031371375841843</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>17</v>
@@ -2592,16 +2592,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8267609542076476</v>
+        <v>0.8013222195871218</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>17</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8728796339258192</v>
+        <v>0.8239114338149708</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -2728,16 +2728,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9113271156751779</v>
+        <v>0.9420497820202252</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>17</v>
@@ -2769,16 +2769,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9085685642999157</v>
+        <v>0.9022009045941779</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>17</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9695902004620456</v>
+        <v>0.9031371375841843</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -2851,16 +2851,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9238855733268692</v>
+        <v>0.9471356230796003</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>17</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9945019252937169</v>
+        <v>0.9382698101578684</v>
       </c>
       <c r="G6">
         <v>18</v>
